--- a/Documentos/Mapeamento das Fontes de Dados/OLOS/MAPEAMENTO_OLOS.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/OLOS/MAPEAMENTO_OLOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\OLOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E79D73-1BD1-40BA-9087-7F53D0C866D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0082CB83-B377-4EED-95FC-0FAB18592370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="937" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="466">
   <si>
     <t>CPF</t>
   </si>
@@ -1446,6 +1446,9 @@
   </si>
   <si>
     <t>dados da tabela AttemptsRawData são ativos</t>
+  </si>
+  <si>
+    <t>EndWrap</t>
   </si>
 </sst>
 </file>
@@ -1861,9 +1864,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1896,6 +1896,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2500,17 +2503,17 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="44" t="s">
         <v>409</v>
       </c>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
     </row>
     <row r="4" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -3135,17 +3138,17 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="44" t="s">
         <v>409</v>
       </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -3575,17 +3578,17 @@
       <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="44" t="s">
         <v>409</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -6709,10 +6712,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6736,746 +6739,816 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>352</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="35" t="s">
         <v>366</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="35" t="s">
         <v>367</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="35" t="s">
         <v>368</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="35" t="s">
         <v>369</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="35" t="s">
         <v>370</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="35" t="s">
         <v>371</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="35" t="s">
         <v>372</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="37" t="s">
         <v>373</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="37" t="s">
         <v>374</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="O1" s="38" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
         <v>10</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="38" t="s">
         <v>446</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="38" t="s">
         <v>447</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="38" t="s">
         <v>448</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39" t="s">
+      <c r="K2" s="38"/>
+      <c r="L2" s="38" t="s">
         <v>449</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39" t="s">
+      <c r="M2" s="38"/>
+      <c r="N2" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="O2" s="39"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36">
         <v>50</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39" t="s">
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="O3" s="39"/>
+      <c r="O3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37">
+      <c r="C4" s="36"/>
+      <c r="D4" s="36">
         <v>50</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39" t="s">
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="O4" s="39"/>
+      <c r="O4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37">
+      <c r="C5" s="36"/>
+      <c r="D5" s="36">
         <v>8</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39" t="s">
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="O5" s="39"/>
+      <c r="O5" s="38"/>
     </row>
     <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37">
+      <c r="C6" s="36"/>
+      <c r="D6" s="36">
         <v>8</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39" t="s">
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="O6" s="39"/>
-    </row>
-    <row r="7" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="39" t="s">
+      <c r="O6" s="38"/>
+    </row>
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
         <v>20</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39" t="s">
+      <c r="E7" s="38"/>
+      <c r="F7" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="H7" s="39" t="s">
+      <c r="H7" s="38" t="s">
         <v>446</v>
       </c>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="38" t="s">
         <v>447</v>
       </c>
-      <c r="J7" s="39" t="s">
+      <c r="J7" s="38" t="s">
         <v>450</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="43" t="s">
+      <c r="K7" s="38"/>
+      <c r="L7" s="42" t="s">
         <v>451</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39" t="s">
+      <c r="M7" s="38"/>
+      <c r="N7" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="O7" s="39"/>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="38" t="s">
         <v>430</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39">
+      <c r="C8" s="38"/>
+      <c r="D8" s="38">
         <v>20</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39" t="s">
+      <c r="E8" s="38"/>
+      <c r="F8" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="38" t="s">
         <v>446</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="I8" s="38" t="s">
         <v>447</v>
       </c>
-      <c r="J8" s="39" t="s">
+      <c r="J8" s="38" t="s">
         <v>450</v>
       </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="43" t="s">
+      <c r="K8" s="38"/>
+      <c r="L8" s="42" t="s">
         <v>452</v>
       </c>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39" t="s">
+      <c r="M8" s="38"/>
+      <c r="N8" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="O8" s="39"/>
+      <c r="O8" s="38"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="38" t="s">
         <v>431</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="38" t="s">
         <v>432</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39">
+      <c r="C9" s="38"/>
+      <c r="D9" s="38">
         <v>15</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39" t="s">
+      <c r="E9" s="38"/>
+      <c r="F9" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="38" t="s">
         <v>446</v>
       </c>
-      <c r="I9" s="39" t="s">
+      <c r="I9" s="38" t="s">
         <v>447</v>
       </c>
-      <c r="J9" s="39" t="s">
+      <c r="J9" s="38" t="s">
         <v>453</v>
       </c>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39" t="s">
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="O9" s="39"/>
+      <c r="O9" s="38"/>
     </row>
     <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="38" t="s">
         <v>433</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="38" t="s">
         <v>434</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39">
+      <c r="C10" s="38"/>
+      <c r="D10" s="38">
         <v>15</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39" t="s">
+      <c r="E10" s="38"/>
+      <c r="F10" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="H10" s="39" t="s">
+      <c r="H10" s="38" t="s">
         <v>446</v>
       </c>
-      <c r="I10" s="39" t="s">
+      <c r="I10" s="38" t="s">
         <v>435</v>
       </c>
-      <c r="J10" s="39" t="s">
+      <c r="J10" s="38" t="s">
         <v>454</v>
       </c>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39" t="s">
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="O10" s="39"/>
+      <c r="O10" s="38"/>
     </row>
     <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39">
+      <c r="C11" s="38"/>
+      <c r="D11" s="38">
         <v>20</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39" t="s">
+      <c r="E11" s="38"/>
+      <c r="F11" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="38" t="s">
         <v>446</v>
       </c>
-      <c r="I11" s="39" t="s">
+      <c r="I11" s="38" t="s">
         <v>447</v>
       </c>
-      <c r="J11" s="39" t="s">
+      <c r="J11" s="38" t="s">
         <v>455</v>
       </c>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39" t="s">
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="O11" s="39"/>
+      <c r="O11" s="38"/>
     </row>
     <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="38" t="s">
         <v>436</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="38" t="s">
         <v>437</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39">
+      <c r="C12" s="38"/>
+      <c r="D12" s="38">
         <v>8</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39" t="s">
+      <c r="E12" s="38"/>
+      <c r="F12" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="G12" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="H12" s="39" t="s">
+      <c r="H12" s="38" t="s">
         <v>446</v>
       </c>
-      <c r="I12" s="39" t="s">
+      <c r="I12" s="38" t="s">
         <v>447</v>
       </c>
-      <c r="J12" s="39" t="s">
+      <c r="J12" s="38" t="s">
         <v>456</v>
       </c>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39" t="s">
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="O12" s="39"/>
+      <c r="O12" s="38"/>
     </row>
     <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="38" t="s">
         <v>438</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="38" t="s">
         <v>439</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39">
+      <c r="C13" s="38"/>
+      <c r="D13" s="38">
         <v>200</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39" t="s">
+      <c r="E13" s="38"/>
+      <c r="F13" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="H13" s="39" t="s">
+      <c r="H13" s="38" t="s">
         <v>446</v>
       </c>
-      <c r="I13" s="39" t="s">
+      <c r="I13" s="38" t="s">
         <v>457</v>
       </c>
-      <c r="J13" s="39" t="s">
+      <c r="J13" s="38" t="s">
         <v>458</v>
       </c>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39" t="s">
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="O13" s="39"/>
+      <c r="O13" s="38"/>
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="38" t="s">
         <v>440</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="38" t="s">
         <v>441</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39">
+      <c r="C14" s="38"/>
+      <c r="D14" s="38">
         <v>8</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39" t="s">
+      <c r="E14" s="38"/>
+      <c r="F14" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="H14" s="39" t="s">
+      <c r="H14" s="38" t="s">
         <v>446</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="I14" s="38" t="s">
         <v>442</v>
       </c>
-      <c r="J14" s="39" t="s">
+      <c r="J14" s="38" t="s">
         <v>459</v>
       </c>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39" t="s">
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="O14" s="39"/>
+      <c r="O14" s="38"/>
     </row>
     <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="38" t="s">
         <v>443</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="38" t="s">
         <v>444</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39">
+      <c r="C15" s="38"/>
+      <c r="D15" s="38">
         <v>200</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39" t="s">
+      <c r="E15" s="38"/>
+      <c r="F15" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="H15" s="39" t="s">
+      <c r="H15" s="38" t="s">
         <v>446</v>
       </c>
-      <c r="I15" s="39" t="s">
+      <c r="I15" s="38" t="s">
         <v>442</v>
       </c>
-      <c r="J15" s="39" t="s">
+      <c r="J15" s="38" t="s">
         <v>458</v>
       </c>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39" t="s">
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="O15" s="39"/>
+      <c r="O15" s="38"/>
     </row>
     <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39">
+      <c r="C16" s="38"/>
+      <c r="D16" s="38">
         <v>100</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39" t="s">
+      <c r="E16" s="38"/>
+      <c r="F16" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="H16" s="39" t="s">
+      <c r="H16" s="38" t="s">
         <v>446</v>
       </c>
-      <c r="I16" s="39" t="s">
+      <c r="I16" s="38" t="s">
         <v>447</v>
       </c>
-      <c r="J16" s="39" t="s">
+      <c r="J16" s="38" t="s">
         <v>460</v>
       </c>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39" t="s">
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="O16" s="39"/>
+      <c r="O16" s="38"/>
     </row>
     <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39">
+      <c r="C17" s="38"/>
+      <c r="D17" s="38">
         <v>20</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39" t="s">
+      <c r="E17" s="38"/>
+      <c r="F17" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="G17" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="H17" s="39" t="s">
+      <c r="H17" s="38" t="s">
         <v>446</v>
       </c>
-      <c r="I17" s="39" t="s">
+      <c r="I17" s="38" t="s">
         <v>447</v>
       </c>
-      <c r="J17" s="39" t="s">
+      <c r="J17" s="38" t="s">
         <v>461</v>
       </c>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39" t="s">
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="O17" s="39"/>
+      <c r="O17" s="38"/>
     </row>
     <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39">
+      <c r="C18" s="38"/>
+      <c r="D18" s="38">
         <v>8</v>
       </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39" t="s">
+      <c r="E18" s="38"/>
+      <c r="F18" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G18" s="39" t="s">
+      <c r="G18" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="H18" s="39" t="s">
+      <c r="H18" s="38" t="s">
         <v>446</v>
       </c>
-      <c r="I18" s="39" t="s">
+      <c r="I18" s="38" t="s">
         <v>447</v>
       </c>
-      <c r="J18" s="39" t="s">
+      <c r="J18" s="38" t="s">
         <v>448</v>
       </c>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39" t="s">
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="O18" s="39"/>
+      <c r="O18" s="38"/>
     </row>
     <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39">
+      <c r="C19" s="38"/>
+      <c r="D19" s="38">
         <v>8</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39" t="s">
+      <c r="E19" s="38"/>
+      <c r="F19" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G19" s="39" t="s">
+      <c r="G19" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="H19" s="39" t="s">
+      <c r="H19" s="38" t="s">
         <v>446</v>
       </c>
-      <c r="I19" s="39" t="s">
+      <c r="I19" s="38" t="s">
         <v>447</v>
       </c>
-      <c r="J19" s="39" t="s">
+      <c r="J19" s="38" t="s">
         <v>462</v>
       </c>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39" t="s">
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="O19" s="39"/>
+      <c r="O19" s="38"/>
     </row>
     <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38">
+        <v>8</v>
+      </c>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>446</v>
+      </c>
+      <c r="I20" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="J20" s="38" t="s">
+        <v>448</v>
+      </c>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38" t="s">
+        <v>429</v>
+      </c>
+      <c r="O20" s="38"/>
+    </row>
+    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38">
+        <v>8</v>
+      </c>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>446</v>
+      </c>
+      <c r="I21" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="J21" s="38" t="s">
+        <v>465</v>
+      </c>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38" t="s">
+        <v>429</v>
+      </c>
+      <c r="O21" s="38"/>
+    </row>
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B22" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39">
+      <c r="C22" s="38"/>
+      <c r="D22" s="38">
         <v>11</v>
       </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39" t="s">
+      <c r="E22" s="38"/>
+      <c r="F22" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G20" s="39" t="s">
+      <c r="G22" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="H20" s="39" t="s">
+      <c r="H22" s="38" t="s">
         <v>446</v>
       </c>
-      <c r="I20" s="39" t="s">
+      <c r="I22" s="38" t="s">
         <v>447</v>
       </c>
-      <c r="J20" s="39" t="s">
+      <c r="J22" s="38" t="s">
         <v>463</v>
       </c>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39" t="s">
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="O20" s="39"/>
-    </row>
-    <row r="21" spans="1:15" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="44" t="s">
+      <c r="O22" s="38"/>
+    </row>
+    <row r="23" spans="1:15" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B23" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44">
+      <c r="C23" s="43"/>
+      <c r="D23" s="43">
         <v>11</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E23" s="43" t="s">
         <v>464</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F23" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="G21" s="44" t="s">
+      <c r="G23" s="43" t="s">
         <v>445</v>
       </c>
-      <c r="H21" s="44" t="s">
+      <c r="H23" s="43" t="s">
         <v>446</v>
       </c>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39" t="s">
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="O21" s="39"/>
-    </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="39" t="s">
+      <c r="O23" s="38"/>
+    </row>
+    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B24" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39">
+      <c r="C24" s="38"/>
+      <c r="D24" s="38">
         <v>19.2</v>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39" t="s">
+      <c r="E24" s="38"/>
+      <c r="F24" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G22" s="39" t="s">
+      <c r="G24" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="H22" s="39" t="s">
+      <c r="H24" s="38" t="s">
         <v>446</v>
       </c>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39" t="s">
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="O22" s="39"/>
+      <c r="O24" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -7613,17 +7686,17 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="44" t="s">
         <v>409</v>
       </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -8057,17 +8130,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="44" t="s">
         <v>409</v>
       </c>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -8430,17 +8503,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="44" t="s">
         <v>409</v>
       </c>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
     </row>
     <row r="4" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -9200,17 +9273,17 @@
       <c r="P3" s="16"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="44" t="s">
         <v>409</v>
       </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -9926,17 +9999,17 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="44" t="s">
         <v>409</v>
       </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
     </row>
     <row r="5" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">

--- a/Documentos/Mapeamento das Fontes de Dados/OLOS/MAPEAMENTO_OLOS.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/OLOS/MAPEAMENTO_OLOS.xlsx
@@ -8,27 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\OLOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0082CB83-B377-4EED-95FC-0FAB18592370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66DA2F0-3DDB-4D66-9B57-9C5207FCBC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="937" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="937" firstSheet="2" activeTab="3" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
     <sheet name="CHAVES" sheetId="15" state="hidden" r:id="rId2"/>
-    <sheet name="ACIONA_DISCADOR" sheetId="3" r:id="rId3"/>
-    <sheet name="ACIONA_CRM" sheetId="2" state="hidden" r:id="rId4"/>
-    <sheet name="TELEFONE" sheetId="16" state="hidden" r:id="rId5"/>
-    <sheet name="EMAIL" sheetId="17" state="hidden" r:id="rId6"/>
-    <sheet name="MULTICANAIS" sheetId="9" r:id="rId7"/>
-    <sheet name="CADASTRO" sheetId="14" state="hidden" r:id="rId8"/>
-    <sheet name="CARTEIRA ATIVA" sheetId="1" state="hidden" r:id="rId9"/>
-    <sheet name="DEXPARA" sheetId="6" state="hidden" r:id="rId10"/>
-    <sheet name="ACORDOS" sheetId="7" state="hidden" r:id="rId11"/>
-    <sheet name="PAGAMENTOS" sheetId="8" state="hidden" r:id="rId12"/>
-    <sheet name="TEMPOS" sheetId="4" r:id="rId13"/>
-    <sheet name="PAUSAS" sheetId="13" r:id="rId14"/>
-    <sheet name="PESQUISA" sheetId="5" r:id="rId15"/>
-    <sheet name="DEADLINE" sheetId="19" state="hidden" r:id="rId16"/>
+    <sheet name="ACIONA_DISCADOR_OUTBOUND" sheetId="3" r:id="rId3"/>
+    <sheet name="ACIONA_DISCADOR_INBOUND" sheetId="20" r:id="rId4"/>
+    <sheet name="ACIONA_CRM" sheetId="2" state="hidden" r:id="rId5"/>
+    <sheet name="TELEFONE" sheetId="16" state="hidden" r:id="rId6"/>
+    <sheet name="EMAIL" sheetId="17" state="hidden" r:id="rId7"/>
+    <sheet name="MULTICANAIS" sheetId="9" r:id="rId8"/>
+    <sheet name="CADASTRO" sheetId="14" state="hidden" r:id="rId9"/>
+    <sheet name="CARTEIRA ATIVA" sheetId="1" state="hidden" r:id="rId10"/>
+    <sheet name="DEXPARA" sheetId="6" state="hidden" r:id="rId11"/>
+    <sheet name="ACORDOS" sheetId="7" state="hidden" r:id="rId12"/>
+    <sheet name="PAGAMENTOS" sheetId="8" state="hidden" r:id="rId13"/>
+    <sheet name="TEMPOS" sheetId="4" r:id="rId14"/>
+    <sheet name="PAUSAS" sheetId="13" r:id="rId15"/>
+    <sheet name="PESQUISA" sheetId="5" r:id="rId16"/>
+    <sheet name="DEADLINE" sheetId="19" state="hidden" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="477">
   <si>
     <t>CPF</t>
   </si>
@@ -704,9 +705,6 @@
     <t>NUMERO DO CPF, DEVEDOR_ID, IDENTIFICADOR_ID OU TITULO_ID QUE ESTIVER PRESENTE NA BASE DE DADOS DO DISCADOR</t>
   </si>
   <si>
-    <t>ID ÚNICO DA CHAMADA ESPEDIDO PELO DISCADOR</t>
-  </si>
-  <si>
     <t>MAILING REGISTRADO ATRELADO A CAMPANHA</t>
   </si>
   <si>
@@ -722,12 +720,6 @@
     <t>TELEFONE DISCADO</t>
   </si>
   <si>
-    <t>CUSTO POR TER DISCADO</t>
-  </si>
-  <si>
-    <t>SE FOI ATIVO OU RECEPTIVO</t>
-  </si>
-  <si>
     <t>ID DA CARTEIRA NO CRM IMPLANTADO</t>
   </si>
   <si>
@@ -1445,10 +1437,52 @@
     <t>OriginalPhoneNumber</t>
   </si>
   <si>
-    <t>dados da tabela AttemptsRawData são ativos</t>
-  </si>
-  <si>
     <t>EndWrap</t>
+  </si>
+  <si>
+    <t>InboundRawData</t>
+  </si>
+  <si>
+    <t>CallStart</t>
+  </si>
+  <si>
+    <t>ID ÚNICO DA CHAMADA EXPEDIDO PELO DISCADOR</t>
+  </si>
+  <si>
+    <t>CallEnd</t>
+  </si>
+  <si>
+    <t>INICIO_FILA</t>
+  </si>
+  <si>
+    <t>FIM_FILA</t>
+  </si>
+  <si>
+    <t>WrapEnd</t>
+  </si>
+  <si>
+    <t>QueueStart</t>
+  </si>
+  <si>
+    <t>QueueEnd</t>
+  </si>
+  <si>
+    <t>Ani</t>
+  </si>
+  <si>
+    <t>TELEFONE UTILIZADO PARA LIGAR NO RECEPTIVO</t>
+  </si>
+  <si>
+    <t>QUANDO O CLIENTE ENTROU NA FILA</t>
+  </si>
+  <si>
+    <t>QUANDO O CLIENTE SAIU DA FILA</t>
+  </si>
+  <si>
+    <t>ROTA ATRELADA A ESSA CHAMADA</t>
+  </si>
+  <si>
+    <t>Dnis</t>
   </si>
 </sst>
 </file>
@@ -1544,7 +1578,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1638,12 +1672,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF44546A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1766,7 +1794,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1893,9 +1921,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2234,10 +2259,10 @@
         <v>193</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2311,6 +2336,888 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE88DAFB-0E6A-4114-9298-6358DAA44DC1}">
+  <dimension ref="A1:AL42"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="48.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="52.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="34" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>44593</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="1">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1">
+        <v>61568876989</v>
+      </c>
+      <c r="M2" s="1">
+        <v>78546589</v>
+      </c>
+      <c r="N2" s="1">
+        <v>75477856</v>
+      </c>
+      <c r="O2" s="1">
+        <v>12457856</v>
+      </c>
+      <c r="P2" s="2">
+        <v>44593</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>44622</v>
+      </c>
+      <c r="R2" s="2">
+        <v>44617</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="2">
+        <v>44586</v>
+      </c>
+      <c r="U2" s="2">
+        <v>44586</v>
+      </c>
+      <c r="V2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="W2" s="3">
+        <v>13535</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="16">
+        <v>44566.370775462965</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="I4" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+    </row>
+    <row r="5" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="O5" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="P5" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q5" s="31" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E6" s="1">
+        <v>50</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E7" s="1">
+        <v>50</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E10" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E13" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E14" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E16" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E17" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E18" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E19" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E20" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E21" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E22" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E23" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E24" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E25" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E26" s="1">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" s="1">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E28" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="1" t="str">
+        <f t="shared" ref="E31:E42" si="0">RIGHT(C31,4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I4:Q4"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B44F7F0-7B7D-413E-AA95-E491BFA5A425}">
   <dimension ref="A1:Y29"/>
   <sheetViews>
@@ -2503,17 +3410,17 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I3" s="44" t="s">
-        <v>409</v>
-      </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
+      <c r="I3" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
     </row>
     <row r="4" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -2523,10 +3430,10 @@
         <v>190</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>187</v>
@@ -2541,31 +3448,31 @@
         <v>193</v>
       </c>
       <c r="I4" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="L4" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="M4" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="N4" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="O4" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="M4" s="30" t="s">
+      <c r="P4" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="N4" s="30" t="s">
+      <c r="Q4" s="31" t="s">
         <v>371</v>
-      </c>
-      <c r="O4" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -2573,34 +3480,34 @@
         <v>84</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>400</v>
-      </c>
       <c r="M5" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -2611,31 +3518,31 @@
         <v>188</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E6" s="1">
         <v>50</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>400</v>
-      </c>
       <c r="M6" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -2646,7 +3553,7 @@
         <v>189</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E7" s="1">
         <v>50</v>
@@ -2657,10 +3564,10 @@
         <v>85</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E8" s="1">
         <v>8</v>
@@ -2674,7 +3581,7 @@
         <v>194</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E9" s="1">
         <v>8</v>
@@ -2685,10 +3592,10 @@
         <v>147</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E10" s="1">
         <v>20</v>
@@ -2699,10 +3606,10 @@
         <v>148</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E11" s="1">
         <v>50</v>
@@ -2713,10 +3620,10 @@
         <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E12" s="1">
         <v>20</v>
@@ -2727,10 +3634,10 @@
         <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E13" s="1">
         <v>50</v>
@@ -2741,16 +3648,16 @@
         <v>144</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
@@ -2758,16 +3665,16 @@
         <v>93</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
@@ -2775,16 +3682,16 @@
         <v>94</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -2792,16 +3699,16 @@
         <v>95</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -2809,16 +3716,16 @@
         <v>96</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -2826,16 +3733,16 @@
         <v>97</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -2843,16 +3750,16 @@
         <v>98</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -2860,16 +3767,16 @@
         <v>99</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -2877,16 +3784,16 @@
         <v>100</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -2894,16 +3801,16 @@
         <v>101</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2911,16 +3818,16 @@
         <v>102</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2928,16 +3835,16 @@
         <v>103</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2945,16 +3852,16 @@
         <v>104</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2962,16 +3869,16 @@
         <v>105</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2979,16 +3886,16 @@
         <v>145</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -3013,7 +3920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4503D2B1-6995-4181-A579-EBD303531330}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
@@ -3138,17 +4045,17 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="44" t="s">
-        <v>409</v>
-      </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
+      <c r="I4" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -3158,10 +4065,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -3176,31 +4083,31 @@
         <v>193</v>
       </c>
       <c r="I5" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="L5" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="M5" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="N5" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="O5" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="P5" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="Q5" s="31" t="s">
         <v>371</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3208,36 +4115,36 @@
         <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E6" s="5">
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,33 +4155,33 @@
         <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E7" s="5">
         <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,7 +4192,7 @@
         <v>189</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E8" s="5">
         <v>50</v>
@@ -3296,10 +4203,10 @@
         <v>85</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E9" s="5">
         <v>8</v>
@@ -3313,7 +4220,7 @@
         <v>194</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E10" s="5">
         <v>8</v>
@@ -3324,10 +4231,10 @@
         <v>106</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E11" s="5">
         <v>20</v>
@@ -3341,7 +4248,7 @@
         <v>216</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E12" s="5">
         <v>20</v>
@@ -3352,10 +4259,10 @@
         <v>139</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E13" s="5">
         <v>20</v>
@@ -3366,10 +4273,10 @@
         <v>140</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E14" s="5">
         <v>100</v>
@@ -3380,10 +4287,10 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E15" s="5">
         <v>20</v>
@@ -3394,10 +4301,10 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E16" s="5">
         <v>50</v>
@@ -3408,7 +4315,7 @@
         <v>112</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>180</v>
@@ -3425,7 +4332,7 @@
         <v>213</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E18" s="5">
         <v>20</v>
@@ -3439,7 +4346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5638346-13E4-4391-8323-38C7FA4704D0}">
   <dimension ref="A1:R20"/>
   <sheetViews>
@@ -3578,17 +4485,17 @@
       <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J4" s="44" t="s">
-        <v>409</v>
-      </c>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
+      <c r="J4" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -3598,10 +4505,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -3616,31 +4523,31 @@
         <v>193</v>
       </c>
       <c r="I5" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="L5" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="M5" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="N5" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="O5" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="P5" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="Q5" s="31" t="s">
         <v>371</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -3648,36 +4555,36 @@
         <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E6" s="5">
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -3688,33 +4595,33 @@
         <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E7" s="5">
         <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -3725,7 +4632,7 @@
         <v>189</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E8" s="5">
         <v>50</v>
@@ -3736,10 +4643,10 @@
         <v>85</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E9" s="5">
         <v>8</v>
@@ -3753,7 +4660,7 @@
         <v>194</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E10" s="5">
         <v>8</v>
@@ -3764,10 +4671,10 @@
         <v>106</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E11" s="5">
         <v>20</v>
@@ -3778,10 +4685,10 @@
         <v>108</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E12" s="5">
         <v>20</v>
@@ -3795,7 +4702,7 @@
         <v>216</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E13" s="5">
         <v>20</v>
@@ -3806,10 +4713,10 @@
         <v>139</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E14" s="5">
         <v>20</v>
@@ -3820,10 +4727,10 @@
         <v>140</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E15" s="5">
         <v>100</v>
@@ -3834,16 +4741,16 @@
         <v>109</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E16" s="5">
         <v>20</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3851,10 +4758,10 @@
         <v>52</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E17" s="5">
         <v>20</v>
@@ -3865,10 +4772,10 @@
         <v>53</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E18" s="5">
         <v>50</v>
@@ -3879,7 +4786,7 @@
         <v>113</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>180</v>
@@ -3896,7 +4803,7 @@
         <v>213</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E20" s="5">
         <v>20</v>
@@ -3910,7 +4817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3224E281-B9C3-43DE-9C24-CA7016DDAC13}">
   <dimension ref="A1:O25"/>
   <sheetViews>
@@ -3947,7 +4854,7 @@
         <v>190</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>187</v>
@@ -3956,34 +4863,34 @@
         <v>191</v>
       </c>
       <c r="F1" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="I1" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="J1" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="K1" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="L1" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="M1" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="N1" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="L1" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>374</v>
-      </c>
       <c r="O1" s="5" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -3991,33 +4898,33 @@
         <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D2" s="5">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -4031,27 +4938,27 @@
         <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -4070,7 +4977,7 @@
         <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D5" s="5">
         <v>8</v>
@@ -4092,7 +4999,7 @@
         <v>141</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D7" s="5">
         <v>20</v>
@@ -4103,7 +5010,7 @@
         <v>142</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D8" s="5">
         <v>100</v>
@@ -4114,7 +5021,7 @@
         <v>73</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D9" s="5">
         <v>8</v>
@@ -4125,7 +5032,7 @@
         <v>74</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D10" s="5">
         <v>8</v>
@@ -4136,7 +5043,7 @@
         <v>75</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D11" s="5">
         <v>4</v>
@@ -4147,7 +5054,7 @@
         <v>76</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D12" s="5">
         <v>4</v>
@@ -4158,7 +5065,7 @@
         <v>68</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D13" s="5">
         <v>4</v>
@@ -4169,7 +5076,7 @@
         <v>62</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D14" s="5">
         <v>8</v>
@@ -4177,10 +5084,10 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D15" s="5">
         <v>8</v>
@@ -4191,7 +5098,7 @@
         <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D16" s="5">
         <v>8</v>
@@ -4202,7 +5109,7 @@
         <v>64</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D17" s="5">
         <v>8</v>
@@ -4213,7 +5120,7 @@
         <v>65</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D18" s="5">
         <v>8</v>
@@ -4224,7 +5131,7 @@
         <v>66</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D19" s="5">
         <v>8</v>
@@ -4235,7 +5142,7 @@
         <v>67</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D20" s="5">
         <v>8</v>
@@ -4246,7 +5153,7 @@
         <v>69</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D21" s="5">
         <v>8</v>
@@ -4257,7 +5164,7 @@
         <v>71</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D22" s="5">
         <v>8</v>
@@ -4268,7 +5175,7 @@
         <v>70</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D23" s="5">
         <v>8</v>
@@ -4279,7 +5186,7 @@
         <v>72</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D24" s="5">
         <v>8</v>
@@ -4301,7 +5208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76B7F98-F046-4D38-B531-0938E5524784}">
   <dimension ref="A1:O15"/>
   <sheetViews>
@@ -4333,7 +5240,7 @@
         <v>190</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>187</v>
@@ -4342,34 +5249,34 @@
         <v>191</v>
       </c>
       <c r="F1" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="I1" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="J1" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="K1" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="L1" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="M1" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="N1" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="L1" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>374</v>
-      </c>
       <c r="O1" s="5" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -4377,33 +5284,33 @@
         <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D2" s="5">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -4417,27 +5324,27 @@
         <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -4457,7 +5364,7 @@
         <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D5" s="5">
         <v>8</v>
@@ -4479,7 +5386,7 @@
         <v>141</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D7" s="5">
         <v>20</v>
@@ -4490,7 +5397,7 @@
         <v>142</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D8" s="5">
         <v>100</v>
@@ -4501,7 +5408,7 @@
         <v>77</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D9" s="5">
         <v>8</v>
@@ -4512,7 +5419,7 @@
         <v>78</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D10" s="5">
         <v>8</v>
@@ -4523,7 +5430,7 @@
         <v>63</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D11" s="5">
         <v>8</v>
@@ -4534,7 +5441,7 @@
         <v>80</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D12" s="5">
         <v>50</v>
@@ -4545,7 +5452,7 @@
         <v>79</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D13" s="5">
         <v>4</v>
@@ -4556,7 +5463,7 @@
         <v>81</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D14" s="5">
         <v>20</v>
@@ -4578,7 +5485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7920C411-EA90-40BF-87D0-8A7E5345C20C}">
   <dimension ref="A1:O11"/>
   <sheetViews>
@@ -4610,7 +5517,7 @@
         <v>190</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>187</v>
@@ -4619,34 +5526,34 @@
         <v>191</v>
       </c>
       <c r="F1" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="I1" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="J1" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="K1" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="L1" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="M1" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="N1" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="L1" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>374</v>
-      </c>
       <c r="O1" s="5" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -4654,33 +5561,33 @@
         <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D2" s="5">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -4694,27 +5601,27 @@
         <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -4733,7 +5640,7 @@
         <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D5" s="5">
         <v>8</v>
@@ -4755,7 +5662,7 @@
         <v>141</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D7" s="5">
         <v>20</v>
@@ -4766,7 +5673,7 @@
         <v>142</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D8" s="5">
         <v>100</v>
@@ -4777,7 +5684,7 @@
         <v>82</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D9" s="5">
         <v>2</v>
@@ -4788,7 +5695,7 @@
         <v>83</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D10" s="5">
         <v>20</v>
@@ -4810,7 +5717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE3E272-40FD-4D6E-8CC1-A618C9F1A948}">
   <dimension ref="G2:K15"/>
   <sheetViews>
@@ -4831,18 +5738,18 @@
         <v>193</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G3" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H3" s="32">
         <v>45467</v>
@@ -4851,12 +5758,12 @@
         <v>45471</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G4" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H4" s="32">
         <v>45474</v>
@@ -4865,12 +5772,12 @@
         <v>45476</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G5" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H5" s="32">
         <v>45477</v>
@@ -4879,12 +5786,12 @@
         <v>45481</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G6" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H6" s="32">
         <v>45482</v>
@@ -4893,12 +5800,12 @@
         <v>45484</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G7" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H7" s="32">
         <v>45488</v>
@@ -4907,12 +5814,12 @@
         <v>45490</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G8" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H8" s="32">
         <v>45491</v>
@@ -4921,12 +5828,12 @@
         <v>45495</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G9" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H9" s="32">
         <v>45496</v>
@@ -4935,12 +5842,12 @@
         <v>45502</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G10" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H10" s="32">
         <v>45503</v>
@@ -4949,12 +5856,12 @@
         <v>45504</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G11" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H11" s="32">
         <v>45505</v>
@@ -4963,12 +5870,12 @@
         <v>45509</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="12" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G12" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H12" s="32">
         <v>45510</v>
@@ -4977,12 +5884,12 @@
         <v>45512</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G13" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H13" s="32">
         <v>45513</v>
@@ -4991,12 +5898,12 @@
         <v>45517</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G14" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H14" s="32">
         <v>45518</v>
@@ -5005,12 +5912,12 @@
         <v>45520</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G15" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H15" s="32">
         <v>45523</v>
@@ -5019,7 +5926,7 @@
         <v>45525</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -5090,51 +5997,51 @@
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="AC1" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B2" s="1">
         <v>3</v>
@@ -5872,7 +6779,7 @@
         <v>178</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AD11" s="1" t="s">
         <v>171</v>
@@ -5952,7 +6859,7 @@
         <v>178</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AD12" s="1" t="s">
         <v>171</v>
@@ -6032,7 +6939,7 @@
         <v>171</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AD13" s="1" t="s">
         <v>171</v>
@@ -6106,7 +7013,7 @@
         <v>179</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AD14" s="1" t="s">
         <v>171</v>
@@ -6180,7 +7087,7 @@
         <v>178</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AD15" s="1" t="s">
         <v>171</v>
@@ -6242,7 +7149,7 @@
         <v>181</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AD16" s="1" t="s">
         <v>171</v>
@@ -6274,7 +7181,7 @@
         <v>183</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>183</v>
@@ -6298,7 +7205,7 @@
         <v>178</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AD17" s="1" t="s">
         <v>171</v>
@@ -6348,7 +7255,7 @@
         <v>172</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AD18" s="1" t="s">
         <v>171</v>
@@ -6386,7 +7293,7 @@
         <v>183</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AD19" s="1" t="s">
         <v>171</v>
@@ -6418,7 +7325,7 @@
         <v>183</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AD20" s="1" t="s">
         <v>171</v>
@@ -6444,7 +7351,7 @@
         <v>183</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AD21" s="1" t="s">
         <v>171</v>
@@ -6470,7 +7377,7 @@
         <v>183</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AD22" s="1" t="s">
         <v>171</v>
@@ -6496,7 +7403,7 @@
         <v>183</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AD23" s="1" t="s">
         <v>171</v>
@@ -6522,7 +7429,7 @@
         <v>183</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AD24" s="1" t="s">
         <v>171</v>
@@ -6548,7 +7455,7 @@
         <v>183</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AD25" s="1" t="s">
         <v>171</v>
@@ -6574,7 +7481,7 @@
         <v>183</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AD26" s="1" t="s">
         <v>171</v>
@@ -6588,7 +7495,7 @@
     </row>
     <row r="27" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>179</v>
@@ -6712,10 +7619,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6746,7 +7653,7 @@
         <v>190</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>187</v>
@@ -6755,34 +7662,34 @@
         <v>191</v>
       </c>
       <c r="F1" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>364</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="I1" s="35" t="s">
         <v>366</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="J1" s="35" t="s">
         <v>367</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="K1" s="35" t="s">
         <v>368</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="L1" s="35" t="s">
         <v>369</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="M1" s="37" t="s">
         <v>370</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="N1" s="37" t="s">
         <v>371</v>
       </c>
-      <c r="L1" s="35" t="s">
-        <v>372</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>373</v>
-      </c>
-      <c r="N1" s="37" t="s">
-        <v>374</v>
-      </c>
       <c r="O1" s="38" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6801,24 +7708,24 @@
         <v>92</v>
       </c>
       <c r="G2" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="J2" s="38" t="s">
         <v>445</v>
-      </c>
-      <c r="H2" s="38" t="s">
-        <v>446</v>
-      </c>
-      <c r="I2" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>448</v>
       </c>
       <c r="K2" s="38"/>
       <c r="L2" s="38" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M2" s="38"/>
       <c r="N2" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O2" s="38"/>
     </row>
@@ -6843,7 +7750,7 @@
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
       <c r="N3" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O3" s="38"/>
     </row>
@@ -6868,7 +7775,7 @@
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
       <c r="N4" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O4" s="38"/>
     </row>
@@ -6877,7 +7784,7 @@
         <v>85</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C5" s="36"/>
       <c r="D5" s="36">
@@ -6893,7 +7800,7 @@
       <c r="L5" s="38"/>
       <c r="M5" s="38"/>
       <c r="N5" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O5" s="38"/>
     </row>
@@ -6918,7 +7825,7 @@
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
       <c r="N6" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O6" s="38"/>
     </row>
@@ -6938,24 +7845,24 @@
         <v>92</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I7" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="J7" s="38" t="s">
         <v>447</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>450</v>
       </c>
       <c r="K7" s="38"/>
       <c r="L7" s="42" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="M7" s="38"/>
       <c r="N7" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O7" s="38"/>
     </row>
@@ -6964,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="38">
@@ -6975,33 +7882,33 @@
         <v>92</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I8" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="J8" s="38" t="s">
         <v>447</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>450</v>
       </c>
       <c r="K8" s="38"/>
       <c r="L8" s="42" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="M8" s="38"/>
       <c r="N8" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O8" s="38"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="38" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="38">
@@ -7012,31 +7919,31 @@
         <v>92</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="J9" s="38" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="K9" s="38"/>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
       <c r="N9" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O9" s="38"/>
     </row>
     <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="38" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C10" s="38"/>
       <c r="D10" s="38">
@@ -7047,22 +7954,22 @@
         <v>92</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="J10" s="38" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="K10" s="38"/>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
       <c r="N10" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O10" s="38"/>
     </row>
@@ -7071,7 +7978,7 @@
         <v>215</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>217</v>
+        <v>464</v>
       </c>
       <c r="C11" s="38"/>
       <c r="D11" s="38">
@@ -7082,31 +7989,31 @@
         <v>92</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="J11" s="38" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="K11" s="38"/>
       <c r="L11" s="38"/>
       <c r="M11" s="38"/>
       <c r="N11" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O11" s="38"/>
     </row>
     <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="38" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C12" s="38"/>
       <c r="D12" s="38">
@@ -7117,31 +8024,31 @@
         <v>92</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="K12" s="38"/>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
       <c r="N12" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O12" s="38"/>
     </row>
     <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="38" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C13" s="38"/>
       <c r="D13" s="38">
@@ -7152,31 +8059,31 @@
         <v>92</v>
       </c>
       <c r="G13" s="38" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I13" s="38" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="J13" s="38" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="K13" s="38"/>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
       <c r="N13" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O13" s="38"/>
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="38" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="38">
@@ -7187,31 +8094,31 @@
         <v>92</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
       <c r="N14" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O14" s="38"/>
     </row>
     <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="38" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="38">
@@ -7222,22 +8129,22 @@
         <v>92</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="K15" s="38"/>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
       <c r="N15" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O15" s="38"/>
     </row>
@@ -7246,7 +8153,7 @@
         <v>43</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="38">
@@ -7257,22 +8164,22 @@
         <v>92</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="J16" s="38" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="K16" s="38"/>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
       <c r="N16" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O16" s="38"/>
     </row>
@@ -7281,7 +8188,7 @@
         <v>44</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C17" s="38"/>
       <c r="D17" s="38">
@@ -7292,22 +8199,22 @@
         <v>92</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="J17" s="38" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="K17" s="38"/>
       <c r="L17" s="38"/>
       <c r="M17" s="38"/>
       <c r="N17" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O17" s="38"/>
     </row>
@@ -7316,7 +8223,7 @@
         <v>47</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="38">
@@ -7327,22 +8234,22 @@
         <v>92</v>
       </c>
       <c r="G18" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="I18" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="J18" s="38" t="s">
         <v>445</v>
-      </c>
-      <c r="H18" s="38" t="s">
-        <v>446</v>
-      </c>
-      <c r="I18" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="J18" s="38" t="s">
-        <v>448</v>
       </c>
       <c r="K18" s="38"/>
       <c r="L18" s="38"/>
       <c r="M18" s="38"/>
       <c r="N18" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O18" s="38"/>
     </row>
@@ -7351,7 +8258,7 @@
         <v>48</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="38">
@@ -7362,22 +8269,22 @@
         <v>92</v>
       </c>
       <c r="G19" s="38" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I19" s="38" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="J19" s="38" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K19" s="38"/>
       <c r="L19" s="38"/>
       <c r="M19" s="38"/>
       <c r="N19" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O19" s="38"/>
     </row>
@@ -7386,7 +8293,7 @@
         <v>55</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="38">
@@ -7397,22 +8304,22 @@
         <v>92</v>
       </c>
       <c r="G20" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="I20" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="J20" s="38" t="s">
         <v>445</v>
-      </c>
-      <c r="H20" s="38" t="s">
-        <v>446</v>
-      </c>
-      <c r="I20" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="J20" s="38" t="s">
-        <v>448</v>
       </c>
       <c r="K20" s="38"/>
       <c r="L20" s="38"/>
       <c r="M20" s="38"/>
       <c r="N20" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O20" s="38"/>
     </row>
@@ -7421,7 +8328,7 @@
         <v>56</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C21" s="38"/>
       <c r="D21" s="38">
@@ -7432,22 +8339,22 @@
         <v>92</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="J21" s="38" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="K21" s="38"/>
       <c r="L21" s="38"/>
       <c r="M21" s="38"/>
       <c r="N21" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O21" s="38"/>
     </row>
@@ -7456,7 +8363,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C22" s="38"/>
       <c r="D22" s="38">
@@ -7467,88 +8374,24 @@
         <v>92</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="J22" s="38" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="K22" s="38"/>
       <c r="L22" s="38"/>
       <c r="M22" s="38"/>
       <c r="N22" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O22" s="38"/>
-    </row>
-    <row r="23" spans="1:15" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>224</v>
-      </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43">
-        <v>11</v>
-      </c>
-      <c r="E23" s="43" t="s">
-        <v>464</v>
-      </c>
-      <c r="F23" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" s="43" t="s">
-        <v>445</v>
-      </c>
-      <c r="H23" s="43" t="s">
-        <v>446</v>
-      </c>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38" t="s">
-        <v>429</v>
-      </c>
-      <c r="O23" s="38"/>
-    </row>
-    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38">
-        <v>19.2</v>
-      </c>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="H24" s="38" t="s">
-        <v>446</v>
-      </c>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38" t="s">
-        <v>429</v>
-      </c>
-      <c r="O24" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -7556,6 +8399,837 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA049C64-FDE3-4EE7-B0ED-E66E2C366047}">
+  <dimension ref="A1:O24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="109" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="54.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="59.109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>364</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>366</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>367</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>368</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>369</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>371</v>
+      </c>
+      <c r="O1" s="38" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
+        <v>10</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>463</v>
+      </c>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38" t="s">
+        <v>446</v>
+      </c>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="O2" s="38"/>
+    </row>
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36">
+        <v>50</v>
+      </c>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="O3" s="38"/>
+    </row>
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36">
+        <v>50</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="O4" s="38"/>
+    </row>
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36">
+        <v>8</v>
+      </c>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="O5" s="38"/>
+    </row>
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36">
+        <v>8</v>
+      </c>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="O6" s="38"/>
+    </row>
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
+        <v>20</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="O7" s="38"/>
+    </row>
+    <row r="8" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38">
+        <v>20</v>
+      </c>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="K8" s="38"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="O8" s="38"/>
+    </row>
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>429</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38">
+        <v>15</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>450</v>
+      </c>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="O9" s="38"/>
+    </row>
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="38" t="s">
+        <v>430</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>431</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38">
+        <v>15</v>
+      </c>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="I10" s="38" t="s">
+        <v>432</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="O10" s="38"/>
+    </row>
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>464</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38">
+        <v>20</v>
+      </c>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="I11" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>452</v>
+      </c>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="O11" s="38"/>
+    </row>
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="38" t="s">
+        <v>433</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>434</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38">
+        <v>8</v>
+      </c>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="H12" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>453</v>
+      </c>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="O12" s="38"/>
+    </row>
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="38" t="s">
+        <v>435</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>436</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38">
+        <v>200</v>
+      </c>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="I13" s="38" t="s">
+        <v>454</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>455</v>
+      </c>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="O13" s="38"/>
+    </row>
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="38" t="s">
+        <v>437</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>438</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38">
+        <v>8</v>
+      </c>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>439</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>456</v>
+      </c>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="O14" s="38"/>
+    </row>
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="38" t="s">
+        <v>440</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38">
+        <v>200</v>
+      </c>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>439</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>455</v>
+      </c>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="O15" s="38"/>
+    </row>
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38">
+        <v>100</v>
+      </c>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="O16" s="38"/>
+    </row>
+    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>475</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38">
+        <v>20</v>
+      </c>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="I17" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="J17" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="O17" s="38"/>
+    </row>
+    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38">
+        <v>8</v>
+      </c>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="I18" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="J18" s="38" t="s">
+        <v>463</v>
+      </c>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="O18" s="38"/>
+    </row>
+    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38">
+        <v>8</v>
+      </c>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="H19" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="I19" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="J19" s="38" t="s">
+        <v>465</v>
+      </c>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="O19" s="38"/>
+    </row>
+    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38">
+        <v>8</v>
+      </c>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="I20" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="J20" s="38" t="s">
+        <v>465</v>
+      </c>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="O20" s="38"/>
+    </row>
+    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38">
+        <v>8</v>
+      </c>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="I21" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="J21" s="38" t="s">
+        <v>468</v>
+      </c>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="O21" s="38"/>
+    </row>
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>473</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38">
+        <v>8</v>
+      </c>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="I22" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="J22" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+    </row>
+    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="38" t="s">
+        <v>467</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>474</v>
+      </c>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="I23" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="J23" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+    </row>
+    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38">
+        <v>11</v>
+      </c>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="H24" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="I24" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="J24" s="38" t="s">
+        <v>471</v>
+      </c>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="O24" s="38"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDC3FDF-6F9A-4848-AD13-8B6EB024C104}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
@@ -7686,17 +9360,17 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="44" t="s">
-        <v>409</v>
-      </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
+      <c r="I4" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -7706,10 +9380,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -7724,31 +9398,31 @@
         <v>193</v>
       </c>
       <c r="I5" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="L5" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="M5" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="N5" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="O5" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="P5" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="Q5" s="31" t="s">
         <v>371</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7756,36 +9430,36 @@
         <v>29</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E6" s="5">
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7796,33 +9470,33 @@
         <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E7" s="5">
         <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7833,7 +9507,7 @@
         <v>189</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E8" s="5">
         <v>50</v>
@@ -7844,10 +9518,10 @@
         <v>85</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E9" s="5">
         <v>8</v>
@@ -7861,7 +9535,7 @@
         <v>194</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E10" s="5">
         <v>8</v>
@@ -7875,7 +9549,7 @@
         <v>216</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E11" s="5">
         <v>20</v>
@@ -7886,10 +9560,10 @@
         <v>139</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E12" s="5">
         <v>20</v>
@@ -7900,10 +9574,10 @@
         <v>140</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E13" s="5">
         <v>100</v>
@@ -7914,10 +9588,10 @@
         <v>52</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E14" s="5">
         <v>20</v>
@@ -7928,10 +9602,10 @@
         <v>53</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E15" s="5">
         <v>50</v>
@@ -7942,10 +9616,10 @@
         <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E16" s="5">
         <v>8</v>
@@ -7956,10 +9630,10 @@
         <v>48</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E17" s="5">
         <v>8</v>
@@ -7970,10 +9644,10 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E18" s="5">
         <v>8</v>
@@ -7984,10 +9658,10 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E19" s="5">
         <v>8</v>
@@ -7998,10 +9672,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E20" s="5">
         <v>11</v>
@@ -8015,7 +9689,7 @@
         <v>213</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E21" s="5">
         <v>20</v>
@@ -8029,7 +9703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22786F84-93FF-4517-94E3-F320613466BF}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
@@ -8130,17 +9804,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="44" t="s">
-        <v>409</v>
-      </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
+      <c r="I3" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -8150,10 +9824,10 @@
         <v>190</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>187</v>
@@ -8168,31 +9842,31 @@
         <v>193</v>
       </c>
       <c r="I4" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="L4" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="M4" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="N4" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="O4" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="M4" s="30" t="s">
+      <c r="P4" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="N4" s="30" t="s">
+      <c r="Q4" s="31" t="s">
         <v>371</v>
-      </c>
-      <c r="O4" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8200,34 +9874,34 @@
         <v>118</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E5" s="1">
         <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>405</v>
-      </c>
       <c r="P5" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8238,34 +9912,34 @@
         <v>216</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E6" s="1">
         <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8273,10 +9947,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E7" s="1">
         <v>11</v>
@@ -8290,7 +9964,7 @@
         <v>188</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E8" s="1">
         <v>50</v>
@@ -8304,7 +9978,7 @@
         <v>189</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
@@ -8315,10 +9989,10 @@
         <v>85</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
@@ -8332,7 +10006,7 @@
         <v>194</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
@@ -8343,10 +10017,10 @@
         <v>119</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
@@ -8357,10 +10031,10 @@
         <v>120</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E13" s="1">
         <v>20</v>
@@ -8371,10 +10045,10 @@
         <v>121</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
@@ -8388,7 +10062,7 @@
         <v>213</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E15" s="1">
         <v>20</v>
@@ -8402,7 +10076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4DB11C-9573-4893-A458-1C975F352BD2}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
@@ -8503,17 +10177,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="44" t="s">
-        <v>409</v>
-      </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
+      <c r="I3" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
     </row>
     <row r="4" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -8523,10 +10197,10 @@
         <v>190</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>187</v>
@@ -8541,31 +10215,31 @@
         <v>193</v>
       </c>
       <c r="I4" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="L4" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="M4" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="N4" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="O4" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="M4" s="30" t="s">
+      <c r="P4" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="N4" s="30" t="s">
+      <c r="Q4" s="31" t="s">
         <v>371</v>
-      </c>
-      <c r="O4" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8573,34 +10247,34 @@
         <v>123</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E5" s="1">
         <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8611,34 +10285,34 @@
         <v>216</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E6" s="1">
         <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8646,10 +10320,10 @@
         <v>101</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E7" s="1">
         <v>11</v>
@@ -8663,7 +10337,7 @@
         <v>188</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E8" s="1">
         <v>50</v>
@@ -8677,7 +10351,7 @@
         <v>189</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
@@ -8688,10 +10362,10 @@
         <v>85</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
@@ -8705,7 +10379,7 @@
         <v>194</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
@@ -8716,10 +10390,10 @@
         <v>125</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
@@ -8730,10 +10404,10 @@
         <v>127</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E13" s="1">
         <v>20</v>
@@ -8744,10 +10418,10 @@
         <v>121</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
@@ -8761,7 +10435,7 @@
         <v>213</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E15" s="1">
         <v>20</v>
@@ -8784,7 +10458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B8EF36-DED1-4AE4-8E82-79A80977A3B5}">
   <dimension ref="A1:O16"/>
   <sheetViews>
@@ -8819,7 +10493,7 @@
         <v>190</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>187</v>
@@ -8828,34 +10502,34 @@
         <v>191</v>
       </c>
       <c r="F1" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="I1" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="J1" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="K1" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="L1" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="M1" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="N1" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="L1" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>374</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -8863,31 +10537,31 @@
         <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D2" s="1">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -8901,25 +10575,25 @@
         <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="M3" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -8938,7 +10612,7 @@
         <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D5" s="1">
         <v>8</v>
@@ -8960,7 +10634,7 @@
         <v>57</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D7" s="1">
         <v>100</v>
@@ -8971,7 +10645,7 @@
         <v>114</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D8" s="1">
         <v>50</v>
@@ -8993,7 +10667,7 @@
         <v>52</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D10" s="1">
         <v>20</v>
@@ -9004,7 +10678,7 @@
         <v>53</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D11" s="1">
         <v>50</v>
@@ -9015,14 +10689,14 @@
         <v>115</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="1">
         <v>2</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="49.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -9030,13 +10704,13 @@
         <v>116</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D13" s="1">
         <v>20</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -9044,7 +10718,7 @@
         <v>45</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D14" s="1">
         <v>19.2</v>
@@ -9055,7 +10729,7 @@
         <v>117</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D15" s="1">
         <v>20</v>
@@ -9077,7 +10751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B97A6D-8857-4D87-AF49-4B4418AC3D8F}">
   <dimension ref="A1:X29"/>
   <sheetViews>
@@ -9137,52 +10811,52 @@
         <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>146</v>
@@ -9273,17 +10947,17 @@
       <c r="P3" s="16"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I4" s="44" t="s">
-        <v>409</v>
-      </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
+      <c r="I4" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -9293,10 +10967,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -9311,31 +10985,31 @@
         <v>193</v>
       </c>
       <c r="I5" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="L5" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="M5" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="N5" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="O5" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="P5" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="Q5" s="31" t="s">
         <v>371</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
@@ -9343,34 +11017,34 @@
         <v>85</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E6" s="1">
         <v>8</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="P6" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
@@ -9381,31 +11055,31 @@
         <v>194</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E7" s="1">
         <v>8</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="P7" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
@@ -9413,10 +11087,10 @@
         <v>86</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E8" s="1">
         <v>8</v>
@@ -9430,7 +11104,7 @@
         <v>188</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
@@ -9444,7 +11118,7 @@
         <v>189</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E10" s="1">
         <v>50</v>
@@ -9455,10 +11129,10 @@
         <v>89</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
@@ -9469,10 +11143,10 @@
         <v>91</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
@@ -9480,13 +11154,13 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E13" s="1">
         <v>50</v>
@@ -9494,13 +11168,13 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E14" s="1">
         <v>50</v>
@@ -9508,13 +11182,13 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E15" s="1">
         <v>50</v>
@@ -9522,13 +11196,13 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E16" s="1">
         <v>50</v>
@@ -9536,13 +11210,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E17" s="1">
         <v>50</v>
@@ -9550,13 +11224,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E18" s="1">
         <v>50</v>
@@ -9564,13 +11238,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E19" s="1">
         <v>50</v>
@@ -9578,13 +11252,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E20" s="1">
         <v>50</v>
@@ -9592,13 +11266,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E21" s="1">
         <v>50</v>
@@ -9606,13 +11280,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E22" s="1">
         <v>50</v>
@@ -9620,13 +11294,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E23" s="1">
         <v>50</v>
@@ -9634,13 +11308,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E24" s="1">
         <v>50</v>
@@ -9648,13 +11322,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E25" s="1">
         <v>50</v>
@@ -9662,13 +11336,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E26" s="1">
         <v>50</v>
@@ -9676,13 +11350,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E27" s="1">
         <v>50</v>
@@ -9690,13 +11364,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E28" s="1">
         <v>50</v>
@@ -9710,7 +11384,7 @@
         <v>213</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E29" s="1">
         <v>20</v>
@@ -9722,886 +11396,4 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE88DAFB-0E6A-4114-9298-6358DAA44DC1}">
-  <dimension ref="A1:AL42"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="48.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="52.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="34" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>44593</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="1">
-        <v>17</v>
-      </c>
-      <c r="L2" s="1">
-        <v>61568876989</v>
-      </c>
-      <c r="M2" s="1">
-        <v>78546589</v>
-      </c>
-      <c r="N2" s="1">
-        <v>75477856</v>
-      </c>
-      <c r="O2" s="1">
-        <v>12457856</v>
-      </c>
-      <c r="P2" s="2">
-        <v>44593</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>44622</v>
-      </c>
-      <c r="R2" s="2">
-        <v>44617</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" s="2">
-        <v>44586</v>
-      </c>
-      <c r="U2" s="2">
-        <v>44586</v>
-      </c>
-      <c r="V2" s="3">
-        <v>10000</v>
-      </c>
-      <c r="W2" s="3">
-        <v>13535</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="16">
-        <v>44566.370775462965</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="I4" s="44" t="s">
-        <v>409</v>
-      </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-    </row>
-    <row r="5" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>353</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>352</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="M5" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="N5" s="30" t="s">
-        <v>371</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E6" s="1">
-        <v>50</v>
-      </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E7" s="1">
-        <v>50</v>
-      </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E8" s="1">
-        <v>8</v>
-      </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E9" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E10" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E11" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E13" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E14" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E15" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E16" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E17" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E18" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E19" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E20" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E21" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E22" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E23" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E24" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E25" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E26" s="1">
-        <v>19.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E27" s="1">
-        <v>19.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E28" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="1" t="str">
-        <f t="shared" ref="E31:E42" si="0">RIGHT(C31,4)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E41" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E42" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I4:Q4"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Documentos/Mapeamento das Fontes de Dados/OLOS/MAPEAMENTO_OLOS.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/OLOS/MAPEAMENTO_OLOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\OLOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66DA2F0-3DDB-4D66-9B57-9C5207FCBC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2D6B77-1F4E-41A9-B19A-0C2E37FC32E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="937" firstSheet="2" activeTab="3" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="937" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="479">
   <si>
     <t>CPF</t>
   </si>
@@ -1483,6 +1483,12 @@
   </si>
   <si>
     <t>Dnis</t>
+  </si>
+  <si>
+    <t>PLATAFORMA OU FONTE ORIGEM DO DADO</t>
+  </si>
+  <si>
+    <t>2CX</t>
   </si>
 </sst>
 </file>
@@ -7619,10 +7625,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8393,6 +8399,30 @@
       </c>
       <c r="O22" s="38"/>
     </row>
+    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>477</v>
+      </c>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38">
+        <v>30</v>
+      </c>
+      <c r="E23" s="38">
+        <v>30</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>478</v>
+      </c>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -8400,10 +8430,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA049C64-FDE3-4EE7-B0ED-E66E2C366047}">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9166,7 +9196,9 @@
         <v>474</v>
       </c>
       <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
+      <c r="D23" s="38">
+        <v>8</v>
+      </c>
       <c r="E23" s="38"/>
       <c r="F23" s="38" t="s">
         <v>92</v>
@@ -9223,6 +9255,28 @@
         <v>426</v>
       </c>
       <c r="O24" s="38"/>
+    </row>
+    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="D25" s="1">
+        <v>30</v>
+      </c>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Documentos/Mapeamento das Fontes de Dados/OLOS/MAPEAMENTO_OLOS.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/OLOS/MAPEAMENTO_OLOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\OLOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2D6B77-1F4E-41A9-B19A-0C2E37FC32E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47C6F96-269C-458E-9245-AEA3A772F4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="937" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="937" firstSheet="2" activeTab="3" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="483">
   <si>
     <t>CPF</t>
   </si>
@@ -1392,9 +1392,6 @@
     <t>StartDate</t>
   </si>
   <si>
-    <t>CONVERT(VARCHAR(19),CallData.StartDate,120 )</t>
-  </si>
-  <si>
     <t>CampaignData</t>
   </si>
   <si>
@@ -1470,25 +1467,40 @@
     <t>Ani</t>
   </si>
   <si>
-    <t>TELEFONE UTILIZADO PARA LIGAR NO RECEPTIVO</t>
-  </si>
-  <si>
     <t>QUANDO O CLIENTE ENTROU NA FILA</t>
   </si>
   <si>
     <t>QUANDO O CLIENTE SAIU DA FILA</t>
   </si>
   <si>
-    <t>ROTA ATRELADA A ESSA CHAMADA</t>
-  </si>
-  <si>
     <t>Dnis</t>
   </si>
   <si>
     <t>PLATAFORMA OU FONTE ORIGEM DO DADO</t>
   </si>
   <si>
-    <t>2CX</t>
+    <t>NUMERO DEVEDOR_ID, IDENTIFICADOR_ID OU TITULO_ID, COSTCODE QUE POSSIBILITE LOCALIZAR O ID_KEY DA TABELA CARTEIRA</t>
+  </si>
+  <si>
+    <t>ID DO OPERADOR OU LOGIN</t>
+  </si>
+  <si>
+    <t>ID DA CHAMADA</t>
+  </si>
+  <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>NOME DA CAMPANHA DISCADA</t>
+  </si>
+  <si>
+    <t>DATETIME2</t>
+  </si>
+  <si>
+    <t>CONVERT(NVARCHAR(19),CallData.StartDate,120 )</t>
+  </si>
+  <si>
+    <t>NVARCHAR</t>
   </si>
 </sst>
 </file>
@@ -1682,7 +1694,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1780,27 +1792,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFBFBFBF"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1907,9 +1904,6 @@
     <xf numFmtId="0" fontId="9" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1917,12 +1911,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2616,17 +2604,17 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="40" t="s">
         <v>406</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
     </row>
     <row r="5" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -3416,17 +3404,17 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="40" t="s">
         <v>406</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
     </row>
     <row r="4" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -4051,17 +4039,17 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="40" t="s">
         <v>406</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -4491,17 +4479,17 @@
       <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="40" t="s">
         <v>406</v>
       </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -7625,16 +7613,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="109" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="126.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
@@ -7688,740 +7676,674 @@
       <c r="L1" s="35" t="s">
         <v>369</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="36" t="s">
         <v>370</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="36" t="s">
         <v>371</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="O1" s="37" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
+      <c r="C2" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="D2" s="37">
         <v>10</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="37" t="s">
         <v>442</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="37" t="s">
         <v>443</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="37" t="s">
         <v>444</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="J2" s="37" t="s">
         <v>445</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38" t="s">
+      <c r="K2" s="37"/>
+      <c r="L2" s="37" t="s">
+        <v>481</v>
+      </c>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="O2" s="37"/>
+    </row>
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>475</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="D3" s="37">
+        <v>20</v>
+      </c>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>444</v>
+      </c>
+      <c r="J3" s="37" t="s">
         <v>446</v>
       </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38" t="s">
+      <c r="K3" s="37"/>
+      <c r="L3" s="39" t="s">
+        <v>447</v>
+      </c>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37" t="s">
         <v>426</v>
       </c>
-      <c r="O2" s="38"/>
-    </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36">
+      <c r="O3" s="37"/>
+    </row>
+    <row r="4" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>427</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="D4" s="37">
+        <v>20</v>
+      </c>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>444</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>446</v>
+      </c>
+      <c r="K4" s="37"/>
+      <c r="L4" s="39" t="s">
+        <v>448</v>
+      </c>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="O4" s="37"/>
+    </row>
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="37" t="s">
+        <v>428</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="D5" s="37">
+        <v>30</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>444</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>449</v>
+      </c>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="O5" s="37"/>
+    </row>
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="37" t="s">
+        <v>430</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>431</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="D6" s="37">
+        <v>100</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>432</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>450</v>
+      </c>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="O6" s="37"/>
+    </row>
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>477</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="D7" s="37">
+        <v>19</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>444</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>451</v>
+      </c>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="O7" s="37"/>
+    </row>
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>434</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="D8" s="37">
+        <v>19</v>
+      </c>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>444</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>452</v>
+      </c>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="O8" s="37"/>
+    </row>
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="37" t="s">
+        <v>435</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>479</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="D9" s="37">
+        <v>200</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>453</v>
+      </c>
+      <c r="J9" s="37" t="s">
+        <v>454</v>
+      </c>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="O9" s="37"/>
+    </row>
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="37" t="s">
+        <v>437</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="D10" s="37">
+        <v>19</v>
+      </c>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="J10" s="37" t="s">
+        <v>455</v>
+      </c>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="O10" s="37"/>
+    </row>
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="37" t="s">
+        <v>440</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="D11" s="37">
+        <v>200</v>
+      </c>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>454</v>
+      </c>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="O11" s="37"/>
+    </row>
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="D12" s="37">
+        <v>250</v>
+      </c>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>444</v>
+      </c>
+      <c r="J12" s="37" t="s">
+        <v>456</v>
+      </c>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="O12" s="37"/>
+    </row>
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="D13" s="37">
         <v>50</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38" t="s">
+      <c r="E13" s="37"/>
+      <c r="F13" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>444</v>
+      </c>
+      <c r="J13" s="37" t="s">
+        <v>457</v>
+      </c>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37" t="s">
         <v>426</v>
       </c>
-      <c r="O3" s="38"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36">
-        <v>50</v>
-      </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38" t="s">
+      <c r="O13" s="37"/>
+    </row>
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="D14" s="37">
+        <v>19</v>
+      </c>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>444</v>
+      </c>
+      <c r="J14" s="37" t="s">
+        <v>445</v>
+      </c>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37" t="s">
         <v>426</v>
       </c>
-      <c r="O4" s="38"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36">
-        <v>8</v>
-      </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38" t="s">
+      <c r="O14" s="37"/>
+    </row>
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="D15" s="37">
+        <v>19</v>
+      </c>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>444</v>
+      </c>
+      <c r="J15" s="37" t="s">
+        <v>458</v>
+      </c>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37" t="s">
         <v>426</v>
       </c>
-      <c r="O5" s="38"/>
-    </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36">
-        <v>8</v>
-      </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38" t="s">
+      <c r="O15" s="37"/>
+    </row>
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="D16" s="37">
+        <v>19</v>
+      </c>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>444</v>
+      </c>
+      <c r="J16" s="37" t="s">
+        <v>445</v>
+      </c>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37" t="s">
         <v>426</v>
       </c>
-      <c r="O6" s="38"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
+      <c r="O16" s="37"/>
+    </row>
+    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="D17" s="37">
+        <v>19</v>
+      </c>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>444</v>
+      </c>
+      <c r="J17" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="O17" s="37"/>
+    </row>
+    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="D18" s="37">
         <v>20</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38" t="s">
+      <c r="E18" s="37"/>
+      <c r="F18" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G18" s="37" t="s">
         <v>442</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H18" s="37" t="s">
         <v>443</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I18" s="37" t="s">
         <v>444</v>
       </c>
-      <c r="J7" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="42" t="s">
-        <v>448</v>
-      </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38" t="s">
+      <c r="J18" s="37" t="s">
+        <v>459</v>
+      </c>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37" t="s">
         <v>426</v>
       </c>
-      <c r="O7" s="38"/>
-    </row>
-    <row r="8" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>427</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38">
-        <v>20</v>
-      </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38" t="s">
+      <c r="O18" s="37"/>
+    </row>
+    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>474</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="D19" s="37">
+        <v>30</v>
+      </c>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="K8" s="38"/>
-      <c r="L8" s="42" t="s">
-        <v>449</v>
-      </c>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O8" s="38"/>
-    </row>
-    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="38" t="s">
-        <v>428</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>429</v>
-      </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38">
-        <v>15</v>
-      </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H9" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="I9" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="J9" s="38" t="s">
-        <v>450</v>
-      </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O9" s="38"/>
-    </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="38" t="s">
-        <v>430</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>431</v>
-      </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38">
-        <v>15</v>
-      </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="I10" s="38" t="s">
-        <v>432</v>
-      </c>
-      <c r="J10" s="38" t="s">
-        <v>451</v>
-      </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O10" s="38"/>
-    </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>464</v>
-      </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38">
-        <v>20</v>
-      </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="I11" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="J11" s="38" t="s">
-        <v>452</v>
-      </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O11" s="38"/>
-    </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="38" t="s">
-        <v>433</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>434</v>
-      </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38">
-        <v>8</v>
-      </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H12" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="I12" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="J12" s="38" t="s">
-        <v>453</v>
-      </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O12" s="38"/>
-    </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="38" t="s">
-        <v>435</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>436</v>
-      </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38">
-        <v>200</v>
-      </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="I13" s="38" t="s">
-        <v>454</v>
-      </c>
-      <c r="J13" s="38" t="s">
-        <v>455</v>
-      </c>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O13" s="38"/>
-    </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="38" t="s">
-        <v>437</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>438</v>
-      </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38">
-        <v>8</v>
-      </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="I14" s="38" t="s">
-        <v>439</v>
-      </c>
-      <c r="J14" s="38" t="s">
-        <v>456</v>
-      </c>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O14" s="38"/>
-    </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="38" t="s">
-        <v>440</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38">
-        <v>200</v>
-      </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="I15" s="38" t="s">
-        <v>439</v>
-      </c>
-      <c r="J15" s="38" t="s">
-        <v>455</v>
-      </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O15" s="38"/>
-    </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38">
-        <v>100</v>
-      </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H16" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="I16" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="J16" s="38" t="s">
-        <v>457</v>
-      </c>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O16" s="38"/>
-    </row>
-    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38">
-        <v>20</v>
-      </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H17" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="I17" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="J17" s="38" t="s">
-        <v>458</v>
-      </c>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O17" s="38"/>
-    </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38">
-        <v>8</v>
-      </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H18" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="I18" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="J18" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O18" s="38"/>
-    </row>
-    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38">
-        <v>8</v>
-      </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H19" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="I19" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="J19" s="38" t="s">
-        <v>459</v>
-      </c>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O19" s="38"/>
-    </row>
-    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38">
-        <v>8</v>
-      </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H20" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="I20" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="J20" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O20" s="38"/>
-    </row>
-    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38">
-        <v>8</v>
-      </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H21" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="I21" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="J21" s="38" t="s">
-        <v>461</v>
-      </c>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O21" s="38"/>
-    </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38">
-        <v>11</v>
-      </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H22" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="I22" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="J22" s="38" t="s">
-        <v>460</v>
-      </c>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O22" s="38"/>
-    </row>
-    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>477</v>
-      </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38">
-        <v>30</v>
-      </c>
-      <c r="E23" s="38">
-        <v>30</v>
-      </c>
-      <c r="F23" s="38" t="s">
-        <v>478</v>
-      </c>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -8430,10 +8352,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA049C64-FDE3-4EE7-B0ED-E66E2C366047}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8493,790 +8415,730 @@
       <c r="L1" s="35" t="s">
         <v>369</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="36" t="s">
         <v>370</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="36" t="s">
         <v>371</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="O1" s="37" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
+      <c r="C2" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="D2" s="37">
         <v>10</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="37" t="s">
         <v>442</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="37" t="s">
         <v>443</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="J2" s="37" t="s">
         <v>462</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="K2" s="37"/>
+      <c r="L2" s="37" t="s">
+        <v>481</v>
+      </c>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="O2" s="37"/>
+    </row>
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="D3" s="37">
+        <v>20</v>
+      </c>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>446</v>
+      </c>
+      <c r="K3" s="37"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="O3" s="37"/>
+    </row>
+    <row r="4" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="D4" s="37">
+        <v>20</v>
+      </c>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>446</v>
+      </c>
+      <c r="K4" s="37"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="O4" s="37"/>
+    </row>
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="37" t="s">
+        <v>428</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>429</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="D5" s="37">
+        <v>30</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>449</v>
+      </c>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="O5" s="37"/>
+    </row>
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="37" t="s">
+        <v>430</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>431</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="D6" s="37">
+        <v>100</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>432</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>450</v>
+      </c>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="O6" s="37"/>
+    </row>
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="38" t="s">
         <v>463</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38" t="s">
-        <v>446</v>
-      </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38" t="s">
+      <c r="C7" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="D7" s="37">
+        <v>19</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>451</v>
+      </c>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37" t="s">
         <v>426</v>
       </c>
-      <c r="O2" s="38"/>
-    </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36">
+      <c r="O7" s="37"/>
+    </row>
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>434</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="D8" s="37">
+        <v>19</v>
+      </c>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>452</v>
+      </c>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="O8" s="37"/>
+    </row>
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="37" t="s">
+        <v>435</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>436</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="D9" s="37">
+        <v>200</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>453</v>
+      </c>
+      <c r="J9" s="37" t="s">
+        <v>454</v>
+      </c>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="O9" s="37"/>
+    </row>
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="37" t="s">
+        <v>437</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>438</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="D10" s="37">
+        <v>19</v>
+      </c>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="J10" s="37" t="s">
+        <v>455</v>
+      </c>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="O10" s="37"/>
+    </row>
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="37" t="s">
+        <v>440</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="D11" s="37">
+        <v>200</v>
+      </c>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>454</v>
+      </c>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="O11" s="37"/>
+    </row>
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="D12" s="37">
+        <v>250</v>
+      </c>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="O12" s="37"/>
+    </row>
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="D13" s="37">
         <v>50</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38" t="s">
+      <c r="E13" s="37"/>
+      <c r="F13" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="J13" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37" t="s">
         <v>426</v>
       </c>
-      <c r="O3" s="38"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36">
-        <v>50</v>
-      </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38" t="s">
+      <c r="O13" s="37"/>
+    </row>
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="D14" s="37">
+        <v>19</v>
+      </c>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="J14" s="37" t="s">
+        <v>462</v>
+      </c>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37" t="s">
         <v>426</v>
       </c>
-      <c r="O4" s="38"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36">
-        <v>8</v>
-      </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38" t="s">
+      <c r="O14" s="37"/>
+    </row>
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="D15" s="37">
+        <v>19</v>
+      </c>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="J15" s="37" t="s">
+        <v>464</v>
+      </c>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37" t="s">
         <v>426</v>
       </c>
-      <c r="O5" s="38"/>
-    </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36">
-        <v>8</v>
-      </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38" t="s">
+      <c r="O15" s="37"/>
+    </row>
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="D16" s="37">
+        <v>19</v>
+      </c>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="J16" s="37" t="s">
+        <v>464</v>
+      </c>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37" t="s">
         <v>426</v>
       </c>
-      <c r="O6" s="38"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
+      <c r="O16" s="37"/>
+    </row>
+    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="D17" s="37">
+        <v>19</v>
+      </c>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="J17" s="37" t="s">
+        <v>467</v>
+      </c>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="O17" s="37"/>
+    </row>
+    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>471</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="D18" s="37">
+        <v>19</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="J18" s="37" t="s">
+        <v>468</v>
+      </c>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+    </row>
+    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="37" t="s">
+        <v>466</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="D19" s="37">
+        <v>19</v>
+      </c>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="I19" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="J19" s="37" t="s">
+        <v>469</v>
+      </c>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+    </row>
+    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="D20" s="37">
         <v>20</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38" t="s">
+      <c r="E20" s="37"/>
+      <c r="F20" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G20" s="37" t="s">
         <v>442</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H20" s="37" t="s">
         <v>443</v>
       </c>
-      <c r="I7" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38" t="s">
+      <c r="I20" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="J20" s="37" t="s">
+        <v>470</v>
+      </c>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37" t="s">
         <v>426</v>
       </c>
-      <c r="O7" s="38"/>
-    </row>
-    <row r="8" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>427</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38">
-        <v>20</v>
-      </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38" t="s">
+      <c r="O20" s="37"/>
+    </row>
+    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>474</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="D21" s="37">
+        <v>30</v>
+      </c>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="K8" s="38"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O8" s="38"/>
-    </row>
-    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="38" t="s">
-        <v>428</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>429</v>
-      </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38">
-        <v>15</v>
-      </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H9" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="I9" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="J9" s="38" t="s">
-        <v>450</v>
-      </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O9" s="38"/>
-    </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="38" t="s">
-        <v>430</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>431</v>
-      </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38">
-        <v>15</v>
-      </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="I10" s="38" t="s">
-        <v>432</v>
-      </c>
-      <c r="J10" s="38" t="s">
-        <v>451</v>
-      </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O10" s="38"/>
-    </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>464</v>
-      </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38">
-        <v>20</v>
-      </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="I11" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="J11" s="38" t="s">
-        <v>452</v>
-      </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O11" s="38"/>
-    </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="38" t="s">
-        <v>433</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>434</v>
-      </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38">
-        <v>8</v>
-      </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H12" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="I12" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="J12" s="38" t="s">
-        <v>453</v>
-      </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O12" s="38"/>
-    </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="38" t="s">
-        <v>435</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>436</v>
-      </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38">
-        <v>200</v>
-      </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="I13" s="38" t="s">
-        <v>454</v>
-      </c>
-      <c r="J13" s="38" t="s">
-        <v>455</v>
-      </c>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O13" s="38"/>
-    </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="38" t="s">
-        <v>437</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>438</v>
-      </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38">
-        <v>8</v>
-      </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="I14" s="38" t="s">
-        <v>439</v>
-      </c>
-      <c r="J14" s="38" t="s">
-        <v>456</v>
-      </c>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O14" s="38"/>
-    </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="38" t="s">
-        <v>440</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38">
-        <v>200</v>
-      </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="I15" s="38" t="s">
-        <v>439</v>
-      </c>
-      <c r="J15" s="38" t="s">
-        <v>455</v>
-      </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O15" s="38"/>
-    </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38">
-        <v>100</v>
-      </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O16" s="38"/>
-    </row>
-    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>475</v>
-      </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38">
-        <v>20</v>
-      </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H17" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="I17" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="J17" s="38" t="s">
-        <v>476</v>
-      </c>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O17" s="38"/>
-    </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>227</v>
-      </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38">
-        <v>8</v>
-      </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H18" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="I18" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="J18" s="38" t="s">
-        <v>463</v>
-      </c>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O18" s="38"/>
-    </row>
-    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38">
-        <v>8</v>
-      </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H19" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="I19" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="J19" s="38" t="s">
-        <v>465</v>
-      </c>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O19" s="38"/>
-    </row>
-    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38">
-        <v>8</v>
-      </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H20" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="I20" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="J20" s="38" t="s">
-        <v>465</v>
-      </c>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O20" s="38"/>
-    </row>
-    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38">
-        <v>8</v>
-      </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H21" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="I21" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="J21" s="38" t="s">
-        <v>468</v>
-      </c>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O21" s="38"/>
-    </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="38" t="s">
-        <v>466</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>473</v>
-      </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38">
-        <v>8</v>
-      </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H22" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="I22" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="J22" s="38" t="s">
-        <v>469</v>
-      </c>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-    </row>
-    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="38" t="s">
-        <v>467</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>474</v>
-      </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38">
-        <v>8</v>
-      </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H23" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="I23" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="J23" s="38" t="s">
-        <v>470</v>
-      </c>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-    </row>
-    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38">
-        <v>11</v>
-      </c>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H24" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="I24" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="J24" s="38" t="s">
-        <v>471</v>
-      </c>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O24" s="38"/>
-    </row>
-    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="1">
-        <v>30</v>
-      </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -9414,17 +9276,17 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="40" t="s">
         <v>406</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -9858,17 +9720,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="40" t="s">
         <v>406</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -10231,17 +10093,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="40" t="s">
         <v>406</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
     </row>
     <row r="4" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -11001,17 +10863,17 @@
       <c r="P3" s="16"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="40" t="s">
         <v>406</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">

--- a/Documentos/Mapeamento das Fontes de Dados/OLOS/MAPEAMENTO_OLOS.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/OLOS/MAPEAMENTO_OLOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\OLOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47C6F96-269C-458E-9245-AEA3A772F4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36ED8220-BE3B-4EA3-9B58-5F93BAA61DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="937" firstSheet="2" activeTab="3" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="937" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -20,15 +20,15 @@
     <sheet name="ACIONA_CRM" sheetId="2" state="hidden" r:id="rId5"/>
     <sheet name="TELEFONE" sheetId="16" state="hidden" r:id="rId6"/>
     <sheet name="EMAIL" sheetId="17" state="hidden" r:id="rId7"/>
-    <sheet name="MULTICANAIS" sheetId="9" r:id="rId8"/>
+    <sheet name="MULTICANAIS" sheetId="9" state="hidden" r:id="rId8"/>
     <sheet name="CADASTRO" sheetId="14" state="hidden" r:id="rId9"/>
     <sheet name="CARTEIRA ATIVA" sheetId="1" state="hidden" r:id="rId10"/>
     <sheet name="DEXPARA" sheetId="6" state="hidden" r:id="rId11"/>
     <sheet name="ACORDOS" sheetId="7" state="hidden" r:id="rId12"/>
     <sheet name="PAGAMENTOS" sheetId="8" state="hidden" r:id="rId13"/>
-    <sheet name="TEMPOS" sheetId="4" r:id="rId14"/>
-    <sheet name="PAUSAS" sheetId="13" r:id="rId15"/>
-    <sheet name="PESQUISA" sheetId="5" r:id="rId16"/>
+    <sheet name="TEMPOS" sheetId="4" state="hidden" r:id="rId14"/>
+    <sheet name="PAUSAS" sheetId="13" state="hidden" r:id="rId15"/>
+    <sheet name="PESQUISA" sheetId="5" state="hidden" r:id="rId16"/>
     <sheet name="DEADLINE" sheetId="19" state="hidden" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -7615,8 +7615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8354,7 +8354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA049C64-FDE3-4EE7-B0ED-E66E2C366047}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>

--- a/Documentos/Mapeamento das Fontes de Dados/OLOS/MAPEAMENTO_OLOS.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/OLOS/MAPEAMENTO_OLOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\OLOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36ED8220-BE3B-4EA3-9B58-5F93BAA61DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C28542E-DC45-4E9E-B480-085AE3D65E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="937" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="937" firstSheet="2" activeTab="3" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="487">
   <si>
     <t>CPF</t>
   </si>
@@ -1501,6 +1501,18 @@
   </si>
   <si>
     <t>NVARCHAR</t>
+  </si>
+  <si>
+    <t>DATA_INSERT</t>
+  </si>
+  <si>
+    <t>MOMENTO QUE O DADO FOI INSERIDO NA TABELA</t>
+  </si>
+  <si>
+    <t>DATETIMENOW()</t>
+  </si>
+  <si>
+    <t>PK</t>
   </si>
 </sst>
 </file>
@@ -1694,7 +1706,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1792,12 +1804,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1915,6 +1964,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2604,17 +2662,17 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="43" t="s">
         <v>406</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
     </row>
     <row r="5" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -3404,17 +3462,17 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="43" t="s">
         <v>406</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
     </row>
     <row r="4" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -4039,17 +4097,17 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="43" t="s">
         <v>406</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -4479,17 +4537,17 @@
       <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="43" t="s">
         <v>406</v>
       </c>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -7613,10 +7671,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7890,7 +7948,9 @@
       <c r="D7" s="37">
         <v>19</v>
       </c>
-      <c r="E7" s="37"/>
+      <c r="E7" s="37" t="s">
+        <v>486</v>
+      </c>
       <c r="F7" s="37" t="s">
         <v>92</v>
       </c>
@@ -8335,27 +8395,53 @@
         <v>30</v>
       </c>
       <c r="E19" s="37"/>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="42"/>
       <c r="K19" s="37"/>
       <c r="L19" s="37"/>
     </row>
+    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="37" t="s">
+        <v>483</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="D20" s="37">
+        <v>19</v>
+      </c>
+      <c r="E20" s="37"/>
+      <c r="F20" s="40" t="s">
+        <v>485</v>
+      </c>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="42"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:J20"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA049C64-FDE3-4EE7-B0ED-E66E2C366047}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8625,7 +8711,9 @@
       <c r="D7" s="37">
         <v>19</v>
       </c>
-      <c r="E7" s="37"/>
+      <c r="E7" s="37" t="s">
+        <v>486</v>
+      </c>
       <c r="F7" s="37" t="s">
         <v>92</v>
       </c>
@@ -9120,7 +9208,7 @@
       <c r="A21" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="37" t="s">
         <v>474</v>
       </c>
       <c r="C21" s="37" t="s">
@@ -9130,17 +9218,43 @@
         <v>30</v>
       </c>
       <c r="E21" s="37"/>
-      <c r="F21" s="37" t="s">
+      <c r="F21" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="42"/>
       <c r="K21" s="37"/>
       <c r="L21" s="37"/>
     </row>
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="37" t="s">
+        <v>483</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="D22" s="37">
+        <v>19</v>
+      </c>
+      <c r="E22" s="37"/>
+      <c r="F22" s="40" t="s">
+        <v>485</v>
+      </c>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="42"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F22:J22"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -9276,17 +9390,17 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="43" t="s">
         <v>406</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -9720,17 +9834,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="43" t="s">
         <v>406</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -10093,17 +10207,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="43" t="s">
         <v>406</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
     </row>
     <row r="4" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -10863,17 +10977,17 @@
       <c r="P3" s="16"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="43" t="s">
         <v>406</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">

--- a/Documentos/Mapeamento das Fontes de Dados/OLOS/MAPEAMENTO_OLOS.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/OLOS/MAPEAMENTO_OLOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\OLOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C28542E-DC45-4E9E-B480-085AE3D65E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E714EF3-FA80-4D42-BA79-020D4665EB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="937" firstSheet="2" activeTab="3" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="766" firstSheet="2" activeTab="15" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="PAGAMENTOS" sheetId="8" state="hidden" r:id="rId13"/>
     <sheet name="TEMPOS" sheetId="4" state="hidden" r:id="rId14"/>
     <sheet name="PAUSAS" sheetId="13" state="hidden" r:id="rId15"/>
-    <sheet name="PESQUISA" sheetId="5" state="hidden" r:id="rId16"/>
+    <sheet name="PESQUISA_SATISFACAO" sheetId="5" r:id="rId16"/>
     <sheet name="DEADLINE" sheetId="19" state="hidden" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="504">
   <si>
     <t>CPF</t>
   </si>
@@ -804,15 +804,6 @@
     <t>DATA DA REALIZAÇÃO DA PAUSA</t>
   </si>
   <si>
-    <t>NOTA DE SATISFAÇÃO DO CLIENTE</t>
-  </si>
-  <si>
-    <t>NOTA DA AVALIAÇÃO PELO CLIENTE (NPS)</t>
-  </si>
-  <si>
-    <t>DATA DA REALIZAÇÃO DA PESQUISA DE SATISFAÇÃO</t>
-  </si>
-  <si>
     <t>ID DO OPERADOR CADASTRADO NO CRM</t>
   </si>
   <si>
@@ -1215,9 +1206,6 @@
     <t>PAUSAS, PAUSE</t>
   </si>
   <si>
-    <t>NPS, PESQUISA_CLI</t>
-  </si>
-  <si>
     <t>TBACORDO, TB_CONTRACTS</t>
   </si>
   <si>
@@ -1513,6 +1501,91 @@
   </si>
   <si>
     <t>PK</t>
+  </si>
+  <si>
+    <t>DATA DA PESQUISA</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>INTEGRACAO_ID</t>
+  </si>
+  <si>
+    <t>ID DE ORIGEM DO REGISTRO PROVENIENTE DE OUTRA PLATAFORMA</t>
+  </si>
+  <si>
+    <t>PERGUNTA_01</t>
+  </si>
+  <si>
+    <t>PERGUNTA 1 DA PESQUISA</t>
+  </si>
+  <si>
+    <t>RESPOSTA_01</t>
+  </si>
+  <si>
+    <t>RESPOSTA DA PERGUNTA 1</t>
+  </si>
+  <si>
+    <t>PERGUNTA_02</t>
+  </si>
+  <si>
+    <t>PERGUNTA 2 DA PESQUISA</t>
+  </si>
+  <si>
+    <t>RESPOSTA_02</t>
+  </si>
+  <si>
+    <t>RESPOSTA DA PERGUNTA 2</t>
+  </si>
+  <si>
+    <t>INTEGRACAO_PLATAFORMA</t>
+  </si>
+  <si>
+    <t>NOME DA PLATAFORMA DE ORIGEM DO REGISTRO</t>
+  </si>
+  <si>
+    <t>SELECT 
+a.id,
+a.CallidTelecom,
+a.Campaignld,
+a.Instant,
+a.MilesStoneCount,
+a.MileStoneDescription,
+CASE
+        WHEN PATINDEX('%[0-9]%', REVERSE(a.MileStoneDescription)) &gt; 0 
+        THEN REVERSE(SUBSTRING(REVERSE(a.MileStoneDescription), 1, PATINDEX('%[^0-9]%', REVERSE(a.MileStoneDescription) + 't') - 1))
+        ELSE ''
+    END AS Nota,
+b.Description,
+c.Customerld,
+c.OriginalPhoneNumber
+ FROM milestonerawdata A with (nolock)
+ LEFT JOIN Campaign B with (nolock) on a.Campaignld = b.Campaignld
+ LEFT JOIN AttemptsRawData c WITH (nolock) on a.CallidTelecom = c.CallIdTelecom
+ WHERE Instant BETWEEN '2024-07-04 00:00:00.000' and '2024-07-04 23:59:59.000'</t>
+  </si>
+  <si>
+    <t>milestonerawdata</t>
+  </si>
+  <si>
+    <t>Instant</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>MileStoneDescription</t>
+  </si>
+  <si>
+    <t>Nota</t>
+  </si>
+  <si>
+    <t>CASE
+        WHEN PATINDEX('%[0-9]%', REVERSE(a.MileStoneDescription)) &gt; 0 
+        THEN REVERSE(SUBSTRING(REVERSE(a.MileStoneDescription), 1, PATINDEX('%[^0-9]%', REVERSE(a.MileStoneDescription) + 't') - 1))
+        ELSE ''
+    END AS Nota</t>
   </si>
 </sst>
 </file>
@@ -1608,7 +1681,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1705,8 +1778,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1841,12 +1920,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1976,6 +2107,21 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2311,10 +2457,10 @@
         <v>193</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2663,7 +2809,7 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="I4" s="43" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="J4" s="43"/>
       <c r="K4" s="43"/>
@@ -2682,10 +2828,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -2700,31 +2846,31 @@
         <v>193</v>
       </c>
       <c r="I5" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="L5" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="M5" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="N5" s="30" t="s">
         <v>365</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="O5" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="P5" s="31" t="s">
         <v>367</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="Q5" s="31" t="s">
         <v>368</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -2735,7 +2881,7 @@
         <v>188</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E6" s="1">
         <v>50</v>
@@ -2744,25 +2890,25 @@
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
       <c r="I6" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>378</v>
-      </c>
       <c r="P6" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
@@ -2773,7 +2919,7 @@
         <v>189</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E7" s="1">
         <v>50</v>
@@ -2782,25 +2928,25 @@
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
       <c r="I7" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="K7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="P7" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2811,7 +2957,7 @@
         <v>224</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E8" s="1">
         <v>8</v>
@@ -2828,7 +2974,7 @@
         <v>194</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E9" s="1">
         <v>8</v>
@@ -2842,7 +2988,7 @@
         <v>195</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E10" s="1">
         <v>50</v>
@@ -2856,7 +3002,7 @@
         <v>196</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E11" s="1">
         <v>100</v>
@@ -2870,7 +3016,7 @@
         <v>197</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
@@ -2884,7 +3030,7 @@
         <v>198</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E13" s="1">
         <v>50</v>
@@ -2898,7 +3044,7 @@
         <v>199</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
@@ -2909,10 +3055,10 @@
         <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E15" s="1">
         <v>4</v>
@@ -2926,7 +3072,7 @@
         <v>200</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E16" s="1">
         <v>20</v>
@@ -2940,7 +3086,7 @@
         <v>201</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E17" s="1">
         <v>20</v>
@@ -2954,7 +3100,7 @@
         <v>202</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E18" s="1">
         <v>20</v>
@@ -2968,7 +3114,7 @@
         <v>203</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E19" s="1">
         <v>20</v>
@@ -2982,7 +3128,7 @@
         <v>205</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E20" s="1">
         <v>10</v>
@@ -2996,7 +3142,7 @@
         <v>204</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E21" s="1">
         <v>10</v>
@@ -3010,7 +3156,7 @@
         <v>206</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E22" s="1">
         <v>10</v>
@@ -3024,7 +3170,7 @@
         <v>207</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E23" s="1">
         <v>10</v>
@@ -3038,7 +3184,7 @@
         <v>209</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E24" s="1">
         <v>10</v>
@@ -3052,7 +3198,7 @@
         <v>210</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E25" s="1">
         <v>10</v>
@@ -3094,7 +3240,7 @@
         <v>212</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E28" s="1">
         <v>20</v>
@@ -3102,10 +3248,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -3113,7 +3259,7 @@
         <v>123</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -3463,7 +3609,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="I3" s="43" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="J3" s="43"/>
       <c r="K3" s="43"/>
@@ -3482,10 +3628,10 @@
         <v>190</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>187</v>
@@ -3500,31 +3646,31 @@
         <v>193</v>
       </c>
       <c r="I4" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="L4" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="M4" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="N4" s="30" t="s">
         <v>365</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="O4" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="M4" s="30" t="s">
+      <c r="P4" s="31" t="s">
         <v>367</v>
       </c>
-      <c r="N4" s="30" t="s">
+      <c r="Q4" s="31" t="s">
         <v>368</v>
-      </c>
-      <c r="O4" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -3532,34 +3678,34 @@
         <v>84</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>398</v>
-      </c>
       <c r="P5" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -3570,31 +3716,31 @@
         <v>188</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E6" s="1">
         <v>50</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>398</v>
-      </c>
       <c r="P6" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -3605,7 +3751,7 @@
         <v>189</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E7" s="1">
         <v>50</v>
@@ -3619,7 +3765,7 @@
         <v>224</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E8" s="1">
         <v>8</v>
@@ -3633,7 +3779,7 @@
         <v>194</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E9" s="1">
         <v>8</v>
@@ -3644,10 +3790,10 @@
         <v>147</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E10" s="1">
         <v>20</v>
@@ -3658,10 +3804,10 @@
         <v>148</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E11" s="1">
         <v>50</v>
@@ -3672,10 +3818,10 @@
         <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E12" s="1">
         <v>20</v>
@@ -3686,10 +3832,10 @@
         <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E13" s="1">
         <v>50</v>
@@ -3700,16 +3846,16 @@
         <v>144</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
@@ -3717,16 +3863,16 @@
         <v>93</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
@@ -3734,16 +3880,16 @@
         <v>94</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -3751,16 +3897,16 @@
         <v>95</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -3768,16 +3914,16 @@
         <v>96</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -3785,16 +3931,16 @@
         <v>97</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -3802,16 +3948,16 @@
         <v>98</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -3819,16 +3965,16 @@
         <v>99</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -3836,16 +3982,16 @@
         <v>100</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -3853,16 +3999,16 @@
         <v>101</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -3870,16 +4016,16 @@
         <v>102</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -3887,16 +4033,16 @@
         <v>103</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -3904,16 +4050,16 @@
         <v>104</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -3921,16 +4067,16 @@
         <v>105</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -3938,16 +4084,16 @@
         <v>145</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -4098,7 +4244,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I4" s="43" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="J4" s="43"/>
       <c r="K4" s="43"/>
@@ -4117,10 +4263,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -4135,31 +4281,31 @@
         <v>193</v>
       </c>
       <c r="I5" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="L5" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="M5" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="N5" s="30" t="s">
         <v>365</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="O5" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="P5" s="31" t="s">
         <v>367</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="Q5" s="31" t="s">
         <v>368</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,36 +4313,36 @@
         <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E6" s="5">
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,33 +4353,33 @@
         <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E7" s="5">
         <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,7 +4390,7 @@
         <v>189</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E8" s="5">
         <v>50</v>
@@ -4258,7 +4404,7 @@
         <v>224</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E9" s="5">
         <v>8</v>
@@ -4272,7 +4418,7 @@
         <v>194</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E10" s="5">
         <v>8</v>
@@ -4283,10 +4429,10 @@
         <v>106</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E11" s="5">
         <v>20</v>
@@ -4300,7 +4446,7 @@
         <v>216</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E12" s="5">
         <v>20</v>
@@ -4311,10 +4457,10 @@
         <v>139</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E13" s="5">
         <v>20</v>
@@ -4325,10 +4471,10 @@
         <v>140</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E14" s="5">
         <v>100</v>
@@ -4342,7 +4488,7 @@
         <v>225</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E15" s="5">
         <v>20</v>
@@ -4356,7 +4502,7 @@
         <v>226</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E16" s="5">
         <v>50</v>
@@ -4367,7 +4513,7 @@
         <v>112</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>180</v>
@@ -4384,7 +4530,7 @@
         <v>213</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E18" s="5">
         <v>20</v>
@@ -4538,7 +4684,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="J4" s="43" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="K4" s="43"/>
       <c r="L4" s="43"/>
@@ -4557,10 +4703,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -4575,31 +4721,31 @@
         <v>193</v>
       </c>
       <c r="I5" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="L5" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="M5" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="N5" s="30" t="s">
         <v>365</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="O5" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="P5" s="31" t="s">
         <v>367</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="Q5" s="31" t="s">
         <v>368</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -4607,36 +4753,36 @@
         <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E6" s="5">
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -4647,33 +4793,33 @@
         <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E7" s="5">
         <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -4684,7 +4830,7 @@
         <v>189</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E8" s="5">
         <v>50</v>
@@ -4698,7 +4844,7 @@
         <v>224</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E9" s="5">
         <v>8</v>
@@ -4712,7 +4858,7 @@
         <v>194</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E10" s="5">
         <v>8</v>
@@ -4723,10 +4869,10 @@
         <v>106</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E11" s="5">
         <v>20</v>
@@ -4737,10 +4883,10 @@
         <v>108</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E12" s="5">
         <v>20</v>
@@ -4754,7 +4900,7 @@
         <v>216</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E13" s="5">
         <v>20</v>
@@ -4765,10 +4911,10 @@
         <v>139</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E14" s="5">
         <v>20</v>
@@ -4779,10 +4925,10 @@
         <v>140</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E15" s="5">
         <v>100</v>
@@ -4793,16 +4939,16 @@
         <v>109</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E16" s="5">
         <v>20</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -4813,7 +4959,7 @@
         <v>225</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E17" s="5">
         <v>20</v>
@@ -4827,7 +4973,7 @@
         <v>226</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E18" s="5">
         <v>50</v>
@@ -4838,7 +4984,7 @@
         <v>113</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>180</v>
@@ -4855,7 +5001,7 @@
         <v>213</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E20" s="5">
         <v>20</v>
@@ -4906,7 +5052,7 @@
         <v>190</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>187</v>
@@ -4915,34 +5061,34 @@
         <v>191</v>
       </c>
       <c r="F1" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="I1" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="J1" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="K1" s="30" t="s">
         <v>365</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="L1" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="M1" s="31" t="s">
         <v>367</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="N1" s="31" t="s">
         <v>368</v>
       </c>
-      <c r="L1" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>371</v>
-      </c>
       <c r="O1" s="5" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -4950,33 +5096,33 @@
         <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D2" s="5">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -4990,27 +5136,27 @@
         <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -5051,7 +5197,7 @@
         <v>141</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D7" s="5">
         <v>20</v>
@@ -5062,7 +5208,7 @@
         <v>142</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D8" s="5">
         <v>100</v>
@@ -5292,7 +5438,7 @@
         <v>190</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>187</v>
@@ -5301,34 +5447,34 @@
         <v>191</v>
       </c>
       <c r="F1" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="I1" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="J1" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="K1" s="30" t="s">
         <v>365</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="L1" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="M1" s="31" t="s">
         <v>367</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="N1" s="31" t="s">
         <v>368</v>
       </c>
-      <c r="L1" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>371</v>
-      </c>
       <c r="O1" s="5" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -5342,27 +5488,27 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -5376,27 +5522,27 @@
         <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -5438,7 +5584,7 @@
         <v>141</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D7" s="5">
         <v>20</v>
@@ -5449,7 +5595,7 @@
         <v>142</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D8" s="5">
         <v>100</v>
@@ -5460,7 +5606,7 @@
         <v>77</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D9" s="5">
         <v>8</v>
@@ -5471,7 +5617,7 @@
         <v>78</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D10" s="5">
         <v>8</v>
@@ -5482,7 +5628,7 @@
         <v>63</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D11" s="5">
         <v>8</v>
@@ -5493,7 +5639,7 @@
         <v>80</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D12" s="5">
         <v>50</v>
@@ -5504,7 +5650,7 @@
         <v>79</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D13" s="5">
         <v>4</v>
@@ -5515,7 +5661,7 @@
         <v>81</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D14" s="5">
         <v>20</v>
@@ -5539,232 +5685,548 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7920C411-EA90-40BF-87D0-8A7E5345C20C}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="5" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="48.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="25.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="48.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="52.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>349</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="C1" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="D1" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="44" t="s">
+        <v>360</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>362</v>
+      </c>
+      <c r="I1" s="35" t="s">
         <v>363</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="J1" s="35" t="s">
         <v>364</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="K1" s="35" t="s">
         <v>365</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="L1" s="35" t="s">
         <v>366</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="M1" s="36" t="s">
         <v>367</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="N1" s="36" t="s">
         <v>368</v>
       </c>
-      <c r="L1" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="B2" s="38" t="s">
+        <v>483</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>345</v>
+      </c>
+      <c r="D2" s="37">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="E2" s="37"/>
+      <c r="F2" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>498</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="45" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="D3" s="37">
+        <v>20</v>
+      </c>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>440</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="45"/>
+    </row>
+    <row r="4" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>474</v>
+      </c>
+      <c r="D4" s="37">
+        <v>19</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>498</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>500</v>
+      </c>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="45"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="37" t="s">
+        <v>429</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>430</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="D5" s="37">
+        <v>8</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>498</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>448</v>
+      </c>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="45"/>
+    </row>
+    <row r="6" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="37" t="s">
+        <v>431</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>475</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="D6" s="37">
+        <v>200</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>449</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>450</v>
+      </c>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="45"/>
+    </row>
+    <row r="7" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="D7" s="37">
+        <v>20</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>440</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>455</v>
+      </c>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="45"/>
+    </row>
+    <row r="8" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="37" t="s">
+        <v>485</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>486</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>474</v>
+      </c>
+      <c r="D8" s="37">
+        <v>19</v>
+      </c>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="45"/>
+    </row>
+    <row r="9" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="37" t="s">
+        <v>487</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>488</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="D9" s="37">
         <v>50</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="E9" s="37"/>
+      <c r="F9" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>498</v>
+      </c>
+      <c r="J9" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="45"/>
+    </row>
+    <row r="10" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="37" t="s">
+        <v>489</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>490</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="D10" s="37">
+        <v>8</v>
+      </c>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>498</v>
+      </c>
+      <c r="J10" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="45"/>
+    </row>
+    <row r="11" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>492</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="D11" s="37">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="E11" s="37"/>
+      <c r="F11" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="45"/>
+    </row>
+    <row r="12" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="37" t="s">
+        <v>493</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>494</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="D12" s="37">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="E12" s="37"/>
+      <c r="F12" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="45"/>
+    </row>
+    <row r="13" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="47" t="s">
+        <v>495</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="D13" s="37">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D8" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D9" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D10" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D11" s="5">
-        <v>20</v>
-      </c>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="45"/>
+    </row>
+    <row r="14" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="D14" s="37">
+        <v>30</v>
+      </c>
+      <c r="E14" s="37"/>
+      <c r="F14" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="45"/>
+    </row>
+    <row r="15" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>480</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="D15" s="37">
+        <v>19</v>
+      </c>
+      <c r="E15" s="37"/>
+      <c r="F15" s="40" t="s">
+        <v>481</v>
+      </c>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="45"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="O2:O15"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="F15:J15"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -5790,18 +6252,18 @@
         <v>193</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G3" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H3" s="32">
         <v>45467</v>
@@ -5810,12 +6272,12 @@
         <v>45471</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G4" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H4" s="32">
         <v>45474</v>
@@ -5824,12 +6286,12 @@
         <v>45476</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G5" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H5" s="32">
         <v>45477</v>
@@ -5838,12 +6300,12 @@
         <v>45481</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G6" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H6" s="32">
         <v>45482</v>
@@ -5852,12 +6314,12 @@
         <v>45484</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G7" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H7" s="32">
         <v>45488</v>
@@ -5866,12 +6328,12 @@
         <v>45490</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G8" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H8" s="32">
         <v>45491</v>
@@ -5880,12 +6342,12 @@
         <v>45495</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G9" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H9" s="32">
         <v>45496</v>
@@ -5894,12 +6356,12 @@
         <v>45502</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G10" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H10" s="32">
         <v>45503</v>
@@ -5908,12 +6370,12 @@
         <v>45504</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G11" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="H11" s="32">
         <v>45505</v>
@@ -5922,12 +6384,12 @@
         <v>45509</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G12" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H12" s="32">
         <v>45510</v>
@@ -5936,12 +6398,12 @@
         <v>45512</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G13" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H13" s="32">
         <v>45513</v>
@@ -5950,12 +6412,12 @@
         <v>45517</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G14" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H14" s="32">
         <v>45518</v>
@@ -5964,12 +6426,12 @@
         <v>45520</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G15" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H15" s="32">
         <v>45523</v>
@@ -5978,7 +6440,7 @@
         <v>45525</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -6049,51 +6511,51 @@
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="AC1" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B2" s="1">
         <v>3</v>
@@ -6831,7 +7293,7 @@
         <v>178</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AD11" s="1" t="s">
         <v>171</v>
@@ -6911,7 +7373,7 @@
         <v>178</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AD12" s="1" t="s">
         <v>171</v>
@@ -6991,7 +7453,7 @@
         <v>171</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AD13" s="1" t="s">
         <v>171</v>
@@ -7065,7 +7527,7 @@
         <v>179</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AD14" s="1" t="s">
         <v>171</v>
@@ -7139,7 +7601,7 @@
         <v>178</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AD15" s="1" t="s">
         <v>171</v>
@@ -7201,7 +7663,7 @@
         <v>181</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AD16" s="1" t="s">
         <v>171</v>
@@ -7257,7 +7719,7 @@
         <v>178</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AD17" s="1" t="s">
         <v>171</v>
@@ -7307,7 +7769,7 @@
         <v>172</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AD18" s="1" t="s">
         <v>171</v>
@@ -7345,7 +7807,7 @@
         <v>183</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AD19" s="1" t="s">
         <v>171</v>
@@ -7377,7 +7839,7 @@
         <v>183</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AD20" s="1" t="s">
         <v>171</v>
@@ -7403,7 +7865,7 @@
         <v>183</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AD21" s="1" t="s">
         <v>171</v>
@@ -7429,7 +7891,7 @@
         <v>183</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AD22" s="1" t="s">
         <v>171</v>
@@ -7455,7 +7917,7 @@
         <v>183</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AD23" s="1" t="s">
         <v>171</v>
@@ -7481,7 +7943,7 @@
         <v>183</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AD24" s="1" t="s">
         <v>171</v>
@@ -7507,7 +7969,7 @@
         <v>183</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AD25" s="1" t="s">
         <v>171</v>
@@ -7533,7 +7995,7 @@
         <v>183</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AD26" s="1" t="s">
         <v>171</v>
@@ -7547,7 +8009,7 @@
     </row>
     <row r="27" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>179</v>
@@ -7674,7 +8136,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7705,7 +8167,7 @@
         <v>190</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>187</v>
@@ -7714,34 +8176,34 @@
         <v>191</v>
       </c>
       <c r="F1" s="35" t="s">
+        <v>360</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>362</v>
+      </c>
+      <c r="I1" s="35" t="s">
         <v>363</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="J1" s="35" t="s">
         <v>364</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="K1" s="35" t="s">
         <v>365</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="L1" s="35" t="s">
         <v>366</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="M1" s="36" t="s">
         <v>367</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="N1" s="36" t="s">
         <v>368</v>
       </c>
-      <c r="L1" s="35" t="s">
-        <v>369</v>
-      </c>
-      <c r="M1" s="36" t="s">
-        <v>370</v>
-      </c>
-      <c r="N1" s="36" t="s">
-        <v>371</v>
-      </c>
       <c r="O1" s="37" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7752,7 +8214,7 @@
         <v>214</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D2" s="37">
         <v>10</v>
@@ -7762,24 +8224,24 @@
         <v>92</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="K2" s="37"/>
       <c r="L2" s="37" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="M2" s="37"/>
       <c r="N2" s="37" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O2" s="37"/>
     </row>
@@ -7788,10 +8250,10 @@
         <v>46</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D3" s="37">
         <v>20</v>
@@ -7801,24 +8263,24 @@
         <v>92</v>
       </c>
       <c r="G3" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>440</v>
+      </c>
+      <c r="J3" s="37" t="s">
         <v>442</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>443</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>444</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>446</v>
       </c>
       <c r="K3" s="37"/>
       <c r="L3" s="39" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="M3" s="37"/>
       <c r="N3" s="37" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O3" s="37"/>
     </row>
@@ -7827,10 +8289,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D4" s="37">
         <v>20</v>
@@ -7840,36 +8302,36 @@
         <v>92</v>
       </c>
       <c r="G4" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>440</v>
+      </c>
+      <c r="J4" s="37" t="s">
         <v>442</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>443</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>444</v>
-      </c>
-      <c r="J4" s="37" t="s">
-        <v>446</v>
       </c>
       <c r="K4" s="37"/>
       <c r="L4" s="39" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="M4" s="37"/>
       <c r="N4" s="37" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O4" s="37"/>
     </row>
     <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D5" s="37">
         <v>30</v>
@@ -7879,34 +8341,34 @@
         <v>92</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K5" s="37"/>
       <c r="L5" s="37"/>
       <c r="M5" s="37"/>
       <c r="N5" s="37" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O5" s="37"/>
     </row>
     <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="37" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D6" s="37">
         <v>100</v>
@@ -7916,22 +8378,22 @@
         <v>92</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I6" s="37" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="J6" s="37" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="K6" s="37"/>
       <c r="L6" s="37"/>
       <c r="M6" s="37"/>
       <c r="N6" s="37" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O6" s="37"/>
     </row>
@@ -7940,49 +8402,49 @@
         <v>215</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D7" s="37">
         <v>19</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F7" s="37" t="s">
         <v>92</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J7" s="37" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="K7" s="37"/>
       <c r="L7" s="37"/>
       <c r="M7" s="37"/>
       <c r="N7" s="37" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O7" s="37"/>
     </row>
     <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="37" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D8" s="37">
         <v>19</v>
@@ -7992,34 +8454,34 @@
         <v>92</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H8" s="37" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J8" s="37" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="K8" s="37"/>
       <c r="L8" s="37"/>
       <c r="M8" s="37"/>
       <c r="N8" s="37" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O8" s="37"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="37" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D9" s="37">
         <v>200</v>
@@ -8029,34 +8491,34 @@
         <v>92</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I9" s="37" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K9" s="37"/>
       <c r="L9" s="37"/>
       <c r="M9" s="37"/>
       <c r="N9" s="37" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O9" s="37"/>
     </row>
     <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D10" s="37">
         <v>19</v>
@@ -8066,34 +8528,34 @@
         <v>92</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H10" s="37" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="K10" s="37"/>
       <c r="L10" s="37"/>
       <c r="M10" s="37"/>
       <c r="N10" s="37" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O10" s="37"/>
     </row>
     <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="37" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D11" s="37">
         <v>200</v>
@@ -8103,22 +8565,22 @@
         <v>92</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H11" s="37" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I11" s="37" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="J11" s="37" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K11" s="37"/>
       <c r="L11" s="37"/>
       <c r="M11" s="37"/>
       <c r="N11" s="37" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O11" s="37"/>
     </row>
@@ -8130,7 +8592,7 @@
         <v>217</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D12" s="37">
         <v>250</v>
@@ -8140,22 +8602,22 @@
         <v>92</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H12" s="37" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I12" s="37" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="K12" s="37"/>
       <c r="L12" s="37"/>
       <c r="M12" s="37"/>
       <c r="N12" s="37" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O12" s="37"/>
     </row>
@@ -8167,7 +8629,7 @@
         <v>218</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D13" s="37">
         <v>50</v>
@@ -8177,22 +8639,22 @@
         <v>92</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H13" s="37" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I13" s="37" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="K13" s="37"/>
       <c r="L13" s="37"/>
       <c r="M13" s="37"/>
       <c r="N13" s="37" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O13" s="37"/>
     </row>
@@ -8204,7 +8666,7 @@
         <v>219</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D14" s="37">
         <v>19</v>
@@ -8214,22 +8676,22 @@
         <v>92</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H14" s="37" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="K14" s="37"/>
       <c r="L14" s="37"/>
       <c r="M14" s="37"/>
       <c r="N14" s="37" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O14" s="37"/>
     </row>
@@ -8241,7 +8703,7 @@
         <v>220</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D15" s="37">
         <v>19</v>
@@ -8251,22 +8713,22 @@
         <v>92</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H15" s="37" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I15" s="37" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J15" s="37" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
       <c r="M15" s="37"/>
       <c r="N15" s="37" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O15" s="37"/>
     </row>
@@ -8278,7 +8740,7 @@
         <v>229</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D16" s="37">
         <v>19</v>
@@ -8288,22 +8750,22 @@
         <v>92</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H16" s="37" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I16" s="37" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J16" s="37" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="K16" s="37"/>
       <c r="L16" s="37"/>
       <c r="M16" s="37"/>
       <c r="N16" s="37" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O16" s="37"/>
     </row>
@@ -8315,7 +8777,7 @@
         <v>230</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D17" s="37">
         <v>19</v>
@@ -8325,22 +8787,22 @@
         <v>92</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H17" s="37" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I17" s="37" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="K17" s="37"/>
       <c r="L17" s="37"/>
       <c r="M17" s="37"/>
       <c r="N17" s="37" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O17" s="37"/>
     </row>
@@ -8352,7 +8814,7 @@
         <v>221</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D18" s="37">
         <v>20</v>
@@ -8362,22 +8824,22 @@
         <v>92</v>
       </c>
       <c r="G18" s="37" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H18" s="37" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I18" s="37" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="K18" s="37"/>
       <c r="L18" s="37"/>
       <c r="M18" s="37"/>
       <c r="N18" s="37" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O18" s="37"/>
     </row>
@@ -8386,10 +8848,10 @@
         <v>109</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D19" s="37">
         <v>30</v>
@@ -8407,20 +8869,20 @@
     </row>
     <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="37" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D20" s="37">
         <v>19</v>
       </c>
       <c r="E20" s="37"/>
       <c r="F20" s="40" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
@@ -8440,8 +8902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA049C64-FDE3-4EE7-B0ED-E66E2C366047}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8472,7 +8934,7 @@
         <v>190</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>187</v>
@@ -8481,34 +8943,34 @@
         <v>191</v>
       </c>
       <c r="F1" s="35" t="s">
+        <v>360</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>362</v>
+      </c>
+      <c r="I1" s="35" t="s">
         <v>363</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="J1" s="35" t="s">
         <v>364</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="K1" s="35" t="s">
         <v>365</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="L1" s="35" t="s">
         <v>366</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="M1" s="36" t="s">
         <v>367</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="N1" s="36" t="s">
         <v>368</v>
       </c>
-      <c r="L1" s="35" t="s">
-        <v>369</v>
-      </c>
-      <c r="M1" s="36" t="s">
-        <v>370</v>
-      </c>
-      <c r="N1" s="36" t="s">
-        <v>371</v>
-      </c>
       <c r="O1" s="37" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8519,7 +8981,7 @@
         <v>214</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D2" s="37">
         <v>10</v>
@@ -8529,24 +8991,24 @@
         <v>92</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="K2" s="37"/>
       <c r="L2" s="37" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="M2" s="37"/>
       <c r="N2" s="37" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O2" s="37"/>
     </row>
@@ -8558,7 +9020,7 @@
         <v>216</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D3" s="37">
         <v>20</v>
@@ -8568,22 +9030,22 @@
         <v>92</v>
       </c>
       <c r="G3" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>457</v>
+      </c>
+      <c r="J3" s="37" t="s">
         <v>442</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>443</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>461</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>446</v>
       </c>
       <c r="K3" s="37"/>
       <c r="L3" s="39"/>
       <c r="M3" s="37"/>
       <c r="N3" s="37" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O3" s="37"/>
     </row>
@@ -8592,10 +9054,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D4" s="37">
         <v>20</v>
@@ -8605,34 +9067,34 @@
         <v>92</v>
       </c>
       <c r="G4" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>457</v>
+      </c>
+      <c r="J4" s="37" t="s">
         <v>442</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>443</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>461</v>
-      </c>
-      <c r="J4" s="37" t="s">
-        <v>446</v>
       </c>
       <c r="K4" s="37"/>
       <c r="L4" s="39"/>
       <c r="M4" s="37"/>
       <c r="N4" s="37" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O4" s="37"/>
     </row>
     <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D5" s="37">
         <v>30</v>
@@ -8642,34 +9104,34 @@
         <v>92</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K5" s="37"/>
       <c r="L5" s="37"/>
       <c r="M5" s="37"/>
       <c r="N5" s="37" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O5" s="37"/>
     </row>
     <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="37" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D6" s="37">
         <v>100</v>
@@ -8679,22 +9141,22 @@
         <v>92</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I6" s="37" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="J6" s="37" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="K6" s="37"/>
       <c r="L6" s="37"/>
       <c r="M6" s="37"/>
       <c r="N6" s="37" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O6" s="37"/>
     </row>
@@ -8703,49 +9165,49 @@
         <v>215</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D7" s="37">
         <v>19</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F7" s="37" t="s">
         <v>92</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="J7" s="37" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="K7" s="37"/>
       <c r="L7" s="37"/>
       <c r="M7" s="37"/>
       <c r="N7" s="37" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O7" s="37"/>
     </row>
     <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="37" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D8" s="37">
         <v>19</v>
@@ -8755,34 +9217,34 @@
         <v>92</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H8" s="37" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="J8" s="37" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="K8" s="37"/>
       <c r="L8" s="37"/>
       <c r="M8" s="37"/>
       <c r="N8" s="37" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O8" s="37"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="37" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D9" s="37">
         <v>200</v>
@@ -8792,34 +9254,34 @@
         <v>92</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I9" s="37" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K9" s="37"/>
       <c r="L9" s="37"/>
       <c r="M9" s="37"/>
       <c r="N9" s="37" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O9" s="37"/>
     </row>
     <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D10" s="37">
         <v>19</v>
@@ -8829,34 +9291,34 @@
         <v>92</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H10" s="37" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="K10" s="37"/>
       <c r="L10" s="37"/>
       <c r="M10" s="37"/>
       <c r="N10" s="37" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O10" s="37"/>
     </row>
     <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="37" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D11" s="37">
         <v>200</v>
@@ -8866,22 +9328,22 @@
         <v>92</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H11" s="37" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I11" s="37" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="J11" s="37" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K11" s="37"/>
       <c r="L11" s="37"/>
       <c r="M11" s="37"/>
       <c r="N11" s="37" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O11" s="37"/>
     </row>
@@ -8893,7 +9355,7 @@
         <v>217</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D12" s="37">
         <v>250</v>
@@ -8908,7 +9370,7 @@
       <c r="L12" s="37"/>
       <c r="M12" s="37"/>
       <c r="N12" s="37" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O12" s="37"/>
     </row>
@@ -8920,7 +9382,7 @@
         <v>218</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D13" s="37">
         <v>50</v>
@@ -8930,22 +9392,22 @@
         <v>92</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H13" s="37" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I13" s="37" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="K13" s="37"/>
       <c r="L13" s="37"/>
       <c r="M13" s="37"/>
       <c r="N13" s="37" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O13" s="37"/>
     </row>
@@ -8957,7 +9419,7 @@
         <v>219</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D14" s="37">
         <v>19</v>
@@ -8967,22 +9429,22 @@
         <v>92</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H14" s="37" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="K14" s="37"/>
       <c r="L14" s="37"/>
       <c r="M14" s="37"/>
       <c r="N14" s="37" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O14" s="37"/>
     </row>
@@ -8994,7 +9456,7 @@
         <v>220</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D15" s="37">
         <v>19</v>
@@ -9004,22 +9466,22 @@
         <v>92</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H15" s="37" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I15" s="37" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="J15" s="37" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
       <c r="M15" s="37"/>
       <c r="N15" s="37" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O15" s="37"/>
     </row>
@@ -9031,7 +9493,7 @@
         <v>229</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D16" s="37">
         <v>19</v>
@@ -9041,22 +9503,22 @@
         <v>92</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H16" s="37" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I16" s="37" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="J16" s="37" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="K16" s="37"/>
       <c r="L16" s="37"/>
       <c r="M16" s="37"/>
       <c r="N16" s="37" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O16" s="37"/>
     </row>
@@ -9068,7 +9530,7 @@
         <v>230</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D17" s="37">
         <v>19</v>
@@ -9078,34 +9540,34 @@
         <v>92</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H17" s="37" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I17" s="37" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="K17" s="37"/>
       <c r="L17" s="37"/>
       <c r="M17" s="37"/>
       <c r="N17" s="37" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O17" s="37"/>
     </row>
     <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="37" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D18" s="37">
         <v>19</v>
@@ -9115,16 +9577,16 @@
         <v>92</v>
       </c>
       <c r="G18" s="37" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H18" s="37" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I18" s="37" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="K18" s="37"/>
       <c r="L18" s="37"/>
@@ -9134,13 +9596,13 @@
     </row>
     <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="37" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D19" s="37">
         <v>19</v>
@@ -9150,16 +9612,16 @@
         <v>92</v>
       </c>
       <c r="G19" s="37" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H19" s="37" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I19" s="37" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="J19" s="37" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="K19" s="37"/>
       <c r="L19" s="37"/>
@@ -9175,7 +9637,7 @@
         <v>221</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D20" s="37">
         <v>20</v>
@@ -9185,22 +9647,22 @@
         <v>92</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H20" s="37" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I20" s="37" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="J20" s="37" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="K20" s="37"/>
       <c r="L20" s="37"/>
       <c r="M20" s="37"/>
       <c r="N20" s="37" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O20" s="37"/>
     </row>
@@ -9209,10 +9671,10 @@
         <v>109</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D21" s="37">
         <v>30</v>
@@ -9230,20 +9692,20 @@
     </row>
     <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="37" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D22" s="37">
         <v>19</v>
       </c>
       <c r="E22" s="37"/>
       <c r="F22" s="40" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="G22" s="41"/>
       <c r="H22" s="41"/>
@@ -9391,7 +9853,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I4" s="43" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="J4" s="43"/>
       <c r="K4" s="43"/>
@@ -9410,10 +9872,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -9428,31 +9890,31 @@
         <v>193</v>
       </c>
       <c r="I5" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="L5" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="M5" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="N5" s="30" t="s">
         <v>365</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="O5" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="P5" s="31" t="s">
         <v>367</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="Q5" s="31" t="s">
         <v>368</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9463,33 +9925,33 @@
         <v>223</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E6" s="5">
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9500,33 +9962,33 @@
         <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E7" s="5">
         <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9537,7 +9999,7 @@
         <v>189</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E8" s="5">
         <v>50</v>
@@ -9551,7 +10013,7 @@
         <v>224</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E9" s="5">
         <v>8</v>
@@ -9565,7 +10027,7 @@
         <v>194</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E10" s="5">
         <v>8</v>
@@ -9579,7 +10041,7 @@
         <v>216</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E11" s="5">
         <v>20</v>
@@ -9590,10 +10052,10 @@
         <v>139</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E12" s="5">
         <v>20</v>
@@ -9604,10 +10066,10 @@
         <v>140</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E13" s="5">
         <v>100</v>
@@ -9621,7 +10083,7 @@
         <v>225</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E14" s="5">
         <v>20</v>
@@ -9635,7 +10097,7 @@
         <v>226</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E15" s="5">
         <v>50</v>
@@ -9649,7 +10111,7 @@
         <v>227</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E16" s="5">
         <v>8</v>
@@ -9663,7 +10125,7 @@
         <v>228</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E17" s="5">
         <v>8</v>
@@ -9677,7 +10139,7 @@
         <v>229</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E18" s="5">
         <v>8</v>
@@ -9691,7 +10153,7 @@
         <v>230</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E19" s="5">
         <v>8</v>
@@ -9705,7 +10167,7 @@
         <v>231</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E20" s="5">
         <v>11</v>
@@ -9719,7 +10181,7 @@
         <v>213</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E21" s="5">
         <v>20</v>
@@ -9835,7 +10297,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I3" s="43" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="J3" s="43"/>
       <c r="K3" s="43"/>
@@ -9854,10 +10316,10 @@
         <v>190</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>187</v>
@@ -9872,31 +10334,31 @@
         <v>193</v>
       </c>
       <c r="I4" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="L4" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="M4" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="N4" s="30" t="s">
         <v>365</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="O4" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="M4" s="30" t="s">
+      <c r="P4" s="31" t="s">
         <v>367</v>
       </c>
-      <c r="N4" s="30" t="s">
+      <c r="Q4" s="31" t="s">
         <v>368</v>
-      </c>
-      <c r="O4" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9904,34 +10366,34 @@
         <v>118</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E5" s="1">
         <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9942,34 +10404,34 @@
         <v>216</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E6" s="1">
         <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9977,10 +10439,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E7" s="1">
         <v>11</v>
@@ -9994,7 +10456,7 @@
         <v>188</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E8" s="1">
         <v>50</v>
@@ -10008,7 +10470,7 @@
         <v>189</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
@@ -10022,7 +10484,7 @@
         <v>224</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
@@ -10036,7 +10498,7 @@
         <v>194</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
@@ -10047,10 +10509,10 @@
         <v>119</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
@@ -10061,10 +10523,10 @@
         <v>120</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E13" s="1">
         <v>20</v>
@@ -10075,10 +10537,10 @@
         <v>121</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
@@ -10092,7 +10554,7 @@
         <v>213</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E15" s="1">
         <v>20</v>
@@ -10208,7 +10670,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I3" s="43" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="J3" s="43"/>
       <c r="K3" s="43"/>
@@ -10227,10 +10689,10 @@
         <v>190</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>187</v>
@@ -10245,31 +10707,31 @@
         <v>193</v>
       </c>
       <c r="I4" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="L4" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="M4" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="N4" s="30" t="s">
         <v>365</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="O4" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="M4" s="30" t="s">
+      <c r="P4" s="31" t="s">
         <v>367</v>
       </c>
-      <c r="N4" s="30" t="s">
+      <c r="Q4" s="31" t="s">
         <v>368</v>
-      </c>
-      <c r="O4" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -10277,34 +10739,34 @@
         <v>123</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E5" s="1">
         <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -10315,34 +10777,34 @@
         <v>216</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E6" s="1">
         <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -10350,10 +10812,10 @@
         <v>101</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E7" s="1">
         <v>11</v>
@@ -10367,7 +10829,7 @@
         <v>188</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E8" s="1">
         <v>50</v>
@@ -10381,7 +10843,7 @@
         <v>189</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
@@ -10395,7 +10857,7 @@
         <v>224</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
@@ -10409,7 +10871,7 @@
         <v>194</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
@@ -10420,10 +10882,10 @@
         <v>125</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
@@ -10434,10 +10896,10 @@
         <v>127</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E13" s="1">
         <v>20</v>
@@ -10448,10 +10910,10 @@
         <v>121</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
@@ -10465,7 +10927,7 @@
         <v>213</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E15" s="1">
         <v>20</v>
@@ -10523,7 +10985,7 @@
         <v>190</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>187</v>
@@ -10532,34 +10994,34 @@
         <v>191</v>
       </c>
       <c r="F1" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="I1" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="J1" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="K1" s="30" t="s">
         <v>365</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="L1" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="M1" s="31" t="s">
         <v>367</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="N1" s="31" t="s">
         <v>368</v>
       </c>
-      <c r="L1" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>371</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -10567,31 +11029,31 @@
         <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D2" s="1">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>396</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -10605,25 +11067,25 @@
         <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>396</v>
-      </c>
       <c r="M3" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -10664,7 +11126,7 @@
         <v>57</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D7" s="1">
         <v>100</v>
@@ -10675,7 +11137,7 @@
         <v>114</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D8" s="1">
         <v>50</v>
@@ -10719,14 +11181,14 @@
         <v>115</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="1">
         <v>2</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="49.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -10734,13 +11196,13 @@
         <v>116</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D13" s="1">
         <v>20</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -10748,7 +11210,7 @@
         <v>45</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D14" s="1">
         <v>19.2</v>
@@ -10759,7 +11221,7 @@
         <v>117</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D15" s="1">
         <v>20</v>
@@ -10841,52 +11303,52 @@
         <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>146</v>
@@ -10978,7 +11440,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="I4" s="43" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="J4" s="43"/>
       <c r="K4" s="43"/>
@@ -10997,10 +11459,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -11015,31 +11477,31 @@
         <v>193</v>
       </c>
       <c r="I5" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="L5" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="M5" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="N5" s="30" t="s">
         <v>365</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="O5" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="P5" s="31" t="s">
         <v>367</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="Q5" s="31" t="s">
         <v>368</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
@@ -11050,31 +11512,31 @@
         <v>224</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E6" s="1">
         <v>8</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>396</v>
-      </c>
       <c r="P6" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
@@ -11085,31 +11547,31 @@
         <v>194</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E7" s="1">
         <v>8</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>396</v>
-      </c>
       <c r="P7" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
@@ -11120,7 +11582,7 @@
         <v>222</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E8" s="1">
         <v>8</v>
@@ -11134,7 +11596,7 @@
         <v>188</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
@@ -11148,7 +11610,7 @@
         <v>189</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E10" s="1">
         <v>50</v>
@@ -11159,10 +11621,10 @@
         <v>89</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
@@ -11173,10 +11635,10 @@
         <v>91</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
@@ -11184,13 +11646,13 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E13" s="1">
         <v>50</v>
@@ -11198,13 +11660,13 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E14" s="1">
         <v>50</v>
@@ -11212,13 +11674,13 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E15" s="1">
         <v>50</v>
@@ -11226,13 +11688,13 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E16" s="1">
         <v>50</v>
@@ -11240,13 +11702,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E17" s="1">
         <v>50</v>
@@ -11254,13 +11716,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E18" s="1">
         <v>50</v>
@@ -11268,13 +11730,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E19" s="1">
         <v>50</v>
@@ -11282,13 +11744,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E20" s="1">
         <v>50</v>
@@ -11296,13 +11758,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E21" s="1">
         <v>50</v>
@@ -11310,13 +11772,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E22" s="1">
         <v>50</v>
@@ -11324,13 +11786,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E23" s="1">
         <v>50</v>
@@ -11338,13 +11800,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E24" s="1">
         <v>50</v>
@@ -11352,13 +11814,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E25" s="1">
         <v>50</v>
@@ -11366,13 +11828,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E26" s="1">
         <v>50</v>
@@ -11380,13 +11842,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E27" s="1">
         <v>50</v>
@@ -11394,13 +11856,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E28" s="1">
         <v>50</v>
@@ -11414,7 +11876,7 @@
         <v>213</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E29" s="1">
         <v>20</v>

--- a/Documentos/Mapeamento das Fontes de Dados/OLOS/MAPEAMENTO_OLOS.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/OLOS/MAPEAMENTO_OLOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\OLOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E714EF3-FA80-4D42-BA79-020D4665EB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22030B00-64FE-468C-BF16-B0D4D53FE8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="766" firstSheet="2" activeTab="15" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="766" firstSheet="2" activeTab="15" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="506">
   <si>
     <t>CPF</t>
   </si>
@@ -1318,9 +1318,6 @@
   </si>
   <si>
     <t>QUERY</t>
-  </si>
-  <si>
-    <t>TIM</t>
   </si>
   <si>
     <t>CPF DO CLIENTE</t>
@@ -1587,6 +1584,15 @@
         ELSE ''
     END AS Nota</t>
   </si>
+  <si>
+    <t>EVENTO_ID</t>
+  </si>
+  <si>
+    <t>ID DO ACIONAMENTO NO DW</t>
+  </si>
+  <si>
+    <t>IDENTITY</t>
+  </si>
 </sst>
 </file>
 
@@ -1596,7 +1602,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1672,16 +1678,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="18">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1762,18 +1760,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1F4E78"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF44546A"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1785,7 +1771,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1835,21 +1821,6 @@
       </top>
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFBFBFBF"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFBFBFBF"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1977,7 +1948,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2075,26 +2046,35 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2102,25 +2082,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2808,17 +2773,17 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="45" t="s">
         <v>402</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
     </row>
     <row r="5" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -3608,17 +3573,17 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="45" t="s">
         <v>402</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
     </row>
     <row r="4" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -4243,17 +4208,17 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="45" t="s">
         <v>402</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -4683,17 +4648,17 @@
       <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="45" t="s">
         <v>402</v>
       </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -5685,10 +5650,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7920C411-EA90-40BF-87D0-8A7E5345C20C}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5710,522 +5675,550 @@
     <col min="15" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="38" t="s">
         <v>346</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="38" t="s">
         <v>360</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="33" t="s">
         <v>361</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="33" t="s">
         <v>362</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="33" t="s">
         <v>363</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="33" t="s">
         <v>364</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="33" t="s">
         <v>365</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="33" t="s">
         <v>366</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="34" t="s">
         <v>368</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>504</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="D2" s="35">
+        <v>19</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>481</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>505</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B3" s="36" t="s">
+        <v>482</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="D3" s="35">
+        <v>10</v>
+      </c>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>497</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>498</v>
+      </c>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="46" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>470</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="D4" s="35">
+        <v>20</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="46"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>472</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="D5" s="35">
+        <v>19</v>
+      </c>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>497</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>499</v>
+      </c>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="46"/>
+    </row>
+    <row r="6" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="35" t="s">
+        <v>428</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>429</v>
+      </c>
+      <c r="C6" s="35" t="s">
         <v>483</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>345</v>
-      </c>
-      <c r="D2" s="37">
-        <v>10</v>
-      </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37" t="s">
+      <c r="D6" s="35">
+        <v>8</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G6" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H6" s="35" t="s">
         <v>438</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="I6" s="35" t="s">
+        <v>497</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="46"/>
+    </row>
+    <row r="7" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>474</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="D7" s="35">
+        <v>200</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>448</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>449</v>
+      </c>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="46"/>
+    </row>
+    <row r="8" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="D8" s="35">
+        <v>20</v>
+      </c>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I8" s="35" t="s">
         <v>439</v>
       </c>
-      <c r="I2" s="37" t="s">
-        <v>498</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>499</v>
-      </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="45" t="s">
+      <c r="J8" s="35" t="s">
+        <v>454</v>
+      </c>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="46"/>
+    </row>
+    <row r="9" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>485</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="D9" s="35">
+        <v>19</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="46"/>
+    </row>
+    <row r="10" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="35" t="s">
+        <v>486</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>487</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="D10" s="35">
+        <v>50</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I10" s="35" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>471</v>
-      </c>
-      <c r="C3" s="37" t="s">
+      <c r="J10" s="35" t="s">
+        <v>500</v>
+      </c>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="46"/>
+    </row>
+    <row r="11" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="35" t="s">
+        <v>488</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>489</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>483</v>
+      </c>
+      <c r="D11" s="35">
+        <v>8</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>497</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>501</v>
+      </c>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35" t="s">
+        <v>502</v>
+      </c>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="46"/>
+    </row>
+    <row r="12" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35" t="s">
+        <v>490</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>491</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="D12" s="35">
+        <v>50</v>
+      </c>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="46"/>
+    </row>
+    <row r="13" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="35" t="s">
+        <v>492</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>493</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>483</v>
+      </c>
+      <c r="D13" s="35">
+        <v>8</v>
+      </c>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="46"/>
+    </row>
+    <row r="14" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>495</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="D14" s="35">
+        <v>20</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="46"/>
+    </row>
+    <row r="15" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>469</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="D15" s="35">
+        <v>30</v>
+      </c>
+      <c r="E15" s="35"/>
+      <c r="F15" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="46"/>
+    </row>
+    <row r="16" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="40" t="s">
         <v>478</v>
       </c>
-      <c r="D3" s="37">
-        <v>20</v>
-      </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>440</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>442</v>
-      </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="45"/>
-    </row>
-    <row r="4" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>473</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>474</v>
-      </c>
-      <c r="D4" s="37">
+      <c r="B16" s="41" t="s">
+        <v>479</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>475</v>
+      </c>
+      <c r="D16" s="35">
         <v>19</v>
       </c>
-      <c r="E4" s="37" t="s">
-        <v>482</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>498</v>
-      </c>
-      <c r="J4" s="37" t="s">
-        <v>500</v>
-      </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="45"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="37" t="s">
-        <v>429</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>430</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>484</v>
-      </c>
-      <c r="D5" s="37">
-        <v>8</v>
-      </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>498</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>448</v>
-      </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="45"/>
-    </row>
-    <row r="6" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="37" t="s">
-        <v>431</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>475</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>478</v>
-      </c>
-      <c r="D6" s="37">
-        <v>200</v>
-      </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H6" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I6" s="37" t="s">
-        <v>449</v>
-      </c>
-      <c r="J6" s="37" t="s">
-        <v>450</v>
-      </c>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="45"/>
-    </row>
-    <row r="7" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>478</v>
-      </c>
-      <c r="D7" s="37">
-        <v>20</v>
-      </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H7" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I7" s="37" t="s">
-        <v>440</v>
-      </c>
-      <c r="J7" s="37" t="s">
-        <v>455</v>
-      </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="45"/>
-    </row>
-    <row r="8" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="37" t="s">
-        <v>485</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>486</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>474</v>
-      </c>
-      <c r="D8" s="37">
-        <v>19</v>
-      </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="45"/>
-    </row>
-    <row r="9" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="37" t="s">
-        <v>487</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>488</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>478</v>
-      </c>
-      <c r="D9" s="37">
-        <v>50</v>
-      </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H9" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I9" s="37" t="s">
-        <v>498</v>
-      </c>
-      <c r="J9" s="37" t="s">
-        <v>501</v>
-      </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="45"/>
-    </row>
-    <row r="10" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="37" t="s">
-        <v>489</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>490</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>484</v>
-      </c>
-      <c r="D10" s="37">
-        <v>8</v>
-      </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I10" s="37" t="s">
-        <v>498</v>
-      </c>
-      <c r="J10" s="37" t="s">
-        <v>502</v>
-      </c>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37" t="s">
-        <v>503</v>
-      </c>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="45"/>
-    </row>
-    <row r="11" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="37" t="s">
-        <v>491</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>492</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>478</v>
-      </c>
-      <c r="D11" s="37">
-        <v>50</v>
-      </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="45"/>
-    </row>
-    <row r="12" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37" t="s">
-        <v>493</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>494</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>484</v>
-      </c>
-      <c r="D12" s="37">
-        <v>8</v>
-      </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H12" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="45"/>
-    </row>
-    <row r="13" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="47" t="s">
-        <v>495</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>496</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>478</v>
-      </c>
-      <c r="D13" s="37">
-        <v>20</v>
-      </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="45"/>
-    </row>
-    <row r="14" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>470</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>478</v>
-      </c>
-      <c r="D14" s="37">
-        <v>30</v>
-      </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="45"/>
-    </row>
-    <row r="15" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="B15" s="48" t="s">
+      <c r="E16" s="35"/>
+      <c r="F16" s="42" t="s">
         <v>480</v>
       </c>
-      <c r="C15" s="37" t="s">
-        <v>476</v>
-      </c>
-      <c r="D15" s="37">
-        <v>19</v>
-      </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="40" t="s">
-        <v>481</v>
-      </c>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="45"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="O2:O15"/>
-    <mergeCell ref="F14:J14"/>
+  <mergeCells count="4">
+    <mergeCell ref="O3:O16"/>
     <mergeCell ref="F15:J15"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -8133,10 +8126,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F2" sqref="F2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8163,736 +8156,730 @@
       <c r="A1" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>346</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="33" t="s">
         <v>360</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="33" t="s">
         <v>361</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="33" t="s">
         <v>362</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="33" t="s">
         <v>363</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="33" t="s">
         <v>364</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="33" t="s">
         <v>365</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="33" t="s">
         <v>366</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="35" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:15" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>504</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="D2" s="35">
+        <v>19</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>481</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>505</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+    </row>
+    <row r="3" spans="1:15" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B3" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C3" s="35" t="s">
         <v>345</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D3" s="35">
         <v>10</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37" t="s">
+      <c r="E3" s="35"/>
+      <c r="F3" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G3" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H3" s="35" t="s">
         <v>438</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="I3" s="35" t="s">
         <v>439</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="J3" s="35" t="s">
         <v>440</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="K3" s="35"/>
+      <c r="L3" s="35" t="s">
+        <v>476</v>
+      </c>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+    </row>
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>470</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="D4" s="35">
+        <v>20</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="J4" s="35" t="s">
         <v>441</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37" t="s">
+      <c r="K4" s="35"/>
+      <c r="L4" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+    </row>
+    <row r="5" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>422</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>477</v>
       </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="O2" s="37"/>
-    </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="37" t="s">
+      <c r="D5" s="35">
+        <v>20</v>
+      </c>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="K5" s="35"/>
+      <c r="L5" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+    </row>
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>471</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C6" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="D6" s="35">
+        <v>30</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+    </row>
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>426</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="D7" s="35">
+        <v>100</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>427</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+    </row>
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>472</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="D8" s="35">
+        <v>19</v>
+      </c>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+    </row>
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35" t="s">
+        <v>428</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>429</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="D9" s="35">
+        <v>19</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+    </row>
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>474</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="D10" s="35">
+        <v>200</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>448</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>449</v>
+      </c>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+    </row>
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="35" t="s">
+        <v>432</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>433</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="D11" s="35">
+        <v>19</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+    </row>
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>436</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="D12" s="35">
+        <v>200</v>
+      </c>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>449</v>
+      </c>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+    </row>
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="D13" s="35">
+        <v>250</v>
+      </c>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>451</v>
+      </c>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+    </row>
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="D14" s="35">
+        <v>50</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>452</v>
+      </c>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+    </row>
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>475</v>
+      </c>
+      <c r="D15" s="35">
+        <v>19</v>
+      </c>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+    </row>
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>475</v>
+      </c>
+      <c r="D16" s="35">
+        <v>19</v>
+      </c>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I16" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="J16" s="35" t="s">
+        <v>453</v>
+      </c>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+    </row>
+    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>475</v>
+      </c>
+      <c r="D17" s="35">
+        <v>19</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+    </row>
+    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>475</v>
+      </c>
+      <c r="D18" s="35">
+        <v>19</v>
+      </c>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="J18" s="35" t="s">
+        <v>455</v>
+      </c>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+    </row>
+    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="D19" s="35">
+        <v>20</v>
+      </c>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="J19" s="35" t="s">
+        <v>454</v>
+      </c>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+    </row>
+    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>469</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="D20" s="35">
+        <v>30</v>
+      </c>
+      <c r="E20" s="35"/>
+      <c r="F20" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+    </row>
+    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="35" t="s">
         <v>478</v>
       </c>
-      <c r="D3" s="37">
-        <v>20</v>
-      </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>440</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>442</v>
-      </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="39" t="s">
-        <v>443</v>
-      </c>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="O3" s="37"/>
-    </row>
-    <row r="4" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>423</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>478</v>
-      </c>
-      <c r="D4" s="37">
-        <v>20</v>
-      </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>440</v>
-      </c>
-      <c r="J4" s="37" t="s">
-        <v>442</v>
-      </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="39" t="s">
-        <v>444</v>
-      </c>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="O4" s="37"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="37" t="s">
-        <v>424</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>472</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>478</v>
-      </c>
-      <c r="D5" s="37">
-        <v>30</v>
-      </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>440</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>445</v>
-      </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="O5" s="37"/>
-    </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="37" t="s">
-        <v>426</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>427</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>478</v>
-      </c>
-      <c r="D6" s="37">
-        <v>100</v>
-      </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H6" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I6" s="37" t="s">
-        <v>428</v>
-      </c>
-      <c r="J6" s="37" t="s">
-        <v>446</v>
-      </c>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="O6" s="37"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>473</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>474</v>
-      </c>
-      <c r="D7" s="37">
+      <c r="B21" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>475</v>
+      </c>
+      <c r="D21" s="35">
         <v>19</v>
       </c>
-      <c r="E7" s="37" t="s">
-        <v>482</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H7" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I7" s="37" t="s">
-        <v>440</v>
-      </c>
-      <c r="J7" s="37" t="s">
-        <v>447</v>
-      </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="O7" s="37"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="37" t="s">
-        <v>429</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>430</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>474</v>
-      </c>
-      <c r="D8" s="37">
-        <v>19</v>
-      </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>440</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>448</v>
-      </c>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="O8" s="37"/>
-    </row>
-    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="37" t="s">
-        <v>431</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>475</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>478</v>
-      </c>
-      <c r="D9" s="37">
-        <v>200</v>
-      </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H9" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I9" s="37" t="s">
-        <v>449</v>
-      </c>
-      <c r="J9" s="37" t="s">
-        <v>450</v>
-      </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="O9" s="37"/>
-    </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="37" t="s">
-        <v>433</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>434</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>474</v>
-      </c>
-      <c r="D10" s="37">
-        <v>19</v>
-      </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I10" s="37" t="s">
-        <v>435</v>
-      </c>
-      <c r="J10" s="37" t="s">
-        <v>451</v>
-      </c>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="O10" s="37"/>
-    </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="37" t="s">
-        <v>436</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>437</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>478</v>
-      </c>
-      <c r="D11" s="37">
-        <v>200</v>
-      </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>435</v>
-      </c>
-      <c r="J11" s="37" t="s">
-        <v>450</v>
-      </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="O11" s="37"/>
-    </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>478</v>
-      </c>
-      <c r="D12" s="37">
-        <v>250</v>
-      </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H12" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I12" s="37" t="s">
-        <v>440</v>
-      </c>
-      <c r="J12" s="37" t="s">
-        <v>452</v>
-      </c>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="O12" s="37"/>
-    </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>478</v>
-      </c>
-      <c r="D13" s="37">
-        <v>50</v>
-      </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I13" s="37" t="s">
-        <v>440</v>
-      </c>
-      <c r="J13" s="37" t="s">
-        <v>453</v>
-      </c>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="O13" s="37"/>
-    </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>476</v>
-      </c>
-      <c r="D14" s="37">
-        <v>19</v>
-      </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H14" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I14" s="37" t="s">
-        <v>440</v>
-      </c>
-      <c r="J14" s="37" t="s">
-        <v>441</v>
-      </c>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="O14" s="37"/>
-    </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>476</v>
-      </c>
-      <c r="D15" s="37">
-        <v>19</v>
-      </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H15" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I15" s="37" t="s">
-        <v>440</v>
-      </c>
-      <c r="J15" s="37" t="s">
-        <v>454</v>
-      </c>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="O15" s="37"/>
-    </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>476</v>
-      </c>
-      <c r="D16" s="37">
-        <v>19</v>
-      </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H16" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I16" s="37" t="s">
-        <v>440</v>
-      </c>
-      <c r="J16" s="37" t="s">
-        <v>441</v>
-      </c>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="O16" s="37"/>
-    </row>
-    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>476</v>
-      </c>
-      <c r="D17" s="37">
-        <v>19</v>
-      </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H17" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I17" s="37" t="s">
-        <v>440</v>
-      </c>
-      <c r="J17" s="37" t="s">
-        <v>456</v>
-      </c>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="O17" s="37"/>
-    </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>478</v>
-      </c>
-      <c r="D18" s="37">
-        <v>20</v>
-      </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H18" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I18" s="37" t="s">
-        <v>440</v>
-      </c>
-      <c r="J18" s="37" t="s">
-        <v>455</v>
-      </c>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="O18" s="37"/>
-    </row>
-    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>470</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>478</v>
-      </c>
-      <c r="D19" s="37">
-        <v>30</v>
-      </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-    </row>
-    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="37" t="s">
-        <v>479</v>
-      </c>
-      <c r="B20" s="37" t="s">
+      <c r="E21" s="35"/>
+      <c r="F21" s="42" t="s">
         <v>480</v>
       </c>
-      <c r="C20" s="37" t="s">
-        <v>476</v>
-      </c>
-      <c r="D20" s="37">
-        <v>19</v>
-      </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="40" t="s">
-        <v>481</v>
-      </c>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="42"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F19:J19"/>
+  <mergeCells count="3">
     <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -8900,10 +8887,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA049C64-FDE3-4EE7-B0ED-E66E2C366047}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8930,792 +8917,786 @@
       <c r="A1" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>346</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="33" t="s">
         <v>360</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="33" t="s">
         <v>361</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="33" t="s">
         <v>362</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="33" t="s">
         <v>363</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="33" t="s">
         <v>364</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="33" t="s">
         <v>365</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="33" t="s">
         <v>366</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="35" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:15" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>504</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="D2" s="35">
+        <v>19</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>481</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>505</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+    </row>
+    <row r="3" spans="1:15" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B3" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C3" s="35" t="s">
         <v>345</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D3" s="35">
         <v>10</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37" t="s">
+      <c r="E3" s="35"/>
+      <c r="F3" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G3" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H3" s="35" t="s">
         <v>438</v>
       </c>
-      <c r="H2" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I2" s="37" t="s">
+      <c r="I3" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="J3" s="35" t="s">
         <v>457</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="K3" s="35"/>
+      <c r="L3" s="35" t="s">
+        <v>476</v>
+      </c>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+    </row>
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="D4" s="35">
+        <v>20</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="K4" s="35"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+    </row>
+    <row r="5" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>422</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="D5" s="35">
+        <v>20</v>
+      </c>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="K5" s="35"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+    </row>
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>424</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="D6" s="35">
+        <v>30</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+    </row>
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="D7" s="35">
+        <v>100</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>427</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+    </row>
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="36" t="s">
         <v>458</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37" t="s">
+      <c r="C8" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="D8" s="35">
+        <v>19</v>
+      </c>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+    </row>
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35" t="s">
+        <v>428</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="D9" s="35">
+        <v>19</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+    </row>
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="C10" s="35" t="s">
         <v>477</v>
       </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="O2" s="37"/>
-    </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="C3" s="37" t="s">
+      <c r="D10" s="35">
+        <v>200</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>448</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>449</v>
+      </c>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+    </row>
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="35" t="s">
+        <v>432</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="D11" s="35">
+        <v>19</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+    </row>
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>436</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="D12" s="35">
+        <v>200</v>
+      </c>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>449</v>
+      </c>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+    </row>
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="D13" s="35">
+        <v>250</v>
+      </c>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+    </row>
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="D14" s="35">
+        <v>50</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>468</v>
+      </c>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+    </row>
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>475</v>
+      </c>
+      <c r="D15" s="35">
+        <v>19</v>
+      </c>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>457</v>
+      </c>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+    </row>
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>475</v>
+      </c>
+      <c r="D16" s="35">
+        <v>19</v>
+      </c>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I16" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="J16" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+    </row>
+    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>475</v>
+      </c>
+      <c r="D17" s="35">
+        <v>19</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+    </row>
+    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>475</v>
+      </c>
+      <c r="D18" s="35">
+        <v>19</v>
+      </c>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="J18" s="35" t="s">
+        <v>462</v>
+      </c>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+    </row>
+    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="35" t="s">
+        <v>460</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>466</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>475</v>
+      </c>
+      <c r="D19" s="35">
+        <v>19</v>
+      </c>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="J19" s="35" t="s">
+        <v>463</v>
+      </c>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+    </row>
+    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="35" t="s">
+        <v>461</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>467</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>475</v>
+      </c>
+      <c r="D20" s="35">
+        <v>19</v>
+      </c>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I20" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="J20" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+    </row>
+    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="D21" s="35">
+        <v>20</v>
+      </c>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H21" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I21" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="J21" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+    </row>
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>469</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="D22" s="35">
+        <v>30</v>
+      </c>
+      <c r="E22" s="35"/>
+      <c r="F22" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+    </row>
+    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="35" t="s">
         <v>478</v>
       </c>
-      <c r="D3" s="37">
-        <v>20</v>
-      </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>457</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>442</v>
-      </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="O3" s="37"/>
-    </row>
-    <row r="4" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>423</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>478</v>
-      </c>
-      <c r="D4" s="37">
-        <v>20</v>
-      </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>457</v>
-      </c>
-      <c r="J4" s="37" t="s">
-        <v>442</v>
-      </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="O4" s="37"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="37" t="s">
-        <v>424</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>425</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>478</v>
-      </c>
-      <c r="D5" s="37">
-        <v>30</v>
-      </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>457</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>445</v>
-      </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="O5" s="37"/>
-    </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="37" t="s">
-        <v>426</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>427</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>478</v>
-      </c>
-      <c r="D6" s="37">
-        <v>100</v>
-      </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H6" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I6" s="37" t="s">
-        <v>428</v>
-      </c>
-      <c r="J6" s="37" t="s">
-        <v>446</v>
-      </c>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="O6" s="37"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>459</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>474</v>
-      </c>
-      <c r="D7" s="37">
+      <c r="B23" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>475</v>
+      </c>
+      <c r="D23" s="35">
         <v>19</v>
       </c>
-      <c r="E7" s="37" t="s">
-        <v>482</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H7" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I7" s="37" t="s">
-        <v>457</v>
-      </c>
-      <c r="J7" s="37" t="s">
-        <v>447</v>
-      </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="O7" s="37"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="37" t="s">
-        <v>429</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>430</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>474</v>
-      </c>
-      <c r="D8" s="37">
-        <v>19</v>
-      </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>457</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>448</v>
-      </c>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="O8" s="37"/>
-    </row>
-    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="37" t="s">
-        <v>431</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>432</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>478</v>
-      </c>
-      <c r="D9" s="37">
-        <v>200</v>
-      </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H9" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I9" s="37" t="s">
-        <v>449</v>
-      </c>
-      <c r="J9" s="37" t="s">
-        <v>450</v>
-      </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="O9" s="37"/>
-    </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="37" t="s">
-        <v>433</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>434</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>474</v>
-      </c>
-      <c r="D10" s="37">
-        <v>19</v>
-      </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I10" s="37" t="s">
-        <v>435</v>
-      </c>
-      <c r="J10" s="37" t="s">
-        <v>451</v>
-      </c>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="O10" s="37"/>
-    </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="37" t="s">
-        <v>436</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>437</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>478</v>
-      </c>
-      <c r="D11" s="37">
-        <v>200</v>
-      </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>435</v>
-      </c>
-      <c r="J11" s="37" t="s">
-        <v>450</v>
-      </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="O11" s="37"/>
-    </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>478</v>
-      </c>
-      <c r="D12" s="37">
-        <v>250</v>
-      </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="O12" s="37"/>
-    </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>478</v>
-      </c>
-      <c r="D13" s="37">
-        <v>50</v>
-      </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I13" s="37" t="s">
-        <v>457</v>
-      </c>
-      <c r="J13" s="37" t="s">
-        <v>469</v>
-      </c>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="O13" s="37"/>
-    </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>476</v>
-      </c>
-      <c r="D14" s="37">
-        <v>19</v>
-      </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H14" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I14" s="37" t="s">
-        <v>457</v>
-      </c>
-      <c r="J14" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="O14" s="37"/>
-    </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>476</v>
-      </c>
-      <c r="D15" s="37">
-        <v>19</v>
-      </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H15" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I15" s="37" t="s">
-        <v>457</v>
-      </c>
-      <c r="J15" s="37" t="s">
-        <v>460</v>
-      </c>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="O15" s="37"/>
-    </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>476</v>
-      </c>
-      <c r="D16" s="37">
-        <v>19</v>
-      </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H16" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I16" s="37" t="s">
-        <v>457</v>
-      </c>
-      <c r="J16" s="37" t="s">
-        <v>460</v>
-      </c>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="O16" s="37"/>
-    </row>
-    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>476</v>
-      </c>
-      <c r="D17" s="37">
-        <v>19</v>
-      </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H17" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I17" s="37" t="s">
-        <v>457</v>
-      </c>
-      <c r="J17" s="37" t="s">
-        <v>463</v>
-      </c>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="O17" s="37"/>
-    </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="37" t="s">
-        <v>461</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>467</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>476</v>
-      </c>
-      <c r="D18" s="37">
-        <v>19</v>
-      </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H18" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I18" s="37" t="s">
-        <v>457</v>
-      </c>
-      <c r="J18" s="37" t="s">
-        <v>464</v>
-      </c>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-    </row>
-    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="37" t="s">
-        <v>462</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>468</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>476</v>
-      </c>
-      <c r="D19" s="37">
-        <v>19</v>
-      </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H19" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I19" s="37" t="s">
-        <v>457</v>
-      </c>
-      <c r="J19" s="37" t="s">
-        <v>465</v>
-      </c>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-    </row>
-    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>478</v>
-      </c>
-      <c r="D20" s="37">
-        <v>20</v>
-      </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="H20" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="I20" s="37" t="s">
-        <v>457</v>
-      </c>
-      <c r="J20" s="37" t="s">
-        <v>466</v>
-      </c>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="O20" s="37"/>
-    </row>
-    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>470</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>478</v>
-      </c>
-      <c r="D21" s="37">
-        <v>30</v>
-      </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-    </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="37" t="s">
-        <v>479</v>
-      </c>
-      <c r="B22" s="37" t="s">
+      <c r="E23" s="35"/>
+      <c r="F23" s="42" t="s">
         <v>480</v>
       </c>
-      <c r="C22" s="37" t="s">
-        <v>476</v>
-      </c>
-      <c r="D22" s="37">
-        <v>19</v>
-      </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="40" t="s">
-        <v>481</v>
-      </c>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="42"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F21:J21"/>
+  <mergeCells count="3">
     <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -9852,17 +9833,17 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="45" t="s">
         <v>402</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -10296,17 +10277,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="45" t="s">
         <v>402</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -10669,17 +10650,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="45" t="s">
         <v>402</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
     </row>
     <row r="4" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -11439,17 +11420,17 @@
       <c r="P3" s="16"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="45" t="s">
         <v>402</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">

--- a/Documentos/Mapeamento das Fontes de Dados/OLOS/MAPEAMENTO_OLOS.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/OLOS/MAPEAMENTO_OLOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\OLOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22030B00-64FE-468C-BF16-B0D4D53FE8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576DA49C-433E-429F-84EE-F96B8FAD1D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="766" firstSheet="2" activeTab="15" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="766" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="DEXPARA" sheetId="6" state="hidden" r:id="rId11"/>
     <sheet name="ACORDOS" sheetId="7" state="hidden" r:id="rId12"/>
     <sheet name="PAGAMENTOS" sheetId="8" state="hidden" r:id="rId13"/>
-    <sheet name="TEMPOS" sheetId="4" state="hidden" r:id="rId14"/>
+    <sheet name="TEMPOS" sheetId="4" r:id="rId14"/>
     <sheet name="PAUSAS" sheetId="13" state="hidden" r:id="rId15"/>
     <sheet name="PESQUISA_SATISFACAO" sheetId="5" r:id="rId16"/>
     <sheet name="DEADLINE" sheetId="19" state="hidden" r:id="rId17"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2137" uniqueCount="511">
   <si>
     <t>CPF</t>
   </si>
@@ -1592,6 +1592,149 @@
   </si>
   <si>
     <t>IDENTITY</t>
+  </si>
+  <si>
+    <t>SELECT
+    CAST(A.CallStart AS DATE) AS DATA,
+    CASE
+        WHEN CHARINDEX('&lt;NUMERO_CONTRATO&gt;', A.CampaignData) &gt; 0 THEN 
+            SUBSTRING(
+                A.CampaignData,
+                CHARINDEX('&lt;NUMERO_CONTRATO&gt;', A.CampaignData) + LEN('&lt;NUMERO_CONTRATO&gt;'),
+                CASE 
+                    WHEN CHARINDEX('&lt;/NUMERO_CONTRATO&gt;', A.CampaignData) &gt; 0 THEN 
+                        CHARINDEX('&lt;/NUMERO_CONTRATO&gt;', A.CampaignData) - 
+                        (CHARINDEX('&lt;NUMERO_CONTRATO&gt;', A.CampaignData) + LEN('&lt;NUMERO_CONTRATO&gt;'))
+                    ELSE 
+                        LEN(A.CampaignData)
+                END
+            )
+        ELSE NULL 
+    END AS ID_KEY,
+    CASE
+        WHEN CHARINDEX('&lt;CPF_CNPJ&gt;', A.CampaignData) &gt; 0 THEN 
+            SUBSTRING(
+                A.CampaignData,
+                CHARINDEX('&lt;CPF_CNPJ&gt;', A.CampaignData) + LEN('&lt;CPF_CNPJ&gt;'),
+                CASE 
+                    WHEN CHARINDEX('&lt;/CPF_CNPJ&gt;', A.CampaignData) &gt; 0 THEN 
+                        CHARINDEX('&lt;/CPF_CNPJ&gt;', A.CampaignData) - 
+                        (CHARINDEX('&lt;CPF_CNPJ&gt;', A.CampaignData) + LEN('&lt;CPF_CNPJ&gt;'))
+                    ELSE 
+                        LEN(A.CampaignData)
+                END
+            )
+        WHEN CHARINDEX('&lt;CPFCNPJ&gt;', A.CampaignData) &gt; 0 THEN 
+            SUBSTRING(
+                A.CampaignData,
+                CHARINDEX('&lt;CPFCNPJ&gt;', A.CampaignData) + LEN('&lt;CPFCNPJ&gt;'),
+                CASE 
+                    WHEN CHARINDEX('&lt;/CPFCNPJ&gt;', A.CampaignData) &gt; 0 THEN 
+                        CHARINDEX('&lt;/CPFCNPJ&gt;', A.CampaignData) - 
+                        (CHARINDEX('&lt;CPFCNPJ&gt;', A.CampaignData) + LEN('&lt;CPFCNPJ&gt;'))
+                    ELSE 
+                        LEN(A.CampaignData)
+                END
+            )
+        ELSE NULL 
+    END AS CPF,
+    A.Agentld AS ID_AGENTE,
+    B.Login AS AGENTE,
+    A.Callld AS CALL_ID,
+    A.Campaignld AS ID_CAMPANHA,
+    C.Description AS NOME_CAMPANHA,
+    A.Dispositionld AS ID_TABULACAO,
+    D.Description AS NOME_TABULACAO,
+    '' AS MAILING,
+    A.Dnis AS ROTA,
+    A.CallStart AS INICIO_CHAMADA,
+    A.CallEnd AS FIM_CHAMADA,
+    A.CallEnd AS INICIO_POS,
+    A.WrapEnd AS FIM_POS,
+    A.QueueStart AS INICIO_FILA,
+    A.QueueEnd AS FIM_FILA,
+    A.Ani AS TELEFONE,
+    'OLOS' AS ORIGEM
+FROM InboundRawData A
+LEFT JOIN Users B WITH (NOLOCK) ON A.Agentld = B.Agentld
+LEFT JOIN Campaign C WITH (NOLOCK) ON A.Campaignld = C.Campaignld
+LEFT JOIN Disposition D WITH (NOLOCK) ON A.Dispositionld = D.DispositionId</t>
+  </si>
+  <si>
+    <t>HOST (IP) DO BANCO ORIGEM</t>
+  </si>
+  <si>
+    <t>BANCO</t>
+  </si>
+  <si>
+    <t>NOME DO BANCO DE DADOS ORIGEM</t>
+  </si>
+  <si>
+    <t>SELECT TOP 5
+    CAST(A.StartDate AS DATE) AS DATA,
+     CASE
+        WHEN CHARINDEX('&lt;NUMERO_CONTRATO&gt;', A.CampaignData) &gt; 0 THEN 
+            SUBSTRING(
+                A.CampaignData,
+                CHARINDEX('&lt;NUMERO_CONTRATO&gt;', A.CampaignData) + LEN('&lt;NUMERO_CONTRATO&gt;'),
+                CASE 
+                    WHEN CHARINDEX('&lt;/NUMERO_CONTRATO&gt;', A.CampaignData) &gt; 0 THEN 
+                        CHARINDEX('&lt;/NUMERO_CONTRATO&gt;', A.CampaignData) - 
+                        (CHARINDEX('&lt;NUMERO_CONTRATO&gt;', A.CampaignData) + LEN('&lt;NUMERO_CONTRATO&gt;'))
+                    ELSE 
+                        LEN(A.CampaignData)
+                END
+            )
+        ELSE NULL 
+    END AS ID_KEY,
+    CASE
+        WHEN CHARINDEX('&lt;CPF_CNPJ&gt;', A.CampaignData) &gt; 0 THEN 
+            SUBSTRING(
+                A.CampaignData,
+                CHARINDEX('&lt;CPF_CNPJ&gt;', A.CampaignData) + LEN('&lt;CPF_CNPJ&gt;'),
+                CASE 
+                    WHEN CHARINDEX('&lt;/CPF_CNPJ&gt;', A.CampaignData) &gt; 0 THEN 
+                        CHARINDEX('&lt;/CPF_CNPJ&gt;', A.CampaignData) - 
+                        (CHARINDEX('&lt;CPF_CNPJ&gt;', A.CampaignData) + LEN('&lt;CPF_CNPJ&gt;'))
+                    ELSE 
+                        LEN(A.CampaignData)
+                END
+            )
+        WHEN CHARINDEX('&lt;CPFCNPJ&gt;', A.CampaignData) &gt; 0 THEN 
+            SUBSTRING(
+                A.CampaignData,
+                CHARINDEX('&lt;CPFCNPJ&gt;', A.CampaignData) + LEN('&lt;CPFCNPJ&gt;'),
+                CASE 
+                    WHEN CHARINDEX('&lt;/CPFCNPJ&gt;', A.CampaignData) &gt; 0 THEN 
+                        CHARINDEX('&lt;/CPFCNPJ&gt;', A.CampaignData) - 
+                        (CHARINDEX('&lt;CPFCNPJ&gt;', A.CampaignData) + LEN('&lt;CPFCNPJ&gt;'))
+                    ELSE 
+                        LEN(A.CampaignData)
+                END
+            )
+        ELSE NULL 
+    END AS CPF,
+    A.Agentld AS ID_AGENTE,
+    B.Login AS AGENTE,
+    A.CallId AS CALL_ID,
+    A.Campaignld AS ID_CAMPANHA,
+    C.Description AS NOME_CAMPANHA,
+    A.Dispositionld AS ID_TABULACAO,
+    D.Description AS NOME_TABULACAO,
+    A.TableName AS MAILING,
+    A.Route AS ROTA,
+    A.StartDate AS INICIO_CHAMADA,
+    A.EndCall AS FIM_CHAMADA,
+    A.StartDate AS INICIO_POS,
+    A.EndWrap AS FIM_POS,
+    A.OriginalPhoneNumber AS TELEFONE,
+    '10.10.220.101' AS INSTANCIA,
+    'RPL_OLOS' AS BANCO,
+    'OLOS' AS ORIGEM
+FROM AttemptsRawData A
+LEFT JOIN Users B WITH (NOLOCK) ON A.Agentld = B.Agentld
+LEFT JOIN Campaign C WITH (NOLOCK) ON A.Campaignld = C.Campaignld
+LEFT JOIN Disposition D WITH (NOLOCK) ON A.Dispositionld = D.DispositionId</t>
   </si>
 </sst>
 </file>
@@ -1771,7 +1914,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1943,12 +2086,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2086,6 +2240,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4984,7 +5141,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3224E281-B9C3-43DE-9C24-CA7016DDAC13}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5652,7 +5811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7920C411-EA90-40BF-87D0-8A7E5345C20C}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -8126,33 +8285,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:J2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="126.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="92.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="42.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="54.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="59.109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.77734375" style="1"/>
+    <col min="13" max="13" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
         <v>186</v>
       </c>
@@ -8189,17 +8346,11 @@
       <c r="L1" s="33" t="s">
         <v>366</v>
       </c>
-      <c r="M1" s="34" t="s">
-        <v>367</v>
-      </c>
-      <c r="N1" s="34" t="s">
-        <v>368</v>
-      </c>
-      <c r="O1" s="35" t="s">
+      <c r="M1" s="35" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>503</v>
       </c>
@@ -8224,11 +8375,11 @@
       <c r="J2" s="44"/>
       <c r="K2" s="35"/>
       <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-    </row>
-    <row r="3" spans="1:15" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M2" s="47" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
         <v>29</v>
       </c>
@@ -8261,11 +8412,9 @@
       <c r="L3" s="35" t="s">
         <v>476</v>
       </c>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M3" s="46"/>
+    </row>
+    <row r="4" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
         <v>46</v>
       </c>
@@ -8298,11 +8447,9 @@
       <c r="L4" s="37" t="s">
         <v>442</v>
       </c>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-    </row>
-    <row r="5" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M4" s="46"/>
+    </row>
+    <row r="5" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
         <v>0</v>
       </c>
@@ -8335,11 +8482,9 @@
       <c r="L5" s="37" t="s">
         <v>443</v>
       </c>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-    </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M5" s="46"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
         <v>423</v>
       </c>
@@ -8370,11 +8515,9 @@
       </c>
       <c r="K6" s="35"/>
       <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M6" s="46"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="35" t="s">
         <v>425</v>
       </c>
@@ -8405,11 +8548,9 @@
       </c>
       <c r="K7" s="35"/>
       <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M7" s="46"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="35" t="s">
         <v>215</v>
       </c>
@@ -8440,11 +8581,9 @@
       </c>
       <c r="K8" s="35"/>
       <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-    </row>
-    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M8" s="46"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
         <v>428</v>
       </c>
@@ -8475,11 +8614,9 @@
       </c>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-    </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M9" s="46"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="35" t="s">
         <v>430</v>
       </c>
@@ -8510,11 +8647,9 @@
       </c>
       <c r="K10" s="35"/>
       <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-    </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M10" s="46"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="35" t="s">
         <v>432</v>
       </c>
@@ -8538,18 +8673,16 @@
         <v>438</v>
       </c>
       <c r="I11" s="35" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="J11" s="35" t="s">
         <v>450</v>
       </c>
       <c r="K11" s="35"/>
       <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-    </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M11" s="46"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="35" t="s">
         <v>435</v>
       </c>
@@ -8580,11 +8713,9 @@
       </c>
       <c r="K12" s="35"/>
       <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-    </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M12" s="46"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="35" t="s">
         <v>43</v>
       </c>
@@ -8615,11 +8746,9 @@
       </c>
       <c r="K13" s="35"/>
       <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-    </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M13" s="46"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="35" t="s">
         <v>44</v>
       </c>
@@ -8650,11 +8779,9 @@
       </c>
       <c r="K14" s="35"/>
       <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-    </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M14" s="46"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="35" t="s">
         <v>47</v>
       </c>
@@ -8685,11 +8812,9 @@
       </c>
       <c r="K15" s="35"/>
       <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-    </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M15" s="46"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="35" t="s">
         <v>48</v>
       </c>
@@ -8720,11 +8845,9 @@
       </c>
       <c r="K16" s="35"/>
       <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-    </row>
-    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M16" s="46"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="35" t="s">
         <v>55</v>
       </c>
@@ -8755,11 +8878,9 @@
       </c>
       <c r="K17" s="35"/>
       <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-    </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M17" s="46"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="35" t="s">
         <v>56</v>
       </c>
@@ -8790,11 +8911,9 @@
       </c>
       <c r="K18" s="35"/>
       <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-    </row>
-    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M18" s="46"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="35" t="s">
         <v>12</v>
       </c>
@@ -8825,26 +8944,24 @@
       </c>
       <c r="K19" s="35"/>
       <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-    </row>
-    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M19" s="46"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="35" t="s">
-        <v>109</v>
+        <v>361</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>469</v>
+        <v>507</v>
       </c>
       <c r="C20" s="35" t="s">
         <v>477</v>
       </c>
       <c r="D20" s="35">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E20" s="35"/>
       <c r="F20" s="42" t="s">
-        <v>92</v>
+        <v>437</v>
       </c>
       <c r="G20" s="43"/>
       <c r="H20" s="43"/>
@@ -8852,34 +8969,90 @@
       <c r="J20" s="44"/>
       <c r="K20" s="35"/>
       <c r="L20" s="35"/>
-    </row>
-    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M20" s="46"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="35" t="s">
-        <v>478</v>
+        <v>508</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>479</v>
+        <v>509</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D21" s="35">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E21" s="35"/>
       <c r="F21" s="42" t="s">
-        <v>480</v>
+        <v>438</v>
       </c>
       <c r="G21" s="43"/>
       <c r="H21" s="43"/>
       <c r="I21" s="43"/>
       <c r="J21" s="44"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="46"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>469</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="D22" s="35">
+        <v>30</v>
+      </c>
+      <c r="E22" s="35"/>
+      <c r="F22" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="46"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="35" t="s">
+        <v>478</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>475</v>
+      </c>
+      <c r="D23" s="35">
+        <v>19</v>
+      </c>
+      <c r="E23" s="35"/>
+      <c r="F23" s="42" t="s">
+        <v>480</v>
+      </c>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="M2:M22"/>
     <mergeCell ref="F20:J20"/>
     <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -8887,10 +9060,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA049C64-FDE3-4EE7-B0ED-E66E2C366047}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8907,13 +9080,11 @@
     <col min="10" max="10" width="21.44140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="42.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="54.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="59.109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.77734375" style="1"/>
+    <col min="13" max="13" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
         <v>186</v>
       </c>
@@ -8950,17 +9121,11 @@
       <c r="L1" s="33" t="s">
         <v>366</v>
       </c>
-      <c r="M1" s="34" t="s">
-        <v>367</v>
-      </c>
-      <c r="N1" s="34" t="s">
-        <v>368</v>
-      </c>
-      <c r="O1" s="35" t="s">
+      <c r="M1" s="35" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>503</v>
       </c>
@@ -8985,11 +9150,11 @@
       <c r="J2" s="44"/>
       <c r="K2" s="35"/>
       <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-    </row>
-    <row r="3" spans="1:15" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M2" s="47" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
         <v>29</v>
       </c>
@@ -9022,11 +9187,9 @@
       <c r="L3" s="35" t="s">
         <v>476</v>
       </c>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M3" s="46"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
         <v>46</v>
       </c>
@@ -9057,11 +9220,9 @@
       </c>
       <c r="K4" s="35"/>
       <c r="L4" s="37"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-    </row>
-    <row r="5" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M4" s="46"/>
+    </row>
+    <row r="5" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
         <v>0</v>
       </c>
@@ -9092,11 +9253,9 @@
       </c>
       <c r="K5" s="35"/>
       <c r="L5" s="37"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-    </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M5" s="46"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
         <v>423</v>
       </c>
@@ -9127,11 +9286,9 @@
       </c>
       <c r="K6" s="35"/>
       <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M6" s="46"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="35" t="s">
         <v>425</v>
       </c>
@@ -9162,11 +9319,9 @@
       </c>
       <c r="K7" s="35"/>
       <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M7" s="46"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="35" t="s">
         <v>215</v>
       </c>
@@ -9197,11 +9352,9 @@
       </c>
       <c r="K8" s="35"/>
       <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-    </row>
-    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M8" s="46"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
         <v>428</v>
       </c>
@@ -9232,11 +9385,9 @@
       </c>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-    </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M9" s="46"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="35" t="s">
         <v>430</v>
       </c>
@@ -9267,11 +9418,9 @@
       </c>
       <c r="K10" s="35"/>
       <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-    </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M10" s="46"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="35" t="s">
         <v>432</v>
       </c>
@@ -9295,18 +9444,16 @@
         <v>438</v>
       </c>
       <c r="I11" s="35" t="s">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="J11" s="35" t="s">
         <v>450</v>
       </c>
       <c r="K11" s="35"/>
       <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-    </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M11" s="46"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="35" t="s">
         <v>435</v>
       </c>
@@ -9337,11 +9484,9 @@
       </c>
       <c r="K12" s="35"/>
       <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-    </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M12" s="46"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="35" t="s">
         <v>43</v>
       </c>
@@ -9362,11 +9507,9 @@
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
       <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-    </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M13" s="46"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="35" t="s">
         <v>44</v>
       </c>
@@ -9397,11 +9540,9 @@
       </c>
       <c r="K14" s="35"/>
       <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-    </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M14" s="46"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="35" t="s">
         <v>47</v>
       </c>
@@ -9432,11 +9573,9 @@
       </c>
       <c r="K15" s="35"/>
       <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-    </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M15" s="46"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="35" t="s">
         <v>48</v>
       </c>
@@ -9467,11 +9606,9 @@
       </c>
       <c r="K16" s="35"/>
       <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-    </row>
-    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M16" s="46"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="35" t="s">
         <v>55</v>
       </c>
@@ -9502,11 +9639,9 @@
       </c>
       <c r="K17" s="35"/>
       <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-    </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M17" s="46"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="35" t="s">
         <v>56</v>
       </c>
@@ -9537,11 +9672,9 @@
       </c>
       <c r="K18" s="35"/>
       <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-    </row>
-    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M18" s="46"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="35" t="s">
         <v>460</v>
       </c>
@@ -9572,11 +9705,9 @@
       </c>
       <c r="K19" s="35"/>
       <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-    </row>
-    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M19" s="46"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="35" t="s">
         <v>461</v>
       </c>
@@ -9607,11 +9738,9 @@
       </c>
       <c r="K20" s="35"/>
       <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-    </row>
-    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M20" s="46"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="35" t="s">
         <v>12</v>
       </c>
@@ -9642,11 +9771,9 @@
       </c>
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-    </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M21" s="46"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="35" t="s">
         <v>109</v>
       </c>
@@ -9669,8 +9796,9 @@
       <c r="J22" s="44"/>
       <c r="K22" s="35"/>
       <c r="L22" s="35"/>
-    </row>
-    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M22" s="46"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="35" t="s">
         <v>478</v>
       </c>
@@ -9692,11 +9820,18 @@
       <c r="I23" s="43"/>
       <c r="J23" s="44"/>
     </row>
+    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I28" s="35" t="s">
+        <v>456</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="F22:J22"/>
     <mergeCell ref="F23:J23"/>
     <mergeCell ref="F2:J2"/>
+    <mergeCell ref="M2:M22"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Documentos/Mapeamento das Fontes de Dados/OLOS/MAPEAMENTO_OLOS.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/OLOS/MAPEAMENTO_OLOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\OLOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576DA49C-433E-429F-84EE-F96B8FAD1D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38ED0F51-3F8C-412A-A4BB-2CD3C0E81EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="766" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2137" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2137" uniqueCount="512">
   <si>
     <t>CPF</t>
   </si>
@@ -1672,45 +1672,51 @@
   <si>
     <t>SELECT TOP 5
     CAST(A.StartDate AS DATE) AS DATA,
-     CASE
+    CASE
         WHEN CHARINDEX('&lt;NUMERO_CONTRATO&gt;', A.CampaignData) &gt; 0 THEN 
-            SUBSTRING(
-                A.CampaignData,
-                CHARINDEX('&lt;NUMERO_CONTRATO&gt;', A.CampaignData) + LEN('&lt;NUMERO_CONTRATO&gt;'),
-                CASE 
-                    WHEN CHARINDEX('&lt;/NUMERO_CONTRATO&gt;', A.CampaignData) &gt; 0 THEN 
-                        CHARINDEX('&lt;/NUMERO_CONTRATO&gt;', A.CampaignData) - 
-                        (CHARINDEX('&lt;NUMERO_CONTRATO&gt;', A.CampaignData) + LEN('&lt;NUMERO_CONTRATO&gt;'))
-                    ELSE 
-                        LEN(A.CampaignData)
-                END
+            REPLACE(
+                SUBSTRING(
+                    A.CampaignData,
+                    CHARINDEX('&lt;NUMERO_CONTRATO&gt;', A.CampaignData) + LEN('&lt;NUMERO_CONTRATO&gt;'),
+                    CASE 
+                        WHEN CHARINDEX('&lt;/NUMERO_CONTRATO&gt;', A.CampaignData) &gt; 0 THEN 
+                            CHARINDEX('&lt;/NUMERO_CONTRATO&gt;', A.CampaignData) - 
+                            (CHARINDEX('&lt;NUMERO_CONTRATO&gt;', A.CampaignData) + LEN('&lt;NUMERO_CONTRATO&gt;'))
+                        ELSE 
+                            LEN(A.CampaignData)
+                    END
+                ), '.', ''
             )
         ELSE NULL 
     END AS ID_KEY,
     CASE
         WHEN CHARINDEX('&lt;CPF_CNPJ&gt;', A.CampaignData) &gt; 0 THEN 
-            SUBSTRING(
-                A.CampaignData,
-                CHARINDEX('&lt;CPF_CNPJ&gt;', A.CampaignData) + LEN('&lt;CPF_CNPJ&gt;'),
-                CASE 
-                    WHEN CHARINDEX('&lt;/CPF_CNPJ&gt;', A.CampaignData) &gt; 0 THEN 
-                        CHARINDEX('&lt;/CPF_CNPJ&gt;', A.CampaignData) - 
-                        (CHARINDEX('&lt;CPF_CNPJ&gt;', A.CampaignData) + LEN('&lt;CPF_CNPJ&gt;'))
-                    ELSE 
-                        LEN(A.CampaignData)
-                END
+            REPLACE(
+                SUBSTRING(
+                    A.CampaignData,
+                    CHARINDEX('&lt;CPF_CNPJ&gt;', A.CampaignData) + LEN('&lt;CPF_CNPJ&gt;'),
+                    CASE 
+                        WHEN CHARINDEX('&lt;/CPF_CNPJ&gt;', A.CampaignData) &gt; 0 THEN 
+                            CHARINDEX('&lt;/CPF_CNPJ&gt;', A.CampaignData) - 
+                            (CHARINDEX('&lt;CPF_CNPJ&gt;', A.CampaignData) + LEN('&lt;CPF_CNPJ&gt;'))
+                        ELSE 
+                            LEN(A.CampaignData)
+                    END
+                ), '.', ''
             )
         WHEN CHARINDEX('&lt;CPFCNPJ&gt;', A.CampaignData) &gt; 0 THEN 
-            SUBSTRING(
-                A.CampaignData,
-                CHARINDEX('&lt;CPFCNPJ&gt;', A.CampaignData) + LEN('&lt;CPFCNPJ&gt;'),
-                CASE 
-                    WHEN CHARINDEX('&lt;/CPFCNPJ&gt;', A.CampaignData) &gt; 0 THEN 
-                        CHARINDEX('&lt;/CPFCNPJ&gt;', A.CampaignData) - 
-                        (CHARINDEX('&lt;CPFCNPJ&gt;', A.CampaignData) + LEN('&lt;CPFCNPJ&gt;'))
-                    ELSE 
-                        LEN(A.CampaignData)
-                END
+            REPLACE(
+                SUBSTRING(
+                    A.CampaignData,
+                    CHARINDEX('&lt;CPFCNPJ&gt;', A.CampaignData) + LEN('&lt;CPFCNPJ&gt;'),
+                    CASE 
+                        WHEN CHARINDEX('&lt;/CPFCNPJ&gt;', A.CampaignData) &gt; 0 THEN 
+                            CHARINDEX('&lt;/CPFCNPJ&gt;', A.CampaignData) - 
+                            (CHARINDEX('&lt;CPFCNPJ&gt;', A.CampaignData) + LEN('&lt;CPFCNPJ&gt;'))
+                        ELSE 
+                            LEN(A.CampaignData)
+                    END
+                ), '.', ''
             )
         ELSE NULL 
     END AS CPF,
@@ -1735,6 +1741,9 @@
 LEFT JOIN Users B WITH (NOLOCK) ON A.Agentld = B.Agentld
 LEFT JOIN Campaign C WITH (NOLOCK) ON A.Campaignld = C.Campaignld
 LEFT JOIN Disposition D WITH (NOLOCK) ON A.Dispositionld = D.DispositionId</t>
+  </si>
+  <si>
+    <t>VARCHAR</t>
   </si>
 </sst>
 </file>
@@ -2236,14 +2245,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2930,17 +2939,17 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="47" t="s">
         <v>402</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
     </row>
     <row r="5" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -3730,17 +3739,17 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="47" t="s">
         <v>402</v>
       </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
     </row>
     <row r="4" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -4365,17 +4374,17 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="47" t="s">
         <v>402</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -4805,17 +4814,17 @@
       <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J4" s="45" t="s">
+      <c r="J4" s="47" t="s">
         <v>402</v>
       </c>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -8288,7 +8297,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8305,8 +8314,9 @@
     <col min="10" max="10" width="20.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="42.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.77734375" style="1"/>
+    <col min="13" max="13" width="73.44140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="30" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8375,7 +8385,7 @@
       <c r="J2" s="44"/>
       <c r="K2" s="35"/>
       <c r="L2" s="35"/>
-      <c r="M2" s="47" t="s">
+      <c r="M2" s="45" t="s">
         <v>510</v>
       </c>
     </row>
@@ -8422,7 +8432,7 @@
         <v>470</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>477</v>
+        <v>511</v>
       </c>
       <c r="D4" s="35">
         <v>20</v>
@@ -8457,7 +8467,7 @@
         <v>422</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>477</v>
+        <v>511</v>
       </c>
       <c r="D5" s="35">
         <v>20</v>
@@ -8495,7 +8505,7 @@
         <v>477</v>
       </c>
       <c r="D6" s="35">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E6" s="35"/>
       <c r="F6" s="35" t="s">
@@ -8528,7 +8538,7 @@
         <v>477</v>
       </c>
       <c r="D7" s="35">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="E7" s="35"/>
       <c r="F7" s="35" t="s">
@@ -8627,7 +8637,7 @@
         <v>477</v>
       </c>
       <c r="D10" s="35">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="E10" s="35"/>
       <c r="F10" s="35" t="s">
@@ -8693,7 +8703,7 @@
         <v>477</v>
       </c>
       <c r="D12" s="35">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E12" s="35"/>
       <c r="F12" s="35" t="s">
@@ -8723,10 +8733,10 @@
         <v>217</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>477</v>
+        <v>511</v>
       </c>
       <c r="D13" s="35">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E13" s="35"/>
       <c r="F13" s="35" t="s">
@@ -8756,10 +8766,10 @@
         <v>218</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>477</v>
+        <v>511</v>
       </c>
       <c r="D14" s="35">
-        <v>50</v>
+        <v>260</v>
       </c>
       <c r="E14" s="35"/>
       <c r="F14" s="35" t="s">
@@ -8921,10 +8931,10 @@
         <v>221</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>477</v>
+        <v>511</v>
       </c>
       <c r="D19" s="35">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E19" s="35"/>
       <c r="F19" s="35" t="s">
@@ -8954,7 +8964,7 @@
         <v>507</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>477</v>
+        <v>511</v>
       </c>
       <c r="D20" s="35">
         <v>20</v>
@@ -8979,7 +8989,7 @@
         <v>509</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>477</v>
+        <v>511</v>
       </c>
       <c r="D21" s="35">
         <v>20</v>
@@ -9004,7 +9014,7 @@
         <v>469</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>477</v>
+        <v>511</v>
       </c>
       <c r="D22" s="35">
         <v>30</v>
@@ -9150,7 +9160,7 @@
       <c r="J2" s="44"/>
       <c r="K2" s="35"/>
       <c r="L2" s="35"/>
-      <c r="M2" s="47" t="s">
+      <c r="M2" s="45" t="s">
         <v>506</v>
       </c>
     </row>
@@ -9968,17 +9978,17 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="47" t="s">
         <v>402</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -10412,17 +10422,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="47" t="s">
         <v>402</v>
       </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -10785,17 +10795,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="47" t="s">
         <v>402</v>
       </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
     </row>
     <row r="4" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -11555,17 +11565,17 @@
       <c r="P3" s="16"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="47" t="s">
         <v>402</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">

--- a/Documentos/Mapeamento das Fontes de Dados/OLOS/MAPEAMENTO_OLOS.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/OLOS/MAPEAMENTO_OLOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\OLOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38ED0F51-3F8C-412A-A4BB-2CD3C0E81EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB4406D-FDA7-4A4A-ABFF-A359816E1056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="766" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="766" firstSheet="2" activeTab="3" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2137" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="512">
   <si>
     <t>CPF</t>
   </si>
@@ -8296,8 +8296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9070,10 +9070,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA049C64-FDE3-4EE7-B0ED-E66E2C366047}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9207,7 +9207,7 @@
         <v>216</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>477</v>
+        <v>511</v>
       </c>
       <c r="D4" s="35">
         <v>20</v>
@@ -9240,7 +9240,7 @@
         <v>422</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>477</v>
+        <v>511</v>
       </c>
       <c r="D5" s="35">
         <v>20</v>
@@ -9276,7 +9276,7 @@
         <v>477</v>
       </c>
       <c r="D6" s="35">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E6" s="35"/>
       <c r="F6" s="35" t="s">
@@ -9309,7 +9309,7 @@
         <v>477</v>
       </c>
       <c r="D7" s="35">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="E7" s="35"/>
       <c r="F7" s="35" t="s">
@@ -9474,7 +9474,7 @@
         <v>477</v>
       </c>
       <c r="D12" s="35">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E12" s="35"/>
       <c r="F12" s="35" t="s">
@@ -9504,10 +9504,10 @@
         <v>217</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>477</v>
+        <v>511</v>
       </c>
       <c r="D13" s="35">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
@@ -9785,20 +9785,20 @@
     </row>
     <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="35" t="s">
-        <v>109</v>
+        <v>361</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>469</v>
+        <v>507</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>477</v>
+        <v>511</v>
       </c>
       <c r="D22" s="35">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E22" s="35"/>
       <c r="F22" s="42" t="s">
-        <v>92</v>
+        <v>437</v>
       </c>
       <c r="G22" s="43"/>
       <c r="H22" s="43"/>
@@ -9810,38 +9810,90 @@
     </row>
     <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="35" t="s">
-        <v>478</v>
+        <v>508</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>479</v>
+        <v>509</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>475</v>
+        <v>511</v>
       </c>
       <c r="D23" s="35">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E23" s="35"/>
       <c r="F23" s="42" t="s">
-        <v>480</v>
+        <v>438</v>
       </c>
       <c r="G23" s="43"/>
       <c r="H23" s="43"/>
       <c r="I23" s="43"/>
       <c r="J23" s="44"/>
-    </row>
-    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I28" s="35" t="s">
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="46"/>
+    </row>
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>469</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="D24" s="35">
+        <v>30</v>
+      </c>
+      <c r="E24" s="35"/>
+      <c r="F24" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="46"/>
+    </row>
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="35" t="s">
+        <v>478</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>475</v>
+      </c>
+      <c r="D25" s="35">
+        <v>19</v>
+      </c>
+      <c r="E25" s="35"/>
+      <c r="F25" s="42" t="s">
+        <v>480</v>
+      </c>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="44"/>
+    </row>
+    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I30" s="35" t="s">
         <v>456</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="M2:M24"/>
     <mergeCell ref="F22:J22"/>
     <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="M2:M22"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Documentos/Mapeamento das Fontes de Dados/OLOS/MAPEAMENTO_OLOS.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/OLOS/MAPEAMENTO_OLOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\OLOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB4406D-FDA7-4A4A-ABFF-A359816E1056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5773DEDC-8F93-41AC-AF32-06BEC7DB8CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="766" firstSheet="2" activeTab="3" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="766" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -26,9 +26,9 @@
     <sheet name="DEXPARA" sheetId="6" state="hidden" r:id="rId11"/>
     <sheet name="ACORDOS" sheetId="7" state="hidden" r:id="rId12"/>
     <sheet name="PAGAMENTOS" sheetId="8" state="hidden" r:id="rId13"/>
-    <sheet name="TEMPOS" sheetId="4" r:id="rId14"/>
-    <sheet name="PAUSAS" sheetId="13" state="hidden" r:id="rId15"/>
-    <sheet name="PESQUISA_SATISFACAO" sheetId="5" r:id="rId16"/>
+    <sheet name="PESQUISA_SATISFACAO" sheetId="5" r:id="rId14"/>
+    <sheet name="TEMPOS" sheetId="4" r:id="rId15"/>
+    <sheet name="PAUSAS" sheetId="13" state="hidden" r:id="rId16"/>
     <sheet name="DEADLINE" sheetId="19" state="hidden" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="512">
   <si>
     <t>CPF</t>
   </si>
@@ -1592,73 +1592,6 @@
   </si>
   <si>
     <t>IDENTITY</t>
-  </si>
-  <si>
-    <t>SELECT
-    CAST(A.CallStart AS DATE) AS DATA,
-    CASE
-        WHEN CHARINDEX('&lt;NUMERO_CONTRATO&gt;', A.CampaignData) &gt; 0 THEN 
-            SUBSTRING(
-                A.CampaignData,
-                CHARINDEX('&lt;NUMERO_CONTRATO&gt;', A.CampaignData) + LEN('&lt;NUMERO_CONTRATO&gt;'),
-                CASE 
-                    WHEN CHARINDEX('&lt;/NUMERO_CONTRATO&gt;', A.CampaignData) &gt; 0 THEN 
-                        CHARINDEX('&lt;/NUMERO_CONTRATO&gt;', A.CampaignData) - 
-                        (CHARINDEX('&lt;NUMERO_CONTRATO&gt;', A.CampaignData) + LEN('&lt;NUMERO_CONTRATO&gt;'))
-                    ELSE 
-                        LEN(A.CampaignData)
-                END
-            )
-        ELSE NULL 
-    END AS ID_KEY,
-    CASE
-        WHEN CHARINDEX('&lt;CPF_CNPJ&gt;', A.CampaignData) &gt; 0 THEN 
-            SUBSTRING(
-                A.CampaignData,
-                CHARINDEX('&lt;CPF_CNPJ&gt;', A.CampaignData) + LEN('&lt;CPF_CNPJ&gt;'),
-                CASE 
-                    WHEN CHARINDEX('&lt;/CPF_CNPJ&gt;', A.CampaignData) &gt; 0 THEN 
-                        CHARINDEX('&lt;/CPF_CNPJ&gt;', A.CampaignData) - 
-                        (CHARINDEX('&lt;CPF_CNPJ&gt;', A.CampaignData) + LEN('&lt;CPF_CNPJ&gt;'))
-                    ELSE 
-                        LEN(A.CampaignData)
-                END
-            )
-        WHEN CHARINDEX('&lt;CPFCNPJ&gt;', A.CampaignData) &gt; 0 THEN 
-            SUBSTRING(
-                A.CampaignData,
-                CHARINDEX('&lt;CPFCNPJ&gt;', A.CampaignData) + LEN('&lt;CPFCNPJ&gt;'),
-                CASE 
-                    WHEN CHARINDEX('&lt;/CPFCNPJ&gt;', A.CampaignData) &gt; 0 THEN 
-                        CHARINDEX('&lt;/CPFCNPJ&gt;', A.CampaignData) - 
-                        (CHARINDEX('&lt;CPFCNPJ&gt;', A.CampaignData) + LEN('&lt;CPFCNPJ&gt;'))
-                    ELSE 
-                        LEN(A.CampaignData)
-                END
-            )
-        ELSE NULL 
-    END AS CPF,
-    A.Agentld AS ID_AGENTE,
-    B.Login AS AGENTE,
-    A.Callld AS CALL_ID,
-    A.Campaignld AS ID_CAMPANHA,
-    C.Description AS NOME_CAMPANHA,
-    A.Dispositionld AS ID_TABULACAO,
-    D.Description AS NOME_TABULACAO,
-    '' AS MAILING,
-    A.Dnis AS ROTA,
-    A.CallStart AS INICIO_CHAMADA,
-    A.CallEnd AS FIM_CHAMADA,
-    A.CallEnd AS INICIO_POS,
-    A.WrapEnd AS FIM_POS,
-    A.QueueStart AS INICIO_FILA,
-    A.QueueEnd AS FIM_FILA,
-    A.Ani AS TELEFONE,
-    'OLOS' AS ORIGEM
-FROM InboundRawData A
-LEFT JOIN Users B WITH (NOLOCK) ON A.Agentld = B.Agentld
-LEFT JOIN Campaign C WITH (NOLOCK) ON A.Campaignld = C.Campaignld
-LEFT JOIN Disposition D WITH (NOLOCK) ON A.Dispositionld = D.DispositionId</t>
   </si>
   <si>
     <t>HOST (IP) DO BANCO ORIGEM</t>
@@ -1745,6 +1678,75 @@
   <si>
     <t>VARCHAR</t>
   </si>
+  <si>
+    <t>SELECT TOP 10
+    CAST(A.CallStart AS DATE) AS DATA,
+    CAST(CASE
+        WHEN CHARINDEX('&lt;NUMERO_CONTRATO&gt;', A.CampaignData) &gt; 0 THEN 
+            SUBSTRING(
+                A.CampaignData,
+                CHARINDEX('&lt;NUMERO_CONTRATO&gt;', A.CampaignData) + LEN('&lt;NUMERO_CONTRATO&gt;'),
+                CASE 
+                    WHEN CHARINDEX('&lt;/NUMERO_CONTRATO&gt;', A.CampaignData) &gt; 0 THEN 
+                        CHARINDEX('&lt;/NUMERO_CONTRATO&gt;', A.CampaignData) - 
+                        (CHARINDEX('&lt;NUMERO_CONTRATO&gt;', A.CampaignData) + LEN('&lt;NUMERO_CONTRATO&gt;'))
+                    ELSE 
+                        LEN(A.CampaignData)
+                END
+            )
+        ELSE NULL 
+    END AS VARCHAR(20)) AS ID_KEY,
+    CAST(CASE
+        WHEN CHARINDEX('&lt;CPF_CNPJ&gt;', A.CampaignData) &gt; 0 THEN 
+            SUBSTRING(
+                A.CampaignData,
+                CHARINDEX('&lt;CPF_CNPJ&gt;', A.CampaignData) + LEN('&lt;CPF_CNPJ&gt;'),
+                CASE 
+                    WHEN CHARINDEX('&lt;/CPF_CNPJ&gt;', A.CampaignData) &gt; 0 THEN 
+                        CHARINDEX('&lt;/CPF_CNPJ&gt;', A.CampaignData) - 
+                        (CHARINDEX('&lt;CPF_CNPJ&gt;', A.CampaignData) + LEN('&lt;CPF_CNPJ&gt;'))
+                    ELSE 
+                        LEN(A.CampaignData)
+                END
+            )
+        WHEN CHARINDEX('&lt;CPFCNPJ&gt;', A.CampaignData) &gt; 0 THEN 
+            SUBSTRING(
+                A.CampaignData,
+                CHARINDEX('&lt;CPFCNPJ&gt;', A.CampaignData) + LEN('&lt;CPFCNPJ&gt;'),
+                CASE 
+                    WHEN CHARINDEX('&lt;/CPFCNPJ&gt;', A.CampaignData) &gt; 0 THEN 
+                        CHARINDEX('&lt;/CPFCNPJ&gt;', A.CampaignData) - 
+                        (CHARINDEX('&lt;CPFCNPJ&gt;', A.CampaignData) + LEN('&lt;CPFCNPJ&gt;'))
+                    ELSE 
+                        LEN(A.CampaignData)
+                END
+            )
+        ELSE NULL 
+    END AS VARCHAR(20)) AS CPF,
+    CAST(A.Agentld AS NVARCHAR(60)) AS ID_AGENTE,
+    CAST(B.Login AS NVARCHAR(205)) AS AGENTE,
+    CAST(A.Callld AS BIGINT) AS CALL_ID,
+    CAST(A.Campaignld AS BIGINT) AS ID_CAMPANHA,
+    CAST(C.Description AS NVARCHAR(200)) AS NOME_CAMPANHA,
+    CAST(A.Dispositionld AS BIGINT) AS ID_TABULACAO,
+    CAST(D.Description AS NVARCHAR(200)) AS NOME_TABULACAO,
+    CAST('' AS VARCHAR(500)) AS MAILING,
+    CAST(A.Dnis AS NVARCHAR(50)) AS ROTA,
+    CAST(A.CallStart AS DATETIME2(7)) AS INICIO_CHAMADA,
+    CAST(A.CallEnd AS DATETIME2(7)) AS FIM_CHAMADA,
+    CAST(A.CallEnd AS DATETIME2(7)) AS INICIO_POS,
+    CAST(A.WrapEnd AS DATETIME2(7)) AS FIM_POS,
+    CAST(A.QueueStart AS DATETIME2(7)) AS INICIO_FILA,
+    CAST(A.QueueEnd AS DATETIME2(7)) AS FIM_FILA,
+    CAST(A.Ani AS NVARCHAR(20)) AS TELEFONE,
+    CAST('10.10.220.101' AS VARCHAR(20)) AS INSTANCIA,
+    CAST('RPL_OLOS' AS VARCHAR(20)) AS BANCO,
+    CAST('OLOS' AS NVARCHAR(30)) AS ORIGEM
+FROM InboundRawData A
+LEFT JOIN Users B WITH (NOLOCK) ON A.Agentld = B.Agentld
+LEFT JOIN Campaign C WITH (NOLOCK) ON A.Campaignld = C.Campaignld
+LEFT JOIN Disposition D WITH (NOLOCK) ON A.Dispositionld = D.DispositionId;</t>
+  </si>
 </sst>
 </file>
 
@@ -1754,7 +1756,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1810,14 +1812,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFF00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2111,7 +2105,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2209,10 +2203,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2224,7 +2215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2939,17 +2930,17 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="46" t="s">
         <v>402</v>
       </c>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
     </row>
     <row r="5" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -3739,17 +3730,17 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="46" t="s">
         <v>402</v>
       </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
     </row>
     <row r="4" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -4374,17 +4365,17 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="46" t="s">
         <v>402</v>
       </c>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -4814,17 +4805,17 @@
       <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J4" s="47" t="s">
+      <c r="J4" s="46" t="s">
         <v>402</v>
       </c>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -5147,6 +5138,544 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7920C411-EA90-40BF-87D0-8A7E5345C20C}">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>504</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>473</v>
+      </c>
+      <c r="D2" s="34">
+        <v>19</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>481</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>505</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>482</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="D3" s="34">
+        <v>10</v>
+      </c>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>497</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>498</v>
+      </c>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="45" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>470</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="D4" s="34">
+        <v>20</v>
+      </c>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>441</v>
+      </c>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="45"/>
+    </row>
+    <row r="5" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>472</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>473</v>
+      </c>
+      <c r="D5" s="34">
+        <v>19</v>
+      </c>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>497</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>499</v>
+      </c>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="45"/>
+    </row>
+    <row r="6" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="D6" s="34">
+        <v>8</v>
+      </c>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>497</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>447</v>
+      </c>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="45"/>
+    </row>
+    <row r="7" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>474</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="D7" s="34">
+        <v>200</v>
+      </c>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>449</v>
+      </c>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="45"/>
+    </row>
+    <row r="8" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="D8" s="34">
+        <v>20</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>454</v>
+      </c>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="45"/>
+    </row>
+    <row r="9" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="34" t="s">
+        <v>484</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>485</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>473</v>
+      </c>
+      <c r="D9" s="34">
+        <v>19</v>
+      </c>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="45"/>
+    </row>
+    <row r="10" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="34" t="s">
+        <v>486</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>487</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="D10" s="34">
+        <v>50</v>
+      </c>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>497</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>500</v>
+      </c>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="45"/>
+    </row>
+    <row r="11" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>489</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="D11" s="34">
+        <v>8</v>
+      </c>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>497</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>501</v>
+      </c>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34" t="s">
+        <v>502</v>
+      </c>
+      <c r="M11" s="45"/>
+    </row>
+    <row r="12" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="34" t="s">
+        <v>490</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>491</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="D12" s="34">
+        <v>50</v>
+      </c>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="45"/>
+    </row>
+    <row r="13" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="34" t="s">
+        <v>492</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>493</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="D13" s="34">
+        <v>8</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="45"/>
+    </row>
+    <row r="14" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="39" t="s">
+        <v>494</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>495</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="D14" s="34">
+        <v>20</v>
+      </c>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="45"/>
+    </row>
+    <row r="15" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>469</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="D15" s="34">
+        <v>30</v>
+      </c>
+      <c r="E15" s="34"/>
+      <c r="F15" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="45"/>
+    </row>
+    <row r="16" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="39" t="s">
+        <v>478</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>479</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>475</v>
+      </c>
+      <c r="D16" s="34">
+        <v>19</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="41" t="s">
+        <v>480</v>
+      </c>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="M3:M16"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3224E281-B9C3-43DE-9C24-CA7016DDAC13}">
   <dimension ref="A1:O25"/>
   <sheetViews>
@@ -5539,7 +6068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76B7F98-F046-4D38-B531-0938E5524784}">
   <dimension ref="A1:O15"/>
   <sheetViews>
@@ -5812,582 +6341,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7920C411-EA90-40BF-87D0-8A7E5345C20C}">
-  <dimension ref="A1:O16"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="51.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="48.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="52.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>346</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>360</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>361</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>362</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>363</v>
-      </c>
-      <c r="J1" s="33" t="s">
-        <v>364</v>
-      </c>
-      <c r="K1" s="33" t="s">
-        <v>365</v>
-      </c>
-      <c r="L1" s="33" t="s">
-        <v>366</v>
-      </c>
-      <c r="M1" s="34" t="s">
-        <v>367</v>
-      </c>
-      <c r="N1" s="34" t="s">
-        <v>368</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>504</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>473</v>
-      </c>
-      <c r="D2" s="35">
-        <v>19</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>481</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>505</v>
-      </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>482</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>345</v>
-      </c>
-      <c r="D3" s="35">
-        <v>10</v>
-      </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>497</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>498</v>
-      </c>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="46" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>470</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>477</v>
-      </c>
-      <c r="D4" s="35">
-        <v>20</v>
-      </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>439</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>441</v>
-      </c>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="46"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>472</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>473</v>
-      </c>
-      <c r="D5" s="35">
-        <v>19</v>
-      </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>497</v>
-      </c>
-      <c r="J5" s="35" t="s">
-        <v>499</v>
-      </c>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="46"/>
-    </row>
-    <row r="6" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="35" t="s">
-        <v>428</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>429</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>483</v>
-      </c>
-      <c r="D6" s="35">
-        <v>8</v>
-      </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H6" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I6" s="35" t="s">
-        <v>497</v>
-      </c>
-      <c r="J6" s="35" t="s">
-        <v>447</v>
-      </c>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="46"/>
-    </row>
-    <row r="7" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="35" t="s">
-        <v>430</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>474</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>477</v>
-      </c>
-      <c r="D7" s="35">
-        <v>200</v>
-      </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="J7" s="35" t="s">
-        <v>449</v>
-      </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="46"/>
-    </row>
-    <row r="8" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>477</v>
-      </c>
-      <c r="D8" s="35">
-        <v>20</v>
-      </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>439</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>454</v>
-      </c>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="46"/>
-    </row>
-    <row r="9" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="35" t="s">
-        <v>484</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>485</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>473</v>
-      </c>
-      <c r="D9" s="35">
-        <v>19</v>
-      </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="46"/>
-    </row>
-    <row r="10" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="35" t="s">
-        <v>486</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>487</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>477</v>
-      </c>
-      <c r="D10" s="35">
-        <v>50</v>
-      </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H10" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>497</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>500</v>
-      </c>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="46"/>
-    </row>
-    <row r="11" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="35" t="s">
-        <v>488</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>489</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>483</v>
-      </c>
-      <c r="D11" s="35">
-        <v>8</v>
-      </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H11" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I11" s="35" t="s">
-        <v>497</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>501</v>
-      </c>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35" t="s">
-        <v>502</v>
-      </c>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="46"/>
-    </row>
-    <row r="12" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="35" t="s">
-        <v>490</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>491</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>477</v>
-      </c>
-      <c r="D12" s="35">
-        <v>50</v>
-      </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H12" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="46"/>
-    </row>
-    <row r="13" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="35" t="s">
-        <v>492</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>493</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>483</v>
-      </c>
-      <c r="D13" s="35">
-        <v>8</v>
-      </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H13" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="46"/>
-    </row>
-    <row r="14" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="40" t="s">
-        <v>494</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>495</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>477</v>
-      </c>
-      <c r="D14" s="35">
-        <v>20</v>
-      </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="46"/>
-    </row>
-    <row r="15" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>469</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>477</v>
-      </c>
-      <c r="D15" s="35">
-        <v>30</v>
-      </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="46"/>
-    </row>
-    <row r="16" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="40" t="s">
-        <v>478</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>479</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>475</v>
-      </c>
-      <c r="D16" s="35">
-        <v>19</v>
-      </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="42" t="s">
-        <v>480</v>
-      </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="46"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="O3:O16"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F2:J2"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -8296,8 +8249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:J22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8356,7 +8309,7 @@
       <c r="L1" s="33" t="s">
         <v>366</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="34" t="s">
         <v>421</v>
       </c>
     </row>
@@ -8364,696 +8317,696 @@
       <c r="A2" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>504</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="34" t="s">
         <v>473</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="34">
         <v>19</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="34" t="s">
         <v>481</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="41" t="s">
         <v>505</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="45" t="s">
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="44" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="D3" s="34">
+        <v>10</v>
+      </c>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>440</v>
+      </c>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="M3" s="45"/>
+    </row>
+    <row r="4" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>470</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>345</v>
-      </c>
-      <c r="D3" s="35">
-        <v>10</v>
-      </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35" t="s">
+      <c r="D4" s="34">
+        <v>20</v>
+      </c>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G4" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H4" s="34" t="s">
         <v>438</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I4" s="34" t="s">
         <v>439</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J4" s="34" t="s">
+        <v>441</v>
+      </c>
+      <c r="K4" s="34"/>
+      <c r="L4" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="M4" s="45"/>
+    </row>
+    <row r="5" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>510</v>
+      </c>
+      <c r="D5" s="34">
+        <v>20</v>
+      </c>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>441</v>
+      </c>
+      <c r="K5" s="34"/>
+      <c r="L5" s="36" t="s">
+        <v>443</v>
+      </c>
+      <c r="M5" s="45"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="D6" s="34">
+        <v>64</v>
+      </c>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>444</v>
+      </c>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="45"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="D7" s="34">
+        <v>250</v>
+      </c>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>445</v>
+      </c>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="45"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>472</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>473</v>
+      </c>
+      <c r="D8" s="34">
+        <v>19</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>446</v>
+      </c>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="45"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>473</v>
+      </c>
+      <c r="D9" s="34">
+        <v>19</v>
+      </c>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>447</v>
+      </c>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="45"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>474</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="D10" s="34">
+        <v>1200</v>
+      </c>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>449</v>
+      </c>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="45"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="34" t="s">
+        <v>432</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>473</v>
+      </c>
+      <c r="D11" s="34">
+        <v>19</v>
+      </c>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>450</v>
+      </c>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="45"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="34" t="s">
+        <v>435</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="D12" s="34">
+        <v>400</v>
+      </c>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>434</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>449</v>
+      </c>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="45"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>510</v>
+      </c>
+      <c r="D13" s="34">
+        <v>500</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>451</v>
+      </c>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="45"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>510</v>
+      </c>
+      <c r="D14" s="34">
+        <v>260</v>
+      </c>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>452</v>
+      </c>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="45"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>475</v>
+      </c>
+      <c r="D15" s="34">
+        <v>19</v>
+      </c>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="J15" s="34" t="s">
         <v>440</v>
       </c>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35" t="s">
-        <v>476</v>
-      </c>
-      <c r="M3" s="46"/>
-    </row>
-    <row r="4" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>470</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>511</v>
-      </c>
-      <c r="D4" s="35">
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="45"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>475</v>
+      </c>
+      <c r="D16" s="34">
+        <v>19</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>453</v>
+      </c>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="45"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>475</v>
+      </c>
+      <c r="D17" s="34">
+        <v>19</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>440</v>
+      </c>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="45"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>475</v>
+      </c>
+      <c r="D18" s="34">
+        <v>19</v>
+      </c>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="J18" s="34" t="s">
+        <v>455</v>
+      </c>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="45"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>510</v>
+      </c>
+      <c r="D19" s="34">
+        <v>25</v>
+      </c>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="J19" s="34" t="s">
+        <v>454</v>
+      </c>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="45"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>510</v>
+      </c>
+      <c r="D20" s="34">
         <v>20</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35" t="s">
+      <c r="E20" s="34"/>
+      <c r="F20" s="41" t="s">
+        <v>437</v>
+      </c>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="45"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="34" t="s">
+        <v>507</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>508</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>510</v>
+      </c>
+      <c r="D21" s="34">
+        <v>20</v>
+      </c>
+      <c r="E21" s="34"/>
+      <c r="F21" s="41" t="s">
+        <v>438</v>
+      </c>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="45"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>469</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>510</v>
+      </c>
+      <c r="D22" s="34">
+        <v>30</v>
+      </c>
+      <c r="E22" s="34"/>
+      <c r="F22" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>439</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>441</v>
-      </c>
-      <c r="K4" s="35"/>
-      <c r="L4" s="37" t="s">
-        <v>442</v>
-      </c>
-      <c r="M4" s="46"/>
-    </row>
-    <row r="5" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>422</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>511</v>
-      </c>
-      <c r="D5" s="35">
-        <v>20</v>
-      </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>439</v>
-      </c>
-      <c r="J5" s="35" t="s">
-        <v>441</v>
-      </c>
-      <c r="K5" s="35"/>
-      <c r="L5" s="37" t="s">
-        <v>443</v>
-      </c>
-      <c r="M5" s="46"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="35" t="s">
-        <v>423</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>471</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>477</v>
-      </c>
-      <c r="D6" s="35">
-        <v>60</v>
-      </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H6" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I6" s="35" t="s">
-        <v>439</v>
-      </c>
-      <c r="J6" s="35" t="s">
-        <v>444</v>
-      </c>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="46"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="35" t="s">
-        <v>425</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>426</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>477</v>
-      </c>
-      <c r="D7" s="35">
-        <v>250</v>
-      </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>427</v>
-      </c>
-      <c r="J7" s="35" t="s">
-        <v>445</v>
-      </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="46"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>472</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>473</v>
-      </c>
-      <c r="D8" s="35">
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="45"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="34" t="s">
+        <v>478</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>479</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>475</v>
+      </c>
+      <c r="D23" s="34">
         <v>19</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>439</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>446</v>
-      </c>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="46"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="35" t="s">
-        <v>428</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>429</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>473</v>
-      </c>
-      <c r="D9" s="35">
-        <v>19</v>
-      </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>439</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>447</v>
-      </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="46"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="35" t="s">
-        <v>430</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>474</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>477</v>
-      </c>
-      <c r="D10" s="35">
-        <v>1200</v>
-      </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H10" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>449</v>
-      </c>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="46"/>
-    </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="35" t="s">
-        <v>432</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>433</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>473</v>
-      </c>
-      <c r="D11" s="35">
-        <v>19</v>
-      </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H11" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I11" s="35" t="s">
-        <v>439</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>450</v>
-      </c>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="46"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="35" t="s">
-        <v>435</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>436</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>477</v>
-      </c>
-      <c r="D12" s="35">
-        <v>400</v>
-      </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H12" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I12" s="35" t="s">
-        <v>434</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>449</v>
-      </c>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="46"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>511</v>
-      </c>
-      <c r="D13" s="35">
-        <v>500</v>
-      </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H13" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I13" s="35" t="s">
-        <v>439</v>
-      </c>
-      <c r="J13" s="35" t="s">
-        <v>451</v>
-      </c>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="46"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>511</v>
-      </c>
-      <c r="D14" s="35">
-        <v>260</v>
-      </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>439</v>
-      </c>
-      <c r="J14" s="35" t="s">
-        <v>452</v>
-      </c>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="46"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>475</v>
-      </c>
-      <c r="D15" s="35">
-        <v>19</v>
-      </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I15" s="35" t="s">
-        <v>439</v>
-      </c>
-      <c r="J15" s="35" t="s">
-        <v>440</v>
-      </c>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="46"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>475</v>
-      </c>
-      <c r="D16" s="35">
-        <v>19</v>
-      </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H16" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I16" s="35" t="s">
-        <v>439</v>
-      </c>
-      <c r="J16" s="35" t="s">
-        <v>453</v>
-      </c>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="46"/>
-    </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>475</v>
-      </c>
-      <c r="D17" s="35">
-        <v>19</v>
-      </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H17" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I17" s="35" t="s">
-        <v>439</v>
-      </c>
-      <c r="J17" s="35" t="s">
-        <v>440</v>
-      </c>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="46"/>
-    </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>475</v>
-      </c>
-      <c r="D18" s="35">
-        <v>19</v>
-      </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H18" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I18" s="35" t="s">
-        <v>439</v>
-      </c>
-      <c r="J18" s="35" t="s">
-        <v>455</v>
-      </c>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="46"/>
-    </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>511</v>
-      </c>
-      <c r="D19" s="35">
-        <v>25</v>
-      </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H19" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I19" s="35" t="s">
-        <v>439</v>
-      </c>
-      <c r="J19" s="35" t="s">
-        <v>454</v>
-      </c>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="46"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="35" t="s">
-        <v>361</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>507</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>511</v>
-      </c>
-      <c r="D20" s="35">
-        <v>20</v>
-      </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="42" t="s">
-        <v>437</v>
-      </c>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="46"/>
-    </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="35" t="s">
-        <v>508</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>509</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>511</v>
-      </c>
-      <c r="D21" s="35">
-        <v>20</v>
-      </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="42" t="s">
-        <v>438</v>
-      </c>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="46"/>
-    </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>469</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>511</v>
-      </c>
-      <c r="D22" s="35">
-        <v>30</v>
-      </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="46"/>
-    </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="35" t="s">
-        <v>478</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>479</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>475</v>
-      </c>
-      <c r="D23" s="35">
-        <v>19</v>
-      </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="42" t="s">
+      <c r="E23" s="34"/>
+      <c r="F23" s="41" t="s">
         <v>480</v>
       </c>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -9070,10 +9023,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA049C64-FDE3-4EE7-B0ED-E66E2C366047}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9090,7 +9043,7 @@
     <col min="10" max="10" width="21.44140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="42.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="62.5546875" style="1" customWidth="1"/>
     <col min="14" max="16384" width="11.77734375" style="1"/>
   </cols>
   <sheetData>
@@ -9131,7 +9084,7 @@
       <c r="L1" s="33" t="s">
         <v>366</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="34" t="s">
         <v>421</v>
       </c>
     </row>
@@ -9139,752 +9092,746 @@
       <c r="A2" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>504</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="34" t="s">
         <v>473</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="34">
         <v>19</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="34" t="s">
         <v>481</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="41" t="s">
         <v>505</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="45" t="s">
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="44" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="D3" s="34">
+        <v>10</v>
+      </c>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>457</v>
+      </c>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="M3" s="45"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>510</v>
+      </c>
+      <c r="D4" s="34">
+        <v>20</v>
+      </c>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>441</v>
+      </c>
+      <c r="K4" s="34"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="45"/>
+    </row>
+    <row r="5" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>422</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>510</v>
+      </c>
+      <c r="D5" s="34">
+        <v>20</v>
+      </c>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>441</v>
+      </c>
+      <c r="K5" s="34"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="45"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="D6" s="34">
+        <v>60</v>
+      </c>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>444</v>
+      </c>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="45"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>426</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="D7" s="34">
+        <v>250</v>
+      </c>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>445</v>
+      </c>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="45"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>458</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>473</v>
+      </c>
+      <c r="D8" s="34">
+        <v>19</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>446</v>
+      </c>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="45"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>429</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>473</v>
+      </c>
+      <c r="D9" s="34">
+        <v>19</v>
+      </c>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>447</v>
+      </c>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="45"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>431</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="D10" s="34">
+        <v>200</v>
+      </c>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>449</v>
+      </c>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="45"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="34" t="s">
+        <v>432</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>433</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>473</v>
+      </c>
+      <c r="D11" s="34">
+        <v>19</v>
+      </c>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>450</v>
+      </c>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="45"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="34" t="s">
+        <v>435</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>436</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="D12" s="34">
+        <v>400</v>
+      </c>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>434</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>449</v>
+      </c>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="45"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>510</v>
+      </c>
+      <c r="D13" s="34">
+        <v>500</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="45"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>510</v>
+      </c>
+      <c r="D14" s="34">
+        <v>260</v>
+      </c>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>468</v>
+      </c>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="45"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>475</v>
+      </c>
+      <c r="D15" s="34">
+        <v>19</v>
+      </c>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>457</v>
+      </c>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="45"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>475</v>
+      </c>
+      <c r="D16" s="34">
+        <v>19</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>459</v>
+      </c>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="45"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>475</v>
+      </c>
+      <c r="D17" s="34">
+        <v>19</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>459</v>
+      </c>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="45"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>475</v>
+      </c>
+      <c r="D18" s="34">
+        <v>19</v>
+      </c>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="J18" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="45"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>466</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>475</v>
+      </c>
+      <c r="D19" s="34">
+        <v>19</v>
+      </c>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="J19" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="45"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>467</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>475</v>
+      </c>
+      <c r="D20" s="34">
+        <v>19</v>
+      </c>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>464</v>
+      </c>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="45"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>510</v>
+      </c>
+      <c r="D21" s="34">
+        <v>25</v>
+      </c>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="J21" s="34" t="s">
+        <v>465</v>
+      </c>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="45"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="B22" s="34" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>345</v>
-      </c>
-      <c r="D3" s="35">
-        <v>10</v>
-      </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35" t="s">
+      <c r="C22" s="34" t="s">
+        <v>510</v>
+      </c>
+      <c r="D22" s="34">
+        <v>20</v>
+      </c>
+      <c r="E22" s="34"/>
+      <c r="F22" s="41" t="s">
+        <v>437</v>
+      </c>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="45"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="34" t="s">
+        <v>507</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>508</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>510</v>
+      </c>
+      <c r="D23" s="34">
+        <v>20</v>
+      </c>
+      <c r="E23" s="34"/>
+      <c r="F23" s="41" t="s">
+        <v>438</v>
+      </c>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="45"/>
+    </row>
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>469</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>510</v>
+      </c>
+      <c r="D24" s="34">
+        <v>30</v>
+      </c>
+      <c r="E24" s="34"/>
+      <c r="F24" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>456</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>457</v>
-      </c>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35" t="s">
-        <v>476</v>
-      </c>
-      <c r="M3" s="46"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>511</v>
-      </c>
-      <c r="D4" s="35">
-        <v>20</v>
-      </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>456</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>441</v>
-      </c>
-      <c r="K4" s="35"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="46"/>
-    </row>
-    <row r="5" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>422</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>511</v>
-      </c>
-      <c r="D5" s="35">
-        <v>20</v>
-      </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>456</v>
-      </c>
-      <c r="J5" s="35" t="s">
-        <v>441</v>
-      </c>
-      <c r="K5" s="35"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="46"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="35" t="s">
-        <v>423</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>424</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>477</v>
-      </c>
-      <c r="D6" s="35">
-        <v>60</v>
-      </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H6" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I6" s="35" t="s">
-        <v>456</v>
-      </c>
-      <c r="J6" s="35" t="s">
-        <v>444</v>
-      </c>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="46"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="35" t="s">
-        <v>425</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>426</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>477</v>
-      </c>
-      <c r="D7" s="35">
-        <v>250</v>
-      </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>427</v>
-      </c>
-      <c r="J7" s="35" t="s">
-        <v>445</v>
-      </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="46"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>458</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>473</v>
-      </c>
-      <c r="D8" s="35">
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="45"/>
+    </row>
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="34" t="s">
+        <v>478</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>479</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>475</v>
+      </c>
+      <c r="D25" s="34">
         <v>19</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>456</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>446</v>
-      </c>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="46"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="35" t="s">
-        <v>428</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>473</v>
-      </c>
-      <c r="D9" s="35">
-        <v>19</v>
-      </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>456</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>447</v>
-      </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="46"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="35" t="s">
-        <v>430</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>477</v>
-      </c>
-      <c r="D10" s="35">
-        <v>200</v>
-      </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H10" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>449</v>
-      </c>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="46"/>
-    </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="35" t="s">
-        <v>432</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>433</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>473</v>
-      </c>
-      <c r="D11" s="35">
-        <v>19</v>
-      </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H11" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I11" s="35" t="s">
-        <v>456</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>450</v>
-      </c>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="46"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="35" t="s">
-        <v>435</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>436</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>477</v>
-      </c>
-      <c r="D12" s="35">
-        <v>400</v>
-      </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H12" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I12" s="35" t="s">
-        <v>434</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>449</v>
-      </c>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="46"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>511</v>
-      </c>
-      <c r="D13" s="35">
-        <v>500</v>
-      </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="46"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>477</v>
-      </c>
-      <c r="D14" s="35">
-        <v>50</v>
-      </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>456</v>
-      </c>
-      <c r="J14" s="35" t="s">
-        <v>468</v>
-      </c>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="46"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>475</v>
-      </c>
-      <c r="D15" s="35">
-        <v>19</v>
-      </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I15" s="35" t="s">
-        <v>456</v>
-      </c>
-      <c r="J15" s="35" t="s">
-        <v>457</v>
-      </c>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="46"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>475</v>
-      </c>
-      <c r="D16" s="35">
-        <v>19</v>
-      </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H16" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I16" s="35" t="s">
-        <v>456</v>
-      </c>
-      <c r="J16" s="35" t="s">
-        <v>459</v>
-      </c>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="46"/>
-    </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>475</v>
-      </c>
-      <c r="D17" s="35">
-        <v>19</v>
-      </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H17" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I17" s="35" t="s">
-        <v>456</v>
-      </c>
-      <c r="J17" s="35" t="s">
-        <v>459</v>
-      </c>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="46"/>
-    </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>475</v>
-      </c>
-      <c r="D18" s="35">
-        <v>19</v>
-      </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H18" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I18" s="35" t="s">
-        <v>456</v>
-      </c>
-      <c r="J18" s="35" t="s">
-        <v>462</v>
-      </c>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="46"/>
-    </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="35" t="s">
-        <v>460</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>466</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>475</v>
-      </c>
-      <c r="D19" s="35">
-        <v>19</v>
-      </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H19" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I19" s="35" t="s">
-        <v>456</v>
-      </c>
-      <c r="J19" s="35" t="s">
-        <v>463</v>
-      </c>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="46"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="35" t="s">
-        <v>461</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>467</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>475</v>
-      </c>
-      <c r="D20" s="35">
-        <v>19</v>
-      </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H20" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I20" s="35" t="s">
-        <v>456</v>
-      </c>
-      <c r="J20" s="35" t="s">
-        <v>464</v>
-      </c>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="46"/>
-    </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>477</v>
-      </c>
-      <c r="D21" s="35">
-        <v>20</v>
-      </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H21" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="I21" s="35" t="s">
-        <v>456</v>
-      </c>
-      <c r="J21" s="35" t="s">
-        <v>465</v>
-      </c>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="46"/>
-    </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="35" t="s">
-        <v>361</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>507</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>511</v>
-      </c>
-      <c r="D22" s="35">
-        <v>20</v>
-      </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="42" t="s">
-        <v>437</v>
-      </c>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="46"/>
-    </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="35" t="s">
-        <v>508</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>509</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>511</v>
-      </c>
-      <c r="D23" s="35">
-        <v>20</v>
-      </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="42" t="s">
-        <v>438</v>
-      </c>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="46"/>
-    </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>469</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>477</v>
-      </c>
-      <c r="D24" s="35">
-        <v>30</v>
-      </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="46"/>
-    </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="35" t="s">
-        <v>478</v>
-      </c>
-      <c r="B25" s="35" t="s">
-        <v>479</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>475</v>
-      </c>
-      <c r="D25" s="35">
-        <v>19</v>
-      </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="42" t="s">
+      <c r="E25" s="34"/>
+      <c r="F25" s="41" t="s">
         <v>480</v>
       </c>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="44"/>
-    </row>
-    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I30" s="35" t="s">
-        <v>456</v>
-      </c>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10030,17 +9977,17 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="46" t="s">
         <v>402</v>
       </c>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -10474,17 +10421,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="46" t="s">
         <v>402</v>
       </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -10847,17 +10794,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="46" t="s">
         <v>402</v>
       </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
     </row>
     <row r="4" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -11617,17 +11564,17 @@
       <c r="P3" s="16"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="46" t="s">
         <v>402</v>
       </c>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">

--- a/Documentos/Mapeamento das Fontes de Dados/OLOS/MAPEAMENTO_OLOS.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/OLOS/MAPEAMENTO_OLOS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\OLOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\04 - PROJETOS\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\OLOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5773DEDC-8F93-41AC-AF32-06BEC7DB8CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F0AFBC-F448-44E8-947E-9E9EF2130912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="766" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="766" firstSheet="2" activeTab="13" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -1542,27 +1542,6 @@
     <t>NOME DA PLATAFORMA DE ORIGEM DO REGISTRO</t>
   </si>
   <si>
-    <t>SELECT 
-a.id,
-a.CallidTelecom,
-a.Campaignld,
-a.Instant,
-a.MilesStoneCount,
-a.MileStoneDescription,
-CASE
-        WHEN PATINDEX('%[0-9]%', REVERSE(a.MileStoneDescription)) &gt; 0 
-        THEN REVERSE(SUBSTRING(REVERSE(a.MileStoneDescription), 1, PATINDEX('%[^0-9]%', REVERSE(a.MileStoneDescription) + 't') - 1))
-        ELSE ''
-    END AS Nota,
-b.Description,
-c.Customerld,
-c.OriginalPhoneNumber
- FROM milestonerawdata A with (nolock)
- LEFT JOIN Campaign B with (nolock) on a.Campaignld = b.Campaignld
- LEFT JOIN AttemptsRawData c WITH (nolock) on a.CallidTelecom = c.CallIdTelecom
- WHERE Instant BETWEEN '2024-07-04 00:00:00.000' and '2024-07-04 23:59:59.000'</t>
-  </si>
-  <si>
     <t>milestonerawdata</t>
   </si>
   <si>
@@ -1603,7 +1582,10 @@
     <t>NOME DO BANCO DE DADOS ORIGEM</t>
   </si>
   <si>
-    <t>SELECT TOP 5
+    <t>VARCHAR</t>
+  </si>
+  <si>
+    <t>SELECT
     CAST(A.StartDate AS DATE) AS DATA,
     CASE
         WHEN CHARINDEX('&lt;NUMERO_CONTRATO&gt;', A.CampaignData) &gt; 0 THEN 
@@ -1676,10 +1658,7 @@
 LEFT JOIN Disposition D WITH (NOLOCK) ON A.Dispositionld = D.DispositionId</t>
   </si>
   <si>
-    <t>VARCHAR</t>
-  </si>
-  <si>
-    <t>SELECT TOP 10
+    <t>SELECT
     CAST(A.CallStart AS DATE) AS DATA,
     CAST(CASE
         WHEN CHARINDEX('&lt;NUMERO_CONTRATO&gt;', A.CampaignData) &gt; 0 THEN 
@@ -1747,6 +1726,26 @@
 LEFT JOIN Campaign C WITH (NOLOCK) ON A.Campaignld = C.Campaignld
 LEFT JOIN Disposition D WITH (NOLOCK) ON A.Dispositionld = D.DispositionId;</t>
   </si>
+  <si>
+    <t>SELECT 
+a.id,
+a.CallidTelecom,
+a.Campaignld,
+a.Instant,
+a.MilesStoneCount,
+a.MileStoneDescription,
+CASE
+        WHEN PATINDEX('%[0-9]%', REVERSE(a.MileStoneDescription)) &gt; 0 
+        THEN REVERSE(SUBSTRING(REVERSE(a.MileStoneDescription), 1, PATINDEX('%[^0-9]%', REVERSE(a.MileStoneDescription) + 't') - 1))
+        ELSE ''
+    END AS Nota,
+b.Description,
+c.Customerld,
+c.OriginalPhoneNumber
+ FROM milestonerawdata A with (nolock)
+ LEFT JOIN Campaign B with (nolock) on a.Campaignld = b.Campaignld
+ LEFT JOIN AttemptsRawData c WITH (nolock) on a.CallidTelecom = c.CallIdTelecom</t>
+  </si>
 </sst>
 </file>
 
@@ -1756,7 +1755,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2566,7 +2565,7 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -2574,7 +2573,7 @@
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>193</v>
       </c>
@@ -2585,67 +2584,67 @@
         <v>344</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2663,7 +2662,7 @@
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -2697,7 +2696,7 @@
     <col min="39" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -2813,7 +2812,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38">
       <c r="A2" s="2">
         <v>44593</v>
       </c>
@@ -2929,7 +2928,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38">
       <c r="I4" s="46" t="s">
         <v>402</v>
       </c>
@@ -2942,7 +2941,7 @@
       <c r="P4" s="46"/>
       <c r="Q4" s="46"/>
     </row>
-    <row r="5" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" ht="27" customHeight="1">
       <c r="A5" s="20" t="s">
         <v>186</v>
       </c>
@@ -2995,7 +2994,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" ht="27" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3033,7 +3032,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3071,7 +3070,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" ht="25.95" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>85</v>
       </c>
@@ -3088,7 +3087,7 @@
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38">
       <c r="A9" s="1" t="s">
         <v>87</v>
       </c>
@@ -3102,7 +3101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -3116,7 +3115,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,7 +3129,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -3144,7 +3143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -3158,7 +3157,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -3172,7 +3171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -3186,7 +3185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -3200,7 +3199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -3214,7 +3213,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -3228,7 +3227,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -3242,7 +3241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -3256,7 +3255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -3270,7 +3269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -3284,7 +3283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -3298,7 +3297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -3312,7 +3311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
@@ -3326,7 +3325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -3340,7 +3339,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -3354,7 +3353,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
@@ -3368,7 +3367,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>396</v>
       </c>
@@ -3376,7 +3375,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>123</v>
       </c>
@@ -3384,7 +3383,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
@@ -3396,7 +3395,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
@@ -3408,7 +3407,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -3420,7 +3419,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>15</v>
       </c>
@@ -3432,7 +3431,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
@@ -3444,7 +3443,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>17</v>
       </c>
@@ -3456,7 +3455,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>18</v>
       </c>
@@ -3468,7 +3467,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
@@ -3480,7 +3479,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>20</v>
       </c>
@@ -3492,7 +3491,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
@@ -3504,7 +3503,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>22</v>
       </c>
@@ -3516,7 +3515,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>146</v>
       </c>
@@ -3545,7 +3544,7 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55" style="1" bestFit="1" customWidth="1"/>
@@ -3575,7 +3574,7 @@
     <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
@@ -3652,7 +3651,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3729,7 +3728,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25">
       <c r="I3" s="46" t="s">
         <v>402</v>
       </c>
@@ -3742,7 +3741,7 @@
       <c r="P3" s="46"/>
       <c r="Q3" s="46"/>
     </row>
-    <row r="4" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="27.6">
       <c r="A4" s="20" t="s">
         <v>186</v>
       </c>
@@ -3795,7 +3794,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
         <v>84</v>
       </c>
@@ -3830,7 +3829,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3865,7 +3864,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3879,7 +3878,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
         <v>85</v>
       </c>
@@ -3893,7 +3892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
         <v>87</v>
       </c>
@@ -3907,7 +3906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
         <v>147</v>
       </c>
@@ -3921,7 +3920,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
         <v>148</v>
       </c>
@@ -3935,7 +3934,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25">
       <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
@@ -3949,7 +3948,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -3963,7 +3962,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25">
       <c r="A14" s="1" t="s">
         <v>144</v>
       </c>
@@ -3980,7 +3979,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
         <v>93</v>
       </c>
@@ -3997,7 +3996,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
         <v>94</v>
       </c>
@@ -4014,7 +4013,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>95</v>
       </c>
@@ -4031,7 +4030,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>96</v>
       </c>
@@ -4048,7 +4047,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>97</v>
       </c>
@@ -4065,7 +4064,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>98</v>
       </c>
@@ -4082,7 +4081,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -4099,7 +4098,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>100</v>
       </c>
@@ -4116,7 +4115,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>101</v>
       </c>
@@ -4133,7 +4132,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>102</v>
       </c>
@@ -4150,7 +4149,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>103</v>
       </c>
@@ -4167,7 +4166,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>104</v>
       </c>
@@ -4184,7 +4183,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>105</v>
       </c>
@@ -4201,7 +4200,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>145</v>
       </c>
@@ -4218,7 +4217,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>146</v>
       </c>
@@ -4248,7 +4247,7 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="106.88671875" bestFit="1" customWidth="1"/>
@@ -4267,7 +4266,7 @@
     <col min="16" max="16" width="48.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -4308,7 +4307,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="2">
         <v>44593</v>
       </c>
@@ -4349,7 +4348,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -4364,7 +4363,7 @@
       <c r="L3" s="6"/>
       <c r="M3" s="16"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="I4" s="46" t="s">
         <v>402</v>
       </c>
@@ -4377,7 +4376,7 @@
       <c r="P4" s="46"/>
       <c r="Q4" s="46"/>
     </row>
-    <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="27.6">
       <c r="A5" s="20" t="s">
         <v>186</v>
       </c>
@@ -4430,7 +4429,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -4467,7 +4466,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -4504,7 +4503,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -4518,7 +4517,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>85</v>
       </c>
@@ -4532,7 +4531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>87</v>
       </c>
@@ -4546,7 +4545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>106</v>
       </c>
@@ -4560,7 +4559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -4574,7 +4573,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>139</v>
       </c>
@@ -4588,7 +4587,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>140</v>
       </c>
@@ -4602,7 +4601,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
         <v>52</v>
       </c>
@@ -4616,7 +4615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
         <v>53</v>
       </c>
@@ -4630,7 +4629,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>112</v>
       </c>
@@ -4644,7 +4643,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>146</v>
       </c>
@@ -4674,7 +4673,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.33203125" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="110.88671875" style="5" bestFit="1" customWidth="1"/>
@@ -4696,7 +4695,7 @@
     <col min="18" max="16384" width="13.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -4743,7 +4742,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" s="2">
         <v>44593</v>
       </c>
@@ -4790,7 +4789,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -4804,7 +4803,7 @@
       <c r="N3" s="6"/>
       <c r="O3" s="16"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="J4" s="46" t="s">
         <v>402</v>
       </c>
@@ -4817,7 +4816,7 @@
       <c r="Q4" s="46"/>
       <c r="R4" s="46"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5" s="20" t="s">
         <v>186</v>
       </c>
@@ -4870,7 +4869,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -4907,7 +4906,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -4944,7 +4943,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -4958,7 +4957,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
         <v>85</v>
       </c>
@@ -4972,7 +4971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
         <v>87</v>
       </c>
@@ -4986,7 +4985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
         <v>106</v>
       </c>
@@ -5000,7 +4999,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
         <v>108</v>
       </c>
@@ -5014,7 +5013,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -5028,7 +5027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
         <v>139</v>
       </c>
@@ -5042,7 +5041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
         <v>140</v>
       </c>
@@ -5056,7 +5055,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="64.5" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>109</v>
       </c>
@@ -5073,7 +5072,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>52</v>
       </c>
@@ -5087,7 +5086,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
@@ -5101,7 +5100,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>113</v>
       </c>
@@ -5115,7 +5114,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>146</v>
       </c>
@@ -5141,11 +5140,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7920C411-EA90-40BF-87D0-8A7E5345C20C}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="51.6640625" style="5" customWidth="1"/>
@@ -5162,7 +5161,7 @@
     <col min="13" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15" thickBot="1">
       <c r="A1" s="37" t="s">
         <v>186</v>
       </c>
@@ -5203,12 +5202,12 @@
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="15" thickBot="1">
       <c r="A2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>503</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>504</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>473</v>
@@ -5220,7 +5219,7 @@
         <v>481</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G2" s="42"/>
       <c r="H2" s="42"/>
@@ -5230,7 +5229,7 @@
       <c r="L2" s="34"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1">
       <c r="A3" s="34" t="s">
         <v>29</v>
       </c>
@@ -5254,18 +5253,18 @@
         <v>438</v>
       </c>
       <c r="I3" s="34" t="s">
+        <v>496</v>
+      </c>
+      <c r="J3" s="34" t="s">
         <v>497</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>498</v>
       </c>
       <c r="K3" s="34"/>
       <c r="L3" s="34"/>
       <c r="M3" s="45" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="24" customHeight="1" thickBot="1">
       <c r="A4" s="34" t="s">
         <v>46</v>
       </c>
@@ -5298,7 +5297,7 @@
       <c r="L4" s="34"/>
       <c r="M4" s="45"/>
     </row>
-    <row r="5" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="24" customHeight="1" thickBot="1">
       <c r="A5" s="34" t="s">
         <v>215</v>
       </c>
@@ -5322,16 +5321,16 @@
         <v>438</v>
       </c>
       <c r="I5" s="34" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J5" s="34" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K5" s="34"/>
       <c r="L5" s="34"/>
       <c r="M5" s="45"/>
     </row>
-    <row r="6" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="24" customHeight="1" thickBot="1">
       <c r="A6" s="34" t="s">
         <v>428</v>
       </c>
@@ -5355,7 +5354,7 @@
         <v>438</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J6" s="34" t="s">
         <v>447</v>
@@ -5364,7 +5363,7 @@
       <c r="L6" s="34"/>
       <c r="M6" s="45"/>
     </row>
-    <row r="7" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="24" customHeight="1" thickBot="1">
       <c r="A7" s="34" t="s">
         <v>430</v>
       </c>
@@ -5397,7 +5396,7 @@
       <c r="L7" s="34"/>
       <c r="M7" s="45"/>
     </row>
-    <row r="8" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="24" customHeight="1" thickBot="1">
       <c r="A8" s="34" t="s">
         <v>12</v>
       </c>
@@ -5430,7 +5429,7 @@
       <c r="L8" s="34"/>
       <c r="M8" s="45"/>
     </row>
-    <row r="9" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="24" customHeight="1" thickBot="1">
       <c r="A9" s="34" t="s">
         <v>484</v>
       </c>
@@ -5459,7 +5458,7 @@
       <c r="L9" s="34"/>
       <c r="M9" s="45"/>
     </row>
-    <row r="10" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="24" customHeight="1" thickBot="1">
       <c r="A10" s="34" t="s">
         <v>486</v>
       </c>
@@ -5483,16 +5482,16 @@
         <v>438</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
       <c r="M10" s="45"/>
     </row>
-    <row r="11" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="24" customHeight="1" thickBot="1">
       <c r="A11" s="34" t="s">
         <v>488</v>
       </c>
@@ -5516,18 +5515,18 @@
         <v>438</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K11" s="34"/>
       <c r="L11" s="34" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="M11" s="45"/>
     </row>
-    <row r="12" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="24" customHeight="1" thickBot="1">
       <c r="A12" s="34" t="s">
         <v>490</v>
       </c>
@@ -5556,7 +5555,7 @@
       <c r="L12" s="34"/>
       <c r="M12" s="45"/>
     </row>
-    <row r="13" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="24" customHeight="1" thickBot="1">
       <c r="A13" s="34" t="s">
         <v>492</v>
       </c>
@@ -5585,7 +5584,7 @@
       <c r="L13" s="34"/>
       <c r="M13" s="45"/>
     </row>
-    <row r="14" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="24" customHeight="1" thickBot="1">
       <c r="A14" s="39" t="s">
         <v>494</v>
       </c>
@@ -5614,7 +5613,7 @@
       <c r="L14" s="34"/>
       <c r="M14" s="45"/>
     </row>
-    <row r="15" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="24" customHeight="1" thickBot="1">
       <c r="A15" s="34" t="s">
         <v>109</v>
       </c>
@@ -5639,7 +5638,7 @@
       <c r="L15" s="34"/>
       <c r="M15" s="45"/>
     </row>
-    <row r="16" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="24" customHeight="1" thickBot="1">
       <c r="A16" s="39" t="s">
         <v>478</v>
       </c>
@@ -5683,7 +5682,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.88671875" style="5" bestFit="1" customWidth="1"/>
@@ -5706,7 +5705,7 @@
     <col min="22" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" s="20" t="s">
         <v>186</v>
       </c>
@@ -5753,7 +5752,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -5787,7 +5786,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5821,7 +5820,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -5832,7 +5831,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>85</v>
       </c>
@@ -5843,7 +5842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>87</v>
       </c>
@@ -5854,7 +5853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>141</v>
       </c>
@@ -5865,7 +5864,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>142</v>
       </c>
@@ -5876,7 +5875,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>73</v>
       </c>
@@ -5887,7 +5886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>74</v>
       </c>
@@ -5898,7 +5897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
@@ -5909,7 +5908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>76</v>
       </c>
@@ -5920,7 +5919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>68</v>
       </c>
@@ -5931,7 +5930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
@@ -5942,7 +5941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
         <v>238</v>
       </c>
@@ -5953,7 +5952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
         <v>63</v>
       </c>
@@ -5964,7 +5963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
@@ -5975,7 +5974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>65</v>
       </c>
@@ -5986,7 +5985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>66</v>
       </c>
@@ -5997,7 +5996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>67</v>
       </c>
@@ -6008,7 +6007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>69</v>
       </c>
@@ -6019,7 +6018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>71</v>
       </c>
@@ -6030,7 +6029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>70</v>
       </c>
@@ -6041,7 +6040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>72</v>
       </c>
@@ -6052,7 +6051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>146</v>
       </c>
@@ -6074,7 +6073,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="5" bestFit="1" customWidth="1"/>
@@ -6092,7 +6091,7 @@
     <col min="14" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" s="20" t="s">
         <v>186</v>
       </c>
@@ -6139,7 +6138,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -6173,7 +6172,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6207,7 +6206,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -6219,7 +6218,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>85</v>
       </c>
@@ -6230,7 +6229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>87</v>
       </c>
@@ -6241,7 +6240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>141</v>
       </c>
@@ -6252,7 +6251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>142</v>
       </c>
@@ -6263,7 +6262,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>77</v>
       </c>
@@ -6274,7 +6273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>78</v>
       </c>
@@ -6285,7 +6284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>63</v>
       </c>
@@ -6296,7 +6295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>80</v>
       </c>
@@ -6307,7 +6306,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>79</v>
       </c>
@@ -6318,7 +6317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
         <v>81</v>
       </c>
@@ -6329,7 +6328,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
         <v>146</v>
       </c>
@@ -6353,7 +6352,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="7" max="7" width="31.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
@@ -6361,7 +6360,7 @@
     <col min="11" max="11" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="7:10">
       <c r="G2" s="30" t="s">
         <v>193</v>
       </c>
@@ -6375,7 +6374,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="3" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="7:10">
       <c r="G3" s="1" t="s">
         <v>403</v>
       </c>
@@ -6389,7 +6388,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="4" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="7:10">
       <c r="G4" s="1" t="s">
         <v>404</v>
       </c>
@@ -6403,7 +6402,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="5" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="7:10">
       <c r="G5" s="1" t="s">
         <v>405</v>
       </c>
@@ -6417,7 +6416,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="6" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="7:10">
       <c r="G6" s="1" t="s">
         <v>406</v>
       </c>
@@ -6431,7 +6430,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="7" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="7:10">
       <c r="G7" s="1" t="s">
         <v>407</v>
       </c>
@@ -6445,7 +6444,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="8" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="7:10">
       <c r="G8" s="1" t="s">
         <v>408</v>
       </c>
@@ -6459,7 +6458,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="9" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="7:10">
       <c r="G9" s="1" t="s">
         <v>409</v>
       </c>
@@ -6473,7 +6472,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="10" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="7:10">
       <c r="G10" s="1" t="s">
         <v>410</v>
       </c>
@@ -6487,7 +6486,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="11" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="7:10">
       <c r="G11" s="1" t="s">
         <v>411</v>
       </c>
@@ -6501,7 +6500,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="12" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="7:10">
       <c r="G12" s="1" t="s">
         <v>412</v>
       </c>
@@ -6515,7 +6514,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="13" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="7:10">
       <c r="G13" s="1" t="s">
         <v>413</v>
       </c>
@@ -6529,7 +6528,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="14" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="7:10">
       <c r="G14" s="1" t="s">
         <v>414</v>
       </c>
@@ -6543,7 +6542,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="15" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="7:10">
       <c r="G15" s="1" t="s">
         <v>415</v>
       </c>
@@ -6570,7 +6569,7 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -6623,7 +6622,7 @@
     <col min="59" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>356</v>
       </c>
@@ -6667,7 +6666,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39">
       <c r="A2" s="1" t="s">
         <v>355</v>
       </c>
@@ -6711,7 +6710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39">
       <c r="B3" s="20" t="s">
         <v>128</v>
       </c>
@@ -6791,7 +6790,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -6871,7 +6870,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -6951,7 +6950,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39">
       <c r="B6" s="7" t="s">
         <v>85</v>
       </c>
@@ -7031,7 +7030,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39">
       <c r="B7" s="7" t="s">
         <v>87</v>
       </c>
@@ -7111,7 +7110,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -7191,7 +7190,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39">
       <c r="B9" s="1" t="s">
         <v>37</v>
       </c>
@@ -7271,7 +7270,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39">
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
@@ -7351,7 +7350,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39">
       <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
@@ -7431,7 +7430,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39">
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
@@ -7511,7 +7510,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39">
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
@@ -7591,7 +7590,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39">
       <c r="B14" s="9" t="s">
         <v>0</v>
       </c>
@@ -7665,7 +7664,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39">
       <c r="B15" s="9" t="s">
         <v>1</v>
       </c>
@@ -7727,7 +7726,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39">
       <c r="B16" s="9" t="s">
         <v>2</v>
       </c>
@@ -7789,7 +7788,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:33">
       <c r="B17" s="9" t="s">
         <v>3</v>
       </c>
@@ -7845,7 +7844,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:33">
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
@@ -7895,7 +7894,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:33">
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
@@ -7933,7 +7932,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:33">
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
@@ -7965,7 +7964,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:33">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
@@ -7991,7 +7990,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:33">
       <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
@@ -8017,7 +8016,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:33">
       <c r="B23" s="1" t="s">
         <v>49</v>
       </c>
@@ -8043,7 +8042,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:33">
       <c r="B24" s="1" t="s">
         <v>32</v>
       </c>
@@ -8069,7 +8068,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:33">
       <c r="B25" s="1" t="s">
         <v>33</v>
       </c>
@@ -8095,7 +8094,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:33">
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
@@ -8121,7 +8120,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:33">
       <c r="B27" s="1" t="s">
         <v>396</v>
       </c>
@@ -8147,7 +8146,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:33">
       <c r="B28" s="1" t="s">
         <v>123</v>
       </c>
@@ -8161,62 +8160,62 @@
         <v>172</v>
       </c>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:33">
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:33">
       <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:33">
       <c r="B31" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:33">
       <c r="B32" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:40">
       <c r="B33" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:40">
       <c r="B34" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:40">
       <c r="B35" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:40">
       <c r="B36" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:40">
       <c r="B37" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:40">
       <c r="B38" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:40">
       <c r="B39" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:40">
       <c r="B40" s="1" t="s">
         <v>146</v>
       </c>
@@ -8224,7 +8223,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:40">
       <c r="C42" s="21"/>
       <c r="D42" s="21"/>
       <c r="J42" s="21"/>
@@ -8249,11 +8248,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="92.44140625" style="1" customWidth="1"/>
@@ -8272,7 +8271,7 @@
     <col min="15" max="16384" width="11.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="25.8" customHeight="1" thickBot="1">
       <c r="A1" s="33" t="s">
         <v>186</v>
       </c>
@@ -8313,12 +8312,12 @@
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="25.8" customHeight="1" thickBot="1">
       <c r="A2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>503</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>504</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>473</v>
@@ -8330,7 +8329,7 @@
         <v>481</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G2" s="42"/>
       <c r="H2" s="42"/>
@@ -8342,7 +8341,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="22.2" customHeight="1" thickBot="1">
       <c r="A3" s="34" t="s">
         <v>29</v>
       </c>
@@ -8377,7 +8376,7 @@
       </c>
       <c r="M3" s="45"/>
     </row>
-    <row r="4" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="29.4" thickBot="1">
       <c r="A4" s="34" t="s">
         <v>46</v>
       </c>
@@ -8385,7 +8384,7 @@
         <v>470</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D4" s="34">
         <v>20</v>
@@ -8412,7 +8411,7 @@
       </c>
       <c r="M4" s="45"/>
     </row>
-    <row r="5" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="21" customHeight="1" thickBot="1">
       <c r="A5" s="34" t="s">
         <v>0</v>
       </c>
@@ -8420,7 +8419,7 @@
         <v>422</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D5" s="34">
         <v>20</v>
@@ -8447,7 +8446,7 @@
       </c>
       <c r="M5" s="45"/>
     </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="15" thickBot="1">
       <c r="A6" s="34" t="s">
         <v>423</v>
       </c>
@@ -8480,7 +8479,7 @@
       <c r="L6" s="34"/>
       <c r="M6" s="45"/>
     </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="15" thickBot="1">
       <c r="A7" s="34" t="s">
         <v>425</v>
       </c>
@@ -8513,7 +8512,7 @@
       <c r="L7" s="34"/>
       <c r="M7" s="45"/>
     </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="15" thickBot="1">
       <c r="A8" s="34" t="s">
         <v>215</v>
       </c>
@@ -8546,7 +8545,7 @@
       <c r="L8" s="34"/>
       <c r="M8" s="45"/>
     </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="15" thickBot="1">
       <c r="A9" s="34" t="s">
         <v>428</v>
       </c>
@@ -8579,7 +8578,7 @@
       <c r="L9" s="34"/>
       <c r="M9" s="45"/>
     </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="15" thickBot="1">
       <c r="A10" s="34" t="s">
         <v>430</v>
       </c>
@@ -8612,7 +8611,7 @@
       <c r="L10" s="34"/>
       <c r="M10" s="45"/>
     </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="15" thickBot="1">
       <c r="A11" s="34" t="s">
         <v>432</v>
       </c>
@@ -8645,7 +8644,7 @@
       <c r="L11" s="34"/>
       <c r="M11" s="45"/>
     </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="15" thickBot="1">
       <c r="A12" s="34" t="s">
         <v>435</v>
       </c>
@@ -8678,7 +8677,7 @@
       <c r="L12" s="34"/>
       <c r="M12" s="45"/>
     </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="15" thickBot="1">
       <c r="A13" s="34" t="s">
         <v>43</v>
       </c>
@@ -8686,7 +8685,7 @@
         <v>217</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D13" s="34">
         <v>500</v>
@@ -8711,7 +8710,7 @@
       <c r="L13" s="34"/>
       <c r="M13" s="45"/>
     </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="15" thickBot="1">
       <c r="A14" s="34" t="s">
         <v>44</v>
       </c>
@@ -8719,7 +8718,7 @@
         <v>218</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D14" s="34">
         <v>260</v>
@@ -8744,7 +8743,7 @@
       <c r="L14" s="34"/>
       <c r="M14" s="45"/>
     </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="15" thickBot="1">
       <c r="A15" s="34" t="s">
         <v>47</v>
       </c>
@@ -8777,7 +8776,7 @@
       <c r="L15" s="34"/>
       <c r="M15" s="45"/>
     </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="15" thickBot="1">
       <c r="A16" s="34" t="s">
         <v>48</v>
       </c>
@@ -8810,7 +8809,7 @@
       <c r="L16" s="34"/>
       <c r="M16" s="45"/>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="15" thickBot="1">
       <c r="A17" s="34" t="s">
         <v>55</v>
       </c>
@@ -8843,7 +8842,7 @@
       <c r="L17" s="34"/>
       <c r="M17" s="45"/>
     </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="15" thickBot="1">
       <c r="A18" s="34" t="s">
         <v>56</v>
       </c>
@@ -8876,7 +8875,7 @@
       <c r="L18" s="34"/>
       <c r="M18" s="45"/>
     </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="15" thickBot="1">
       <c r="A19" s="34" t="s">
         <v>12</v>
       </c>
@@ -8884,7 +8883,7 @@
         <v>221</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D19" s="34">
         <v>25</v>
@@ -8909,15 +8908,15 @@
       <c r="L19" s="34"/>
       <c r="M19" s="45"/>
     </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="15" thickBot="1">
       <c r="A20" s="34" t="s">
         <v>361</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D20" s="34">
         <v>20</v>
@@ -8934,15 +8933,15 @@
       <c r="L20" s="34"/>
       <c r="M20" s="45"/>
     </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="15" thickBot="1">
       <c r="A21" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="B21" s="34" t="s">
         <v>507</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="C21" s="34" t="s">
         <v>508</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>510</v>
       </c>
       <c r="D21" s="34">
         <v>20</v>
@@ -8959,7 +8958,7 @@
       <c r="L21" s="34"/>
       <c r="M21" s="45"/>
     </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="15" thickBot="1">
       <c r="A22" s="34" t="s">
         <v>109</v>
       </c>
@@ -8967,7 +8966,7 @@
         <v>469</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D22" s="34">
         <v>30</v>
@@ -8984,7 +8983,7 @@
       <c r="L22" s="34"/>
       <c r="M22" s="45"/>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="15" thickBot="1">
       <c r="A23" s="34" t="s">
         <v>478</v>
       </c>
@@ -9025,11 +9024,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA049C64-FDE3-4EE7-B0ED-E66E2C366047}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="109" style="1" bestFit="1" customWidth="1"/>
@@ -9047,7 +9046,7 @@
     <col min="14" max="16384" width="11.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="25.8" customHeight="1" thickBot="1">
       <c r="A1" s="33" t="s">
         <v>186</v>
       </c>
@@ -9088,12 +9087,12 @@
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="25.8" customHeight="1" thickBot="1">
       <c r="A2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>503</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>504</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>473</v>
@@ -9105,7 +9104,7 @@
         <v>481</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G2" s="42"/>
       <c r="H2" s="42"/>
@@ -9114,10 +9113,10 @@
       <c r="K2" s="34"/>
       <c r="L2" s="34"/>
       <c r="M2" s="44" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="22.2" customHeight="1" thickBot="1">
       <c r="A3" s="34" t="s">
         <v>29</v>
       </c>
@@ -9152,7 +9151,7 @@
       </c>
       <c r="M3" s="45"/>
     </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="15" thickBot="1">
       <c r="A4" s="34" t="s">
         <v>46</v>
       </c>
@@ -9160,7 +9159,7 @@
         <v>216</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D4" s="34">
         <v>20</v>
@@ -9185,7 +9184,7 @@
       <c r="L4" s="36"/>
       <c r="M4" s="45"/>
     </row>
-    <row r="5" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="21" customHeight="1" thickBot="1">
       <c r="A5" s="34" t="s">
         <v>0</v>
       </c>
@@ -9193,7 +9192,7 @@
         <v>422</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D5" s="34">
         <v>20</v>
@@ -9218,7 +9217,7 @@
       <c r="L5" s="36"/>
       <c r="M5" s="45"/>
     </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="15" thickBot="1">
       <c r="A6" s="34" t="s">
         <v>423</v>
       </c>
@@ -9251,7 +9250,7 @@
       <c r="L6" s="34"/>
       <c r="M6" s="45"/>
     </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="15" thickBot="1">
       <c r="A7" s="34" t="s">
         <v>425</v>
       </c>
@@ -9284,7 +9283,7 @@
       <c r="L7" s="34"/>
       <c r="M7" s="45"/>
     </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="15" thickBot="1">
       <c r="A8" s="34" t="s">
         <v>215</v>
       </c>
@@ -9317,7 +9316,7 @@
       <c r="L8" s="34"/>
       <c r="M8" s="45"/>
     </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="15" thickBot="1">
       <c r="A9" s="34" t="s">
         <v>428</v>
       </c>
@@ -9350,7 +9349,7 @@
       <c r="L9" s="34"/>
       <c r="M9" s="45"/>
     </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="15" thickBot="1">
       <c r="A10" s="34" t="s">
         <v>430</v>
       </c>
@@ -9383,7 +9382,7 @@
       <c r="L10" s="34"/>
       <c r="M10" s="45"/>
     </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="15" thickBot="1">
       <c r="A11" s="34" t="s">
         <v>432</v>
       </c>
@@ -9416,7 +9415,7 @@
       <c r="L11" s="34"/>
       <c r="M11" s="45"/>
     </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="15" thickBot="1">
       <c r="A12" s="34" t="s">
         <v>435</v>
       </c>
@@ -9449,7 +9448,7 @@
       <c r="L12" s="34"/>
       <c r="M12" s="45"/>
     </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="15" thickBot="1">
       <c r="A13" s="34" t="s">
         <v>43</v>
       </c>
@@ -9457,7 +9456,7 @@
         <v>217</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D13" s="34">
         <v>500</v>
@@ -9472,7 +9471,7 @@
       <c r="L13" s="34"/>
       <c r="M13" s="45"/>
     </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="15" thickBot="1">
       <c r="A14" s="34" t="s">
         <v>44</v>
       </c>
@@ -9480,7 +9479,7 @@
         <v>218</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D14" s="34">
         <v>260</v>
@@ -9505,7 +9504,7 @@
       <c r="L14" s="34"/>
       <c r="M14" s="45"/>
     </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="15" thickBot="1">
       <c r="A15" s="34" t="s">
         <v>47</v>
       </c>
@@ -9538,7 +9537,7 @@
       <c r="L15" s="34"/>
       <c r="M15" s="45"/>
     </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="15" thickBot="1">
       <c r="A16" s="34" t="s">
         <v>48</v>
       </c>
@@ -9571,7 +9570,7 @@
       <c r="L16" s="34"/>
       <c r="M16" s="45"/>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="15" thickBot="1">
       <c r="A17" s="34" t="s">
         <v>55</v>
       </c>
@@ -9604,7 +9603,7 @@
       <c r="L17" s="34"/>
       <c r="M17" s="45"/>
     </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="15" thickBot="1">
       <c r="A18" s="34" t="s">
         <v>56</v>
       </c>
@@ -9637,7 +9636,7 @@
       <c r="L18" s="34"/>
       <c r="M18" s="45"/>
     </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="15" thickBot="1">
       <c r="A19" s="34" t="s">
         <v>460</v>
       </c>
@@ -9670,7 +9669,7 @@
       <c r="L19" s="34"/>
       <c r="M19" s="45"/>
     </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="15" thickBot="1">
       <c r="A20" s="34" t="s">
         <v>461</v>
       </c>
@@ -9703,7 +9702,7 @@
       <c r="L20" s="34"/>
       <c r="M20" s="45"/>
     </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="15" thickBot="1">
       <c r="A21" s="34" t="s">
         <v>12</v>
       </c>
@@ -9711,7 +9710,7 @@
         <v>221</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D21" s="34">
         <v>25</v>
@@ -9736,15 +9735,15 @@
       <c r="L21" s="34"/>
       <c r="M21" s="45"/>
     </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="15" thickBot="1">
       <c r="A22" s="34" t="s">
         <v>361</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D22" s="34">
         <v>20</v>
@@ -9761,15 +9760,15 @@
       <c r="L22" s="34"/>
       <c r="M22" s="45"/>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="15" thickBot="1">
       <c r="A23" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="B23" s="34" t="s">
         <v>507</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="C23" s="34" t="s">
         <v>508</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>510</v>
       </c>
       <c r="D23" s="34">
         <v>20</v>
@@ -9786,7 +9785,7 @@
       <c r="L23" s="34"/>
       <c r="M23" s="45"/>
     </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="15" thickBot="1">
       <c r="A24" s="34" t="s">
         <v>109</v>
       </c>
@@ -9794,7 +9793,7 @@
         <v>469</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D24" s="34">
         <v>30</v>
@@ -9811,7 +9810,7 @@
       <c r="L24" s="34"/>
       <c r="M24" s="45"/>
     </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="15" thickBot="1">
       <c r="A25" s="34" t="s">
         <v>478</v>
       </c>
@@ -9854,7 +9853,7 @@
       <selection activeCell="A17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="106.88671875" style="5" bestFit="1" customWidth="1"/>
@@ -9876,7 +9875,7 @@
     <col min="18" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -9926,7 +9925,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="2">
         <v>44593</v>
       </c>
@@ -9976,7 +9975,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="I4" s="46" t="s">
         <v>402</v>
       </c>
@@ -9989,7 +9988,7 @@
       <c r="P4" s="46"/>
       <c r="Q4" s="46"/>
     </row>
-    <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="27.6">
       <c r="A5" s="20" t="s">
         <v>186</v>
       </c>
@@ -10042,7 +10041,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -10079,7 +10078,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -10116,7 +10115,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -10130,7 +10129,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>85</v>
       </c>
@@ -10144,7 +10143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>87</v>
       </c>
@@ -10158,7 +10157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -10172,7 +10171,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>139</v>
       </c>
@@ -10186,7 +10185,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>140</v>
       </c>
@@ -10200,7 +10199,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
@@ -10214,7 +10213,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
@@ -10228,7 +10227,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
@@ -10242,7 +10241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
@@ -10256,7 +10255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
@@ -10270,7 +10269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -10284,7 +10283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -10298,7 +10297,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>146</v>
       </c>
@@ -10328,7 +10327,7 @@
       <selection activeCell="A5" sqref="A5:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="106.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -10350,7 +10349,7 @@
     <col min="18" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
@@ -10385,7 +10384,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -10420,7 +10419,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="I3" s="46" t="s">
         <v>402</v>
       </c>
@@ -10433,7 +10432,7 @@
       <c r="P3" s="46"/>
       <c r="Q3" s="46"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4" s="20" t="s">
         <v>186</v>
       </c>
@@ -10486,7 +10485,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>118</v>
       </c>
@@ -10521,7 +10520,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -10559,7 +10558,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -10573,7 +10572,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -10587,7 +10586,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -10601,7 +10600,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>85</v>
       </c>
@@ -10615,7 +10614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>87</v>
       </c>
@@ -10629,7 +10628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>119</v>
       </c>
@@ -10643,7 +10642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>120</v>
       </c>
@@ -10657,7 +10656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>121</v>
       </c>
@@ -10671,7 +10670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
         <v>146</v>
       </c>
@@ -10701,7 +10700,7 @@
       <selection activeCell="A5" sqref="A5:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="106.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -10723,7 +10722,7 @@
     <col min="18" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
@@ -10758,7 +10757,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -10793,7 +10792,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="I3" s="46" t="s">
         <v>402</v>
       </c>
@@ -10806,7 +10805,7 @@
       <c r="P3" s="46"/>
       <c r="Q3" s="46"/>
     </row>
-    <row r="4" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="27.6">
       <c r="A4" s="20" t="s">
         <v>186</v>
       </c>
@@ -10859,7 +10858,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>123</v>
       </c>
@@ -10894,7 +10893,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -10932,7 +10931,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>101</v>
       </c>
@@ -10946,7 +10945,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -10960,7 +10959,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -10974,7 +10973,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>85</v>
       </c>
@@ -10988,7 +10987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>87</v>
       </c>
@@ -11002,7 +11001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>125</v>
       </c>
@@ -11016,7 +11015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>127</v>
       </c>
@@ -11030,7 +11029,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>121</v>
       </c>
@@ -11044,7 +11043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
         <v>146</v>
       </c>
@@ -11058,10 +11057,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:5">
       <c r="E17" s="25"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:5">
       <c r="E18" s="24"/>
     </row>
   </sheetData>
@@ -11083,7 +11082,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="106.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -11102,7 +11101,7 @@
     <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" s="20" t="s">
         <v>186</v>
       </c>
@@ -11149,7 +11148,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -11181,7 +11180,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -11213,7 +11212,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -11224,7 +11223,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>85</v>
       </c>
@@ -11235,7 +11234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>87</v>
       </c>
@@ -11246,7 +11245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -11257,7 +11256,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>114</v>
       </c>
@@ -11268,7 +11267,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
@@ -11279,7 +11278,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -11290,7 +11289,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="18" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
@@ -11301,7 +11300,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="49.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="49.35" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>115</v>
       </c>
@@ -11316,7 +11315,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="49.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="49.65" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>116</v>
       </c>
@@ -11330,7 +11329,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
         <v>45</v>
       </c>
@@ -11341,7 +11340,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
         <v>117</v>
       </c>
@@ -11352,7 +11351,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
         <v>146</v>
       </c>
@@ -11376,7 +11375,7 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -11405,7 +11404,7 @@
     <col min="25" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
@@ -11479,7 +11478,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -11553,7 +11552,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24">
       <c r="I3" s="26"/>
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
@@ -11563,7 +11562,7 @@
       <c r="O3" s="27"/>
       <c r="P3" s="16"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24">
       <c r="I4" s="46" t="s">
         <v>402</v>
       </c>
@@ -11576,7 +11575,7 @@
       <c r="P4" s="46"/>
       <c r="Q4" s="46"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24">
       <c r="A5" s="20" t="s">
         <v>186</v>
       </c>
@@ -11629,7 +11628,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24">
       <c r="A6" s="1" t="s">
         <v>85</v>
       </c>
@@ -11664,7 +11663,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24">
       <c r="A7" s="1" t="s">
         <v>87</v>
       </c>
@@ -11699,7 +11698,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24">
       <c r="A8" s="1" t="s">
         <v>86</v>
       </c>
@@ -11713,7 +11712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -11727,7 +11726,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="23.4" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -11741,7 +11740,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24">
       <c r="A11" s="1" t="s">
         <v>89</v>
       </c>
@@ -11755,7 +11754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24">
       <c r="A12" s="1" t="s">
         <v>91</v>
       </c>
@@ -11769,7 +11768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24">
       <c r="A13" s="1" t="s">
         <v>280</v>
       </c>
@@ -11783,7 +11782,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24">
       <c r="A14" s="1" t="s">
         <v>281</v>
       </c>
@@ -11797,7 +11796,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24">
       <c r="A15" s="1" t="s">
         <v>282</v>
       </c>
@@ -11811,7 +11810,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24">
       <c r="A16" s="1" t="s">
         <v>283</v>
       </c>
@@ -11825,7 +11824,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>284</v>
       </c>
@@ -11839,7 +11838,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>285</v>
       </c>
@@ -11853,7 +11852,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>295</v>
       </c>
@@ -11867,7 +11866,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>286</v>
       </c>
@@ -11881,7 +11880,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>287</v>
       </c>
@@ -11895,7 +11894,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>288</v>
       </c>
@@ -11909,7 +11908,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>289</v>
       </c>
@@ -11923,7 +11922,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>290</v>
       </c>
@@ -11937,7 +11936,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>291</v>
       </c>
@@ -11951,7 +11950,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>292</v>
       </c>
@@ -11965,7 +11964,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>294</v>
       </c>
@@ -11979,7 +11978,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>293</v>
       </c>
@@ -11993,7 +11992,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>146</v>
       </c>

--- a/Documentos/Mapeamento das Fontes de Dados/OLOS/MAPEAMENTO_OLOS.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/OLOS/MAPEAMENTO_OLOS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\04 - PROJETOS\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\OLOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\04 - PROJETOS\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\OLOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F0AFBC-F448-44E8-947E-9E9EF2130912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACD8038-00A9-4D86-AA1F-6600C4560DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="766" firstSheet="2" activeTab="13" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="766" firstSheet="2" activeTab="16" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -28,8 +28,9 @@
     <sheet name="PAGAMENTOS" sheetId="8" state="hidden" r:id="rId13"/>
     <sheet name="PESQUISA_SATISFACAO" sheetId="5" r:id="rId14"/>
     <sheet name="TEMPOS" sheetId="4" r:id="rId15"/>
-    <sheet name="PAUSAS" sheetId="13" state="hidden" r:id="rId16"/>
-    <sheet name="DEADLINE" sheetId="19" state="hidden" r:id="rId17"/>
+    <sheet name="TEMPOS CAMPANHAS" sheetId="21" r:id="rId16"/>
+    <sheet name="PAUSAS" sheetId="13" r:id="rId17"/>
+    <sheet name="DEADLINE" sheetId="19" state="hidden" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2412" uniqueCount="545">
   <si>
     <t>CPF</t>
   </si>
@@ -1201,9 +1202,6 @@
   </si>
   <si>
     <t>DATE,DATETIME</t>
-  </si>
-  <si>
-    <t>PAUSAS, PAUSE</t>
   </si>
   <si>
     <t>TBACORDO, TB_CONTRACTS</t>
@@ -1746,6 +1744,320 @@
  LEFT JOIN Campaign B with (nolock) on a.Campaignld = b.Campaignld
  LEFT JOIN AttemptsRawData c WITH (nolock) on a.CallidTelecom = c.CallIdTelecom</t>
   </si>
+  <si>
+    <t xml:space="preserve">CAST(StartState AS DATE) </t>
+  </si>
+  <si>
+    <t>LOGIN_DISCADOR_OPERADOR</t>
+  </si>
+  <si>
+    <t>QTD_LOGIN</t>
+  </si>
+  <si>
+    <t>QTD_LOGOUT</t>
+  </si>
+  <si>
+    <t>DATETIME DO LOGIN DO OPERADOR EM FORMATO DE DATA</t>
+  </si>
+  <si>
+    <t>ID IDENTIFICADOR DA CAMPANHA</t>
+  </si>
+  <si>
+    <t>NOME DESCRIPTION DO ID DA CAMPANHA</t>
+  </si>
+  <si>
+    <t>LOGIN DE CADASTRO PELO CONTROL DO OPERADOR</t>
+  </si>
+  <si>
+    <t>NOME COMPLETO DO OPERADOR</t>
+  </si>
+  <si>
+    <t>LOGIN_DISCADOR_SUPERVISOR</t>
+  </si>
+  <si>
+    <t>LOGIN DE CADASTRO DOS SUPERVISORES</t>
+  </si>
+  <si>
+    <t>StartLogin</t>
+  </si>
+  <si>
+    <t> CAST(StartLogin AS DATE)</t>
+  </si>
+  <si>
+    <t>LoginRawData</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>EndLogin</t>
+  </si>
+  <si>
+    <t>MIN(CONVERT(TIME, StartLogin, 108))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAX(CONVERT(TIME, EndLogin, 108)) </t>
+  </si>
+  <si>
+    <t>AgentStateRawData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	,CASE 
+		WHEN DATEDIFF(SECOND, LAG(EndLogin) OVER (
+					PARTITION BY E.LOGIN ORDER BY StartLogin
+						,EndLogin
+					), StartLogin) &gt;= 0
+			THEN DATEDIFF(SECOND, LAG(EndLogin) OVER (
+						PARTITION BY E.LOGIN ORDER BY StartLogin
+							,EndLogin
+						), StartLogin)
+		ELSE 0
+		END AS TEMPO_DESLOGADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COUNT(StartLogin) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COUNT(EndLogin) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATEDIFF(SECOND, MIN(StartLogin), MAX(EndLogin)) </t>
+  </si>
+  <si>
+    <t> CASE WHEN ([Description] IN ('Talking') AND Callld != 0) THEN 1 ELSE 0 END AS ATENDIDAS</t>
+  </si>
+  <si>
+    <t>CASE WHEN [Description] IN ('Pause') THEN
+            DATEDIFF(SECOND, Agent.StartState, Agent.EndState) 
+        END AS TEMPO_PAUSA</t>
+  </si>
+  <si>
+    <t>CASE WHEN [Description] IN ('Wrap', 'Idle', 'Talking') THEN
+            DATEDIFF(SECOND, Agent.StartState, Agent.EndState) 
+        END AS TEMPO_DISPONIVEL</t>
+  </si>
+  <si>
+    <t>CASE WHEN [Description] IN ('Talking') THEN
+            DATEDIFF(SECOND, Agent.StartState, Agent.EndState) 
+        END AS TEMPO_FALADO</t>
+  </si>
+  <si>
+    <t>CASE WHEN [Description] IN ('Wrap') THEN
+            DATEDIFF(SECOND, Agent.StartState, Agent.EndState) 
+        END AS TEMPO_POS</t>
+  </si>
+  <si>
+    <t>CASE WHEN [Description] IN ('Idle') THEN
+            DATEDIFF(SECOND, Agent.StartState, Agent.EndState) 
+        END AS TEMPO_IDLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (TEMPO_FALADO/ATENDIDAS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (TEMPO_POS/ATENDIDAS)</t>
+  </si>
+  <si>
+    <t>(TEMPO_IDLE/ATENDIDAS)</t>
+  </si>
+  <si>
+    <t>(TMA + TMP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET NOCOUNT ON;
+SET ANSI_WARNINGS OFF;
+DECLARE @dinicio DATETIME = CONVERT(DATETIME, CONVERT(VARCHAR(10), DATEADD(DAY, - 1, GETDATE()), 121) + ' 00:00:00');
+DECLARE @dfim DATETIME = CONVERT(DATETIME, CONVERT(VARCHAR(10), DATEADD(DAY, - 1, GETDATE()), 121) + ' 23:59:00');
+DECLARE @AuxiliarCampanhas TABLE (
+	Agentld INT
+	,Campaignld INT
+	,INDICE INT
+	);
+INSERT INTO @AuxiliarCampanhas
+SELECT DISTINCT Agentld
+	,Campaignld
+	,DENSE_RANK() OVER (
+		PARTITION BY LOG.Agentld ORDER BY LOG.Campaignld
+		) AS ID_NOVO
+FROM LoginRawData LOG WITH (NOLOCK)
+WHERE CAST(StartLogin AS DATE) = CAST(@dinicio AS DATE);
+DECLARE @WORK TABLE (
+	DATA DATE
+	,ID_DISCADOR_OPERADOR INT
+	,LOGIN_DISCADOR_OPERADOR VARCHAR(40)
+	,NOME_DISCADOR_OPERADOR VARCHAR(80)
+	,LOGIN_DISCADOR_SUPERVISOR VARCHAR(80)
+	,LOGIN TIME
+	,LOGOUT TIME
+	,QTD_LOGIN INT
+	,QTD_LOGOUT INT
+	,TEMPO_LOGADO INT
+	,TEMPO_DESLOGADO INT
+    -- , ID_NOVO INT
+    -- , ID_CAMPANHA INT
+    -- , CAMPANHA VARCHAR(100)
+	);
+;WITH Working as (
+SELECT CAST(StartLogin AS DATE) AS DATA
+	,A.Agentld AS ID_DISCADOR_OPERADOR
+	,E.LOGIN AS LOGIN_DISCADOR_OPERADOR
+	,E.UserName AS NOME_DISCADOR_OPERADOR
+	,C_user.UserName AS LOGIN_DISCADOR_SUPERVISOR
+	,MIN(CONVERT(TIME, StartLogin, 108)) AS LOGIN
+	,MAX(CONVERT(TIME, EndLogin, 108)) AS LOGOUT
+	,COUNT(StartLogin) AS QTD_LOGIN
+	,COUNT(EndLogin) AS QTD_LOGOUT
+	,CASE 
+		WHEN DATEDIFF(SECOND, LAG(EndLogin) OVER (
+					PARTITION BY E.LOGIN ORDER BY StartLogin
+						,EndLogin
+					), StartLogin) &gt;= 0
+			THEN DATEDIFF(SECOND, LAG(EndLogin) OVER (
+						PARTITION BY E.LOGIN ORDER BY StartLogin
+							,EndLogin
+						), StartLogin)
+		ELSE 0
+		END AS TEMPO_DESLOGADO
+	-- ,DENSE_RANK() OVER (
+	-- 	PARTITION BY A.Agentld ORDER BY A.Campaignld
+	-- 	) AS ID_NOVO,
+    --     A.Campaignld as ID_CAMPANHA,
+    --     c.[Description] as CAMPANHA
+FROM LoginRawData A
+INNER JOIN Users E WITH (NOLOCK) ON A.Agentld = E.Agentld
+INNER JOIN AgentSupervisor Sup WITH (NOLOCK) ON Sup.AgentId = E.Agentld
+INNER JOIN Users C_user WITH (NOLOCK) ON Sup.SupervisorId = C_user.Agentld
+--INNER JOIN Campaign C WITH (NOLOCK) ON C.Campaignld = A.Campaignld
+WHERE StartLogin BETWEEN @dinicio
+		AND @dfim
+GROUP BY CAST(StartLogin AS DATE)
+	,A.Agentld
+	,E.LOGIN
+	,E.UserName
+	,C_user.UserName ,StartLogin, EndLogin
+)
+INSERT INTO @WORK
+SELECT  
+    W.[DATA]
+    ,W.ID_DISCADOR_OPERADOR
+    ,W.LOGIN_DISCADOR_OPERADOR
+    ,W.NOME_DISCADOR_OPERADOR
+    ,W.LOGIN_DISCADOR_SUPERVISOR
+    ,MIN(W.[LOGIN]) AS LOGIN
+    ,MAX(W.LOGOUT) AS LOGOUT 
+    ,SUM(W.QTD_LOGIN) AS QTD_LOGIN
+    ,SUM(QTD_LOGOUT) AS QTD_LOGOUT
+    ,DATEDIFF(SECOND, MIN(W.[LOGIN]),MAX(W.LOGOUT)) AS TEMPO_LOGADO
+    ,SUM(TEMPO_DESLOGADO) AS TEMPO_DESLOGADO
+FROM Working W 
+GROUP BY W.[DATA]
+    ,W.ID_DISCADOR_OPERADOR
+    ,W.LOGIN_DISCADOR_OPERADOR
+    ,W.NOME_DISCADOR_OPERADOR
+    ,W.LOGIN_DISCADOR_SUPERVISOR;
+DECLARE @Ligacoes TABLE (
+    Agentld INT,
+    TEMPO_FALADO INT,
+    TEMPO_IDLE INT,
+    TEMPO_POS INT,
+    TEMPO_DISPONIVEL INT,
+    TEMPO_PAUSA INT,
+    ATENDIDAS INT
+);
+WITH Calls AS (
+    SELECT 
+        Agent.Agentld,
+        CASE WHEN [Description] IN ('Talking') THEN
+            DATEDIFF(SECOND, Agent.StartState, Agent.EndState) 
+        END AS TEMPO_FALADO,
+        CASE WHEN [Description] IN ('Idle') THEN
+            DATEDIFF(SECOND, Agent.StartState, Agent.EndState) 
+        END AS TEMPO_IDLE,
+        CASE WHEN [Description] IN ('Wrap') THEN
+            DATEDIFF(SECOND, Agent.StartState, Agent.EndState) 
+        END AS TEMPO_POS,
+        CASE WHEN [Description] IN ('Pause') THEN
+            DATEDIFF(SECOND, Agent.StartState, Agent.EndState) 
+        END AS TEMPO_PAUSA,
+        CASE WHEN [Description] IN ('Wrap', 'Idle', 'Talking') THEN
+            DATEDIFF(SECOND, Agent.StartState, Agent.EndState) 
+        END AS TEMPO_DISPONIVEL,
+        CASE WHEN ([Description] IN ('Talking') AND Callld != 0) THEN 1 ELSE 0 END AS ATENDIDAS,
+        CASE 
+            WHEN (
+                LAG(DATEDIFF(SECOND, StartState, EndState)) OVER (
+                    PARTITION BY Agent.Agentld ORDER BY Agent.AgentStateRawDatalD ASC
+                )
+            ) - DATEDIFF(SECOND, StartState, EndState) = 0
+            THEN 0
+            ELSE 1
+        END AS ID
+    FROM AgentStateRawData Agent WITH (NOLOCK)
+    INNER JOIN Info_AgentStatus Info ON Info.AgentStatusId = Agent.AgentStatus
+    WHERE CAST(StartState AS DATE) = CAST(@dinicio AS DATE)
+    --ORDER BY Agent.AgentStateRawDatalD ASC
+)
+INSERT INTO @Ligacoes
+SELECT 
+    Agentld,
+    SUM(TEMPO_FALADO) AS TEMPO_FALADO,
+    SUM(TEMPO_IDLE) AS TEMPO_IDLE,
+    SUM(TEMPO_POS) AS TEMPO_POS,
+    SUM(TEMPO_DISPONIVEL) AS TEMPO_DISPONIVEL,
+    SUM(TEMPO_PAUSA) AS TEMPO_PAUSA,
+    SUM(ATENDIDAS) AS ATENDIDAS
+FROM Calls
+WHERE ID = 1
+GROUP BY Agentld;
+--1142
+SELECT 
+    w.[DATA],
+    C.Campaignld AS ID_CAMPANHA,
+    C.[Description] AS CAMPANHA,
+    w.ID_DISCADOR_OPERADOR,
+    w.LOGIN_DISCADOR_OPERADOR,
+    w.NOME_DISCADOR_OPERADOR,
+    w.LOGIN_DISCADOR_SUPERVISOR,
+    w.[LOGIN] AS LOGIN,
+    w.LOGOUT AS LOGOUT,
+    w.QTD_LOGIN AS QTD_LOGIN,
+    w.QTD_LOGOUT AS QTD_LOGOUT,
+    Calls.ATENDIDAS AS ATENDIDAS,
+    DATEDIFF(SECOND, w.[LOGIN], w.LOGOUT) AS TEMPO_LOGADO,
+    Calls.TEMPO_PAUSA AS TEMPO_PAUSA,
+    w.TEMPO_DESLOGADO AS TEMPO_DESLOGADO,
+    Calls.TEMPO_FALADO AS TEMPO_FALADO,
+    Calls.TEMPO_DISPONIVEL AS TEMPO_DISPONIVEL,
+    Calls.TEMPO_POS AS TEMPO_POS,
+    Calls.TEMPO_IDLE AS TEMPO_IDLE,
+    CASE 
+        WHEN ISNULL(Calls.ATENDIDAS, 0) = 0 THEN 0
+        ELSE ISNULL(Calls.TEMPO_FALADO, 0) / ISNULL(Calls.ATENDIDAS, 0)
+    END AS TMA,
+    CASE 
+        WHEN ISNULL(Calls.ATENDIDAS, 0) = 0 THEN 0
+        ELSE ISNULL(Calls.TEMPO_POS, 0) / ISNULL(Calls.ATENDIDAS, 0)
+    END AS TMP,
+    CASE 
+        WHEN ISNULL(Calls.ATENDIDAS, 0) = 0 THEN 0
+        ELSE ISNULL(Calls.TEMPO_IDLE, 0) / ISNULL(Calls.ATENDIDAS, 0)
+    END AS TME,
+    CASE
+      WHEN ISNULL(ATENDIDAS,0) = 0
+        THEN 0
+        ELSE 
+    (ISNULL(TEMPO_FALADO, 0) / ISNULL(ATENDIDAS, 0)) + (ISNULL(TEMPO_POS, 0) / ISNULL(ATENDIDAS, 0)) END AS TMA,
+	'10.10.220.101' AS INSTANCIA,
+    DB_NAME() AS BANCO,
+    'OLOS' AS ORIGEM
+FROM @WORK w
+INNER JOIN @AuxiliarCampanhas AS AC ON AC.Agentld = w.ID_DISCADOR_OPERADOR
+INNER JOIN Campaign AS C ON C.Campaignld = AC.Campaignld
+INNER JOIN @Ligacoes AS Calls ON Calls.Agentld = w.ID_DISCADOR_OPERADOR
+WHERE w.[DATA] = CAST(@dinicio AS DATE)
+    AND AC.INDICE = 1;
+</t>
+  </si>
 </sst>
 </file>
 
@@ -1755,7 +2067,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1823,8 +2135,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1913,6 +2248,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -2104,7 +2445,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2226,6 +2567,30 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2243,6 +2608,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2565,7 +2939,7 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -2573,7 +2947,7 @@
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>193</v>
       </c>
@@ -2584,67 +2958,67 @@
         <v>344</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2662,7 +3036,7 @@
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -2696,7 +3070,7 @@
     <col min="39" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -2812,7 +3186,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44593</v>
       </c>
@@ -2928,20 +3302,20 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
-      <c r="I4" s="46" t="s">
-        <v>402</v>
-      </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-    </row>
-    <row r="5" spans="1:38" ht="27" customHeight="1">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="I4" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+    </row>
+    <row r="5" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>186</v>
       </c>
@@ -2994,7 +3368,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="27" customHeight="1">
+    <row r="6" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3032,7 +3406,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3070,7 +3444,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="25.95" customHeight="1">
+    <row r="8" spans="1:38" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>85</v>
       </c>
@@ -3087,7 +3461,7 @@
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>87</v>
       </c>
@@ -3101,7 +3475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -3115,7 +3489,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -3129,7 +3503,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -3143,7 +3517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -3157,7 +3531,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -3171,7 +3545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -3185,7 +3559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -3199,7 +3573,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -3213,7 +3587,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -3227,7 +3601,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -3241,7 +3615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -3255,7 +3629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -3269,7 +3643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -3283,7 +3657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -3297,7 +3671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -3311,7 +3685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
@@ -3325,7 +3699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -3339,7 +3713,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -3353,7 +3727,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
@@ -3367,23 +3741,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
@@ -3395,7 +3769,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
@@ -3407,7 +3781,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -3419,7 +3793,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>15</v>
       </c>
@@ -3431,7 +3805,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
@@ -3443,7 +3817,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>17</v>
       </c>
@@ -3455,7 +3829,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>18</v>
       </c>
@@ -3467,7 +3841,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
@@ -3479,7 +3853,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>20</v>
       </c>
@@ -3491,7 +3865,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
@@ -3503,7 +3877,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>22</v>
       </c>
@@ -3515,7 +3889,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>146</v>
       </c>
@@ -3544,7 +3918,7 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55" style="1" bestFit="1" customWidth="1"/>
@@ -3574,7 +3948,7 @@
     <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
@@ -3651,7 +4025,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3728,20 +4102,20 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
-      <c r="I3" s="46" t="s">
-        <v>402</v>
-      </c>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-    </row>
-    <row r="4" spans="1:25" ht="27.6">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I3" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+    </row>
+    <row r="4" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>186</v>
       </c>
@@ -3794,7 +4168,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>84</v>
       </c>
@@ -3808,19 +4182,19 @@
         <v>10</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="L5" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>369</v>
@@ -3829,7 +4203,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3843,19 +4217,19 @@
         <v>50</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="L6" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>369</v>
@@ -3864,7 +4238,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3878,7 +4252,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>85</v>
       </c>
@@ -3892,7 +4266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>87</v>
       </c>
@@ -3906,7 +4280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>147</v>
       </c>
@@ -3920,7 +4294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>148</v>
       </c>
@@ -3934,7 +4308,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
@@ -3948,7 +4322,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -3962,7 +4336,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>144</v>
       </c>
@@ -3979,7 +4353,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>93</v>
       </c>
@@ -3996,7 +4370,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>94</v>
       </c>
@@ -4013,7 +4387,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>95</v>
       </c>
@@ -4030,7 +4404,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>96</v>
       </c>
@@ -4047,7 +4421,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>97</v>
       </c>
@@ -4064,7 +4438,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>98</v>
       </c>
@@ -4081,7 +4455,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -4098,7 +4472,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>100</v>
       </c>
@@ -4115,7 +4489,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>101</v>
       </c>
@@ -4132,7 +4506,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>102</v>
       </c>
@@ -4149,7 +4523,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>103</v>
       </c>
@@ -4166,7 +4540,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>104</v>
       </c>
@@ -4183,7 +4557,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>105</v>
       </c>
@@ -4200,7 +4574,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>145</v>
       </c>
@@ -4217,7 +4591,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>146</v>
       </c>
@@ -4247,7 +4621,7 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="106.88671875" bestFit="1" customWidth="1"/>
@@ -4266,7 +4640,7 @@
     <col min="16" max="16" width="48.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -4307,7 +4681,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44593</v>
       </c>
@@ -4348,7 +4722,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -4363,20 +4737,20 @@
       <c r="L3" s="6"/>
       <c r="M3" s="16"/>
     </row>
-    <row r="4" spans="1:17">
-      <c r="I4" s="46" t="s">
-        <v>402</v>
-      </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-    </row>
-    <row r="5" spans="1:17" ht="27.6">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I4" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+    </row>
+    <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>186</v>
       </c>
@@ -4429,7 +4803,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -4452,10 +4826,10 @@
         <v>373</v>
       </c>
       <c r="L6" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -4466,7 +4840,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -4489,10 +4863,10 @@
         <v>373</v>
       </c>
       <c r="L7" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -4503,7 +4877,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -4517,7 +4891,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>85</v>
       </c>
@@ -4531,7 +4905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>87</v>
       </c>
@@ -4545,7 +4919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>106</v>
       </c>
@@ -4559,7 +4933,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -4573,7 +4947,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>139</v>
       </c>
@@ -4587,7 +4961,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>140</v>
       </c>
@@ -4601,7 +4975,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>52</v>
       </c>
@@ -4615,7 +4989,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>53</v>
       </c>
@@ -4629,7 +5003,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>112</v>
       </c>
@@ -4643,7 +5017,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>146</v>
       </c>
@@ -4673,7 +5047,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.33203125" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="13.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="110.88671875" style="5" bestFit="1" customWidth="1"/>
@@ -4695,7 +5069,7 @@
     <col min="18" max="16384" width="13.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -4742,7 +5116,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44593</v>
       </c>
@@ -4789,7 +5163,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -4803,20 +5177,20 @@
       <c r="N3" s="6"/>
       <c r="O3" s="16"/>
     </row>
-    <row r="4" spans="1:18">
-      <c r="J4" s="46" t="s">
-        <v>402</v>
-      </c>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-    </row>
-    <row r="5" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J4" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>186</v>
       </c>
@@ -4869,7 +5243,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -4892,10 +5266,10 @@
         <v>373</v>
       </c>
       <c r="L6" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -4906,7 +5280,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -4929,10 +5303,10 @@
         <v>373</v>
       </c>
       <c r="L7" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -4943,7 +5317,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -4957,7 +5331,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>85</v>
       </c>
@@ -4971,7 +5345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>87</v>
       </c>
@@ -4985,7 +5359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>106</v>
       </c>
@@ -4999,7 +5373,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>108</v>
       </c>
@@ -5013,7 +5387,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -5027,7 +5401,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>139</v>
       </c>
@@ -5041,7 +5415,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>140</v>
       </c>
@@ -5055,7 +5429,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="64.5" customHeight="1">
+    <row r="16" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>109</v>
       </c>
@@ -5072,7 +5446,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>52</v>
       </c>
@@ -5086,7 +5460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
@@ -5100,7 +5474,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>113</v>
       </c>
@@ -5114,7 +5488,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>146</v>
       </c>
@@ -5140,11 +5514,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7920C411-EA90-40BF-87D0-8A7E5345C20C}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="51.6640625" style="5" customWidth="1"/>
@@ -5161,7 +5535,7 @@
     <col min="13" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="37" t="s">
         <v>186</v>
       </c>
@@ -5199,42 +5573,42 @@
         <v>366</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>502</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>503</v>
-      </c>
       <c r="C2" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D2" s="34">
         <v>19</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>481</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>504</v>
-      </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43"/>
+        <v>480</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>503</v>
+      </c>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
       <c r="K2" s="34"/>
       <c r="L2" s="34"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1">
+    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>345</v>
@@ -5247,32 +5621,32 @@
         <v>92</v>
       </c>
       <c r="G3" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H3" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H3" s="34" t="s">
-        <v>438</v>
-      </c>
       <c r="I3" s="34" t="s">
+        <v>495</v>
+      </c>
+      <c r="J3" s="34" t="s">
         <v>496</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>497</v>
       </c>
       <c r="K3" s="34"/>
       <c r="L3" s="34"/>
-      <c r="M3" s="45" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="24" customHeight="1" thickBot="1">
+      <c r="M3" s="53" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D4" s="34">
         <v>20</v>
@@ -5282,30 +5656,30 @@
         <v>92</v>
       </c>
       <c r="G4" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H4" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="I4" s="34" t="s">
         <v>438</v>
       </c>
-      <c r="I4" s="34" t="s">
-        <v>439</v>
-      </c>
       <c r="J4" s="34" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K4" s="34"/>
       <c r="L4" s="34"/>
-      <c r="M4" s="45"/>
-    </row>
-    <row r="5" spans="1:13" ht="24" customHeight="1" thickBot="1">
+      <c r="M4" s="53"/>
+    </row>
+    <row r="5" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
         <v>215</v>
       </c>
       <c r="B5" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>472</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>473</v>
       </c>
       <c r="D5" s="34">
         <v>19</v>
@@ -5315,30 +5689,30 @@
         <v>92</v>
       </c>
       <c r="G5" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H5" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H5" s="34" t="s">
-        <v>438</v>
-      </c>
       <c r="I5" s="34" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J5" s="34" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K5" s="34"/>
       <c r="L5" s="34"/>
-      <c r="M5" s="45"/>
-    </row>
-    <row r="6" spans="1:13" ht="24" customHeight="1" thickBot="1">
+      <c r="M5" s="53"/>
+    </row>
+    <row r="6" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="B6" s="34" t="s">
         <v>428</v>
       </c>
-      <c r="B6" s="34" t="s">
-        <v>429</v>
-      </c>
       <c r="C6" s="34" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D6" s="34">
         <v>8</v>
@@ -5348,30 +5722,30 @@
         <v>92</v>
       </c>
       <c r="G6" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H6" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H6" s="34" t="s">
-        <v>438</v>
-      </c>
       <c r="I6" s="34" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J6" s="34" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
-      <c r="M6" s="45"/>
-    </row>
-    <row r="7" spans="1:13" ht="24" customHeight="1" thickBot="1">
+      <c r="M6" s="53"/>
+    </row>
+    <row r="7" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D7" s="34">
         <v>200</v>
@@ -5381,22 +5755,22 @@
         <v>92</v>
       </c>
       <c r="G7" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H7" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H7" s="34" t="s">
-        <v>438</v>
-      </c>
       <c r="I7" s="34" t="s">
+        <v>447</v>
+      </c>
+      <c r="J7" s="34" t="s">
         <v>448</v>
-      </c>
-      <c r="J7" s="34" t="s">
-        <v>449</v>
       </c>
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
-      <c r="M7" s="45"/>
-    </row>
-    <row r="8" spans="1:13" ht="24" customHeight="1" thickBot="1">
+      <c r="M7" s="53"/>
+    </row>
+    <row r="8" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
         <v>12</v>
       </c>
@@ -5404,7 +5778,7 @@
         <v>221</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D8" s="34">
         <v>20</v>
@@ -5414,30 +5788,30 @@
         <v>92</v>
       </c>
       <c r="G8" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H8" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="I8" s="34" t="s">
         <v>438</v>
       </c>
-      <c r="I8" s="34" t="s">
-        <v>439</v>
-      </c>
       <c r="J8" s="34" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K8" s="34"/>
       <c r="L8" s="34"/>
-      <c r="M8" s="45"/>
-    </row>
-    <row r="9" spans="1:13" ht="24" customHeight="1" thickBot="1">
+      <c r="M8" s="53"/>
+    </row>
+    <row r="9" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="B9" s="38" t="s">
         <v>484</v>
       </c>
-      <c r="B9" s="38" t="s">
-        <v>485</v>
-      </c>
       <c r="C9" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D9" s="34">
         <v>19</v>
@@ -5447,26 +5821,26 @@
         <v>92</v>
       </c>
       <c r="G9" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H9" s="34" t="s">
         <v>437</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>438</v>
       </c>
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
-      <c r="M9" s="45"/>
-    </row>
-    <row r="10" spans="1:13" ht="24" customHeight="1" thickBot="1">
+      <c r="M9" s="53"/>
+    </row>
+    <row r="10" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="34" t="s">
+        <v>485</v>
+      </c>
+      <c r="B10" s="38" t="s">
         <v>486</v>
       </c>
-      <c r="B10" s="38" t="s">
-        <v>487</v>
-      </c>
       <c r="C10" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D10" s="34">
         <v>50</v>
@@ -5476,30 +5850,30 @@
         <v>92</v>
       </c>
       <c r="G10" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H10" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H10" s="34" t="s">
-        <v>438</v>
-      </c>
       <c r="I10" s="34" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
-      <c r="M10" s="45"/>
-    </row>
-    <row r="11" spans="1:13" ht="24" customHeight="1" thickBot="1">
+      <c r="M10" s="53"/>
+    </row>
+    <row r="11" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="34" t="s">
+        <v>487</v>
+      </c>
+      <c r="B11" s="38" t="s">
         <v>488</v>
       </c>
-      <c r="B11" s="38" t="s">
-        <v>489</v>
-      </c>
       <c r="C11" s="34" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D11" s="34">
         <v>8</v>
@@ -5509,32 +5883,32 @@
         <v>92</v>
       </c>
       <c r="G11" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H11" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H11" s="34" t="s">
-        <v>438</v>
-      </c>
       <c r="I11" s="34" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K11" s="34"/>
       <c r="L11" s="34" t="s">
-        <v>501</v>
-      </c>
-      <c r="M11" s="45"/>
-    </row>
-    <row r="12" spans="1:13" ht="24" customHeight="1" thickBot="1">
+        <v>500</v>
+      </c>
+      <c r="M11" s="53"/>
+    </row>
+    <row r="12" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="34" t="s">
+        <v>489</v>
+      </c>
+      <c r="B12" s="38" t="s">
         <v>490</v>
       </c>
-      <c r="B12" s="38" t="s">
-        <v>491</v>
-      </c>
       <c r="C12" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D12" s="34">
         <v>50</v>
@@ -5544,26 +5918,26 @@
         <v>92</v>
       </c>
       <c r="G12" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H12" s="34" t="s">
         <v>437</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>438</v>
       </c>
       <c r="I12" s="34"/>
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
-      <c r="M12" s="45"/>
-    </row>
-    <row r="13" spans="1:13" ht="24" customHeight="1" thickBot="1">
+      <c r="M12" s="53"/>
+    </row>
+    <row r="13" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="34" t="s">
+        <v>491</v>
+      </c>
+      <c r="B13" s="38" t="s">
         <v>492</v>
       </c>
-      <c r="B13" s="38" t="s">
-        <v>493</v>
-      </c>
       <c r="C13" s="34" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D13" s="34">
         <v>8</v>
@@ -5573,26 +5947,26 @@
         <v>92</v>
       </c>
       <c r="G13" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H13" s="34" t="s">
         <v>437</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>438</v>
       </c>
       <c r="I13" s="34"/>
       <c r="J13" s="34"/>
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
-      <c r="M13" s="45"/>
-    </row>
-    <row r="14" spans="1:13" ht="24" customHeight="1" thickBot="1">
+      <c r="M13" s="53"/>
+    </row>
+    <row r="14" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="39" t="s">
+        <v>493</v>
+      </c>
+      <c r="B14" s="40" t="s">
         <v>494</v>
       </c>
-      <c r="B14" s="40" t="s">
-        <v>495</v>
-      </c>
       <c r="C14" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D14" s="34">
         <v>20</v>
@@ -5602,66 +5976,66 @@
         <v>92</v>
       </c>
       <c r="G14" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H14" s="34" t="s">
         <v>437</v>
-      </c>
-      <c r="H14" s="34" t="s">
-        <v>438</v>
       </c>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
       <c r="K14" s="34"/>
       <c r="L14" s="34"/>
-      <c r="M14" s="45"/>
-    </row>
-    <row r="15" spans="1:13" ht="24" customHeight="1" thickBot="1">
+      <c r="M14" s="53"/>
+    </row>
+    <row r="15" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="34" t="s">
         <v>109</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D15" s="34">
         <v>30</v>
       </c>
       <c r="E15" s="34"/>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="43"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="51"/>
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
-      <c r="M15" s="45"/>
-    </row>
-    <row r="16" spans="1:13" ht="24" customHeight="1" thickBot="1">
+      <c r="M15" s="53"/>
+    </row>
+    <row r="16" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="39" t="s">
+        <v>477</v>
+      </c>
+      <c r="B16" s="40" t="s">
         <v>478</v>
       </c>
-      <c r="B16" s="40" t="s">
-        <v>479</v>
-      </c>
       <c r="C16" s="34" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D16" s="34">
         <v>19</v>
       </c>
       <c r="E16" s="34"/>
-      <c r="F16" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="43"/>
+      <c r="F16" s="49" t="s">
+        <v>479</v>
+      </c>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="51"/>
       <c r="K16" s="34"/>
       <c r="L16" s="34"/>
-      <c r="M16" s="45"/>
+      <c r="M16" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5676,16 +6050,17 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3224E281-B9C3-43DE-9C24-CA7016DDAC13}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="75.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" style="5" customWidth="1"/>
     <col min="5" max="5" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
@@ -5695,455 +6070,1074 @@
     <col min="9" max="9" width="17.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.6640625" style="5" customWidth="1"/>
     <col min="13" max="13" width="48.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="8.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.88671875" style="5"/>
+    <col min="14" max="14" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="8.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="37" t="s">
         <v>360</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="33" t="s">
         <v>361</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="33" t="s">
         <v>362</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="33" t="s">
         <v>363</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="33" t="s">
         <v>364</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="33" t="s">
         <v>365</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="33" t="s">
         <v>366</v>
       </c>
-      <c r="M1" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="M1" s="33" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D2" s="5">
-        <v>10</v>
-      </c>
+      <c r="B2" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D2"/>
       <c r="F2" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>372</v>
+        <v>92</v>
+      </c>
+      <c r="G2" t="s">
+        <v>436</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>382</v>
+        <v>437</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>524</v>
+      </c>
+      <c r="J2" s="56" t="s">
+        <v>522</v>
       </c>
       <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="L2" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>188</v>
       </c>
+      <c r="C3"/>
       <c r="D3" s="5">
         <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>372</v>
+        <v>92</v>
+      </c>
+      <c r="G3" t="s">
+        <v>436</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="I3" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I3" s="56" t="s">
         <v>381</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="56" t="s">
         <v>382</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>189</v>
       </c>
+      <c r="C4"/>
       <c r="D4" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="F4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" t="s">
+        <v>436</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>224</v>
       </c>
+      <c r="C5"/>
       <c r="D5" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="F5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" t="s">
+        <v>436</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>194</v>
       </c>
+      <c r="C6"/>
       <c r="D6" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="F6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" t="s">
+        <v>436</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="D7" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>427</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D7"/>
+      <c r="F7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>436</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I7" s="56" t="s">
+        <v>447</v>
+      </c>
+      <c r="J7" s="56" t="s">
+        <v>446</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>253</v>
+        <v>42</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>507</v>
       </c>
       <c r="D8" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="F8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>436</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I8" s="56" t="s">
+        <v>447</v>
+      </c>
+      <c r="J8" s="56" t="s">
+        <v>448</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D9"/>
+      <c r="F9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>436</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I9" s="56" t="s">
+        <v>524</v>
+      </c>
+      <c r="J9" s="56" t="s">
+        <v>443</v>
+      </c>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="D10" s="5">
+        <v>100</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" t="s">
+        <v>436</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I10" s="56" t="s">
+        <v>426</v>
+      </c>
+      <c r="J10" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="D11" s="5">
+        <v>100</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" t="s">
+        <v>436</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I11" s="56" t="s">
+        <v>426</v>
+      </c>
+      <c r="J11" s="56" t="s">
+        <v>525</v>
+      </c>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="D12" s="5">
+        <v>100</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" t="s">
+        <v>436</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I12" s="56" t="s">
+        <v>426</v>
+      </c>
+      <c r="J12" s="56" t="s">
+        <v>525</v>
+      </c>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D9" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1" t="s">
+      <c r="C13" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D13"/>
+      <c r="F13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" t="s">
+        <v>436</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I13" s="56" t="s">
+        <v>524</v>
+      </c>
+      <c r="J13" s="56" t="s">
+        <v>522</v>
+      </c>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56" t="s">
+        <v>527</v>
+      </c>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B14" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D10" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="C14" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D14"/>
+      <c r="F14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" t="s">
+        <v>436</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I14" s="56" t="s">
+        <v>524</v>
+      </c>
+      <c r="J14" s="56" t="s">
+        <v>526</v>
+      </c>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56" t="s">
+        <v>528</v>
+      </c>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D11" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="C15" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D15"/>
+      <c r="F15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" t="s">
+        <v>436</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I15" s="56" t="s">
+        <v>524</v>
+      </c>
+      <c r="J15" s="56" t="s">
+        <v>522</v>
+      </c>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56" t="s">
+        <v>531</v>
+      </c>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D12" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1" t="s">
+      <c r="C16" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D16"/>
+      <c r="F16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" t="s">
+        <v>436</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I16" s="56" t="s">
+        <v>524</v>
+      </c>
+      <c r="J16" s="56" t="s">
+        <v>526</v>
+      </c>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56" t="s">
+        <v>532</v>
+      </c>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B17" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D13" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1" t="s">
+      <c r="C17" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D17"/>
+      <c r="F17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" t="s">
+        <v>436</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I17" s="56" t="s">
+        <v>533</v>
+      </c>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56" t="s">
+        <v>534</v>
+      </c>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B18" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D14" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1" t="s">
+      <c r="C18" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D18"/>
+      <c r="F18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" t="s">
+        <v>436</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I18" s="56" t="s">
+        <v>524</v>
+      </c>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56" t="s">
+        <v>533</v>
+      </c>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" ht="141.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B19" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D15" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1" t="s">
+      <c r="C19" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D19"/>
+      <c r="F19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" t="s">
+        <v>436</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="57" t="s">
+        <v>530</v>
+      </c>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B20" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D16" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
+      <c r="C20" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D20"/>
+      <c r="F20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" t="s">
+        <v>436</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I20" s="56" t="s">
+        <v>529</v>
+      </c>
+      <c r="J20" s="56" t="s">
+        <v>448</v>
+      </c>
+      <c r="K20" s="56"/>
+      <c r="L20" s="57" t="s">
+        <v>535</v>
+      </c>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B21" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D17" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
+      <c r="C21" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D21"/>
+      <c r="F21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" t="s">
+        <v>436</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I21" s="56" t="s">
+        <v>529</v>
+      </c>
+      <c r="J21" s="56" t="s">
+        <v>448</v>
+      </c>
+      <c r="K21" s="56"/>
+      <c r="L21" s="57" t="s">
+        <v>536</v>
+      </c>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B22" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D18" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
+      <c r="C22" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D22"/>
+      <c r="F22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" t="s">
+        <v>436</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I22" s="56" t="s">
+        <v>529</v>
+      </c>
+      <c r="J22" s="56" t="s">
+        <v>448</v>
+      </c>
+      <c r="K22" s="56"/>
+      <c r="L22" s="57" t="s">
+        <v>537</v>
+      </c>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B23" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D19" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
+      <c r="C23" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D23"/>
+      <c r="F23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" t="s">
+        <v>436</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I23" s="56" t="s">
+        <v>529</v>
+      </c>
+      <c r="J23" s="56" t="s">
+        <v>448</v>
+      </c>
+      <c r="K23" s="56"/>
+      <c r="L23" s="57" t="s">
+        <v>538</v>
+      </c>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B24" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D20" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
+      <c r="C24" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D24"/>
+      <c r="F24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" t="s">
+        <v>436</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I24" s="56" t="s">
+        <v>529</v>
+      </c>
+      <c r="J24" s="56" t="s">
+        <v>448</v>
+      </c>
+      <c r="K24" s="56"/>
+      <c r="L24" s="57" t="s">
+        <v>539</v>
+      </c>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B25" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D21" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
+      <c r="C25" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D25"/>
+      <c r="F25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" t="s">
+        <v>436</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56" t="s">
+        <v>540</v>
+      </c>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B26" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D22" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
+      <c r="C26" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D26"/>
+      <c r="F26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" t="s">
+        <v>436</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56" t="s">
+        <v>541</v>
+      </c>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B27" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D23" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
+      <c r="C27" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D27"/>
+      <c r="F27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" t="s">
+        <v>436</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56" t="s">
+        <v>542</v>
+      </c>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B28" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D24" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
+      <c r="C28" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D28"/>
+      <c r="F28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" t="s">
+        <v>436</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56" t="s">
+        <v>543</v>
+      </c>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="D29" s="5">
+        <v>20</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" t="s">
+        <v>436</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="D30" s="5">
+        <v>20</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" t="s">
+        <v>436</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="D31" s="5">
+        <v>20</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" t="s">
+        <v>436</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D25" s="5">
+      <c r="C32"/>
+      <c r="D32" s="5">
         <v>20</v>
       </c>
+      <c r="F32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" t="s">
+        <v>436</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B34" s="55"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76B7F98-F046-4D38-B531-0938E5524784}">
-  <dimension ref="A1:O15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD5E9B7-8594-4FFC-BE52-E5BC444BEAE3}">
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:M1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="48.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="37" t="s">
         <v>360</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="33" t="s">
         <v>361</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="33" t="s">
         <v>362</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="33" t="s">
         <v>363</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="33" t="s">
         <v>364</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="33" t="s">
         <v>365</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="33" t="s">
         <v>366</v>
       </c>
-      <c r="M1" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="M1" s="33" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D2" s="5">
         <v>10</v>
@@ -6158,25 +7152,20 @@
         <v>380</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>382</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="41" t="s">
         <v>188</v>
       </c>
       <c r="D3" s="5">
@@ -6192,55 +7181,49 @@
         <v>380</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>382</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1" t="s">
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="42" t="s">
         <v>189</v>
       </c>
       <c r="D4" s="5">
         <v>50</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="5" spans="1:13" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>224</v>
       </c>
       <c r="D5" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:13" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>194</v>
       </c>
       <c r="D6" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>141</v>
       </c>
@@ -6251,7 +7234,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>142</v>
       </c>
@@ -6262,80 +7245,190 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="D9" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="D10" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="D11" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="D12" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="D13" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="D14" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D15" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D16" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D17" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D18" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D19" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D20" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D21" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D23" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D24" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D25" s="5">
         <v>20</v>
       </c>
     </row>
@@ -6345,6 +7438,374 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76B7F98-F046-4D38-B531-0938E5524784}">
+  <dimension ref="A1:M15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.77734375" style="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="45" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" style="45" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" style="45" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.44140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.21875" style="45" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>346</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>361</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>362</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>363</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>364</v>
+      </c>
+      <c r="K1" s="44" t="s">
+        <v>365</v>
+      </c>
+      <c r="L1" s="44" t="s">
+        <v>366</v>
+      </c>
+      <c r="M1" s="44" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>345</v>
+      </c>
+      <c r="D2" s="45">
+        <v>10</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46" t="s">
+        <v>511</v>
+      </c>
+      <c r="M2" s="46"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="45">
+        <v>50</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="45">
+        <v>50</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" s="45">
+        <v>8</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="45">
+        <v>8</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" s="45">
+        <v>20</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" s="45">
+        <v>100</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9" s="45">
+        <v>8</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="D10" s="45">
+        <v>8</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11" s="45">
+        <v>8</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="D12" s="45">
+        <v>50</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="D13" s="45">
+        <v>4</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>260</v>
+      </c>
+      <c r="D14" s="45">
+        <v>20</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" s="45">
+        <v>20</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>437</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE3E272-40FD-4D6E-8CC1-A618C9F1A948}">
   <dimension ref="G2:K15"/>
   <sheetViews>
@@ -6352,7 +7813,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="31.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
@@ -6360,23 +7821,23 @@
     <col min="11" max="11" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="7:10">
+    <row r="2" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G2" s="30" t="s">
         <v>193</v>
       </c>
       <c r="H2" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="I2" s="30" t="s">
         <v>416</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="J2" s="30" t="s">
         <v>417</v>
       </c>
-      <c r="J2" s="30" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="3" spans="7:10">
+    </row>
+    <row r="3" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G3" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H3" s="32">
         <v>45467</v>
@@ -6385,12 +7846,12 @@
         <v>45471</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="4" spans="7:10">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="4" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G4" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H4" s="32">
         <v>45474</v>
@@ -6399,12 +7860,12 @@
         <v>45476</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="5" spans="7:10">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="5" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G5" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H5" s="32">
         <v>45477</v>
@@ -6413,12 +7874,12 @@
         <v>45481</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="6" spans="7:10">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="6" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G6" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H6" s="32">
         <v>45482</v>
@@ -6427,12 +7888,12 @@
         <v>45484</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="7" spans="7:10">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="7" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G7" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H7" s="32">
         <v>45488</v>
@@ -6441,12 +7902,12 @@
         <v>45490</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="8" spans="7:10">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="8" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G8" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H8" s="32">
         <v>45491</v>
@@ -6455,12 +7916,12 @@
         <v>45495</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="9" spans="7:10">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="9" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G9" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H9" s="32">
         <v>45496</v>
@@ -6469,12 +7930,12 @@
         <v>45502</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="10" spans="7:10">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="10" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G10" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H10" s="32">
         <v>45503</v>
@@ -6483,12 +7944,12 @@
         <v>45504</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="11" spans="7:10">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="11" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G11" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H11" s="32">
         <v>45505</v>
@@ -6497,12 +7958,12 @@
         <v>45509</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="12" spans="7:10">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="12" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G12" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H12" s="32">
         <v>45510</v>
@@ -6511,12 +7972,12 @@
         <v>45512</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="13" spans="7:10">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="13" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G13" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H13" s="32">
         <v>45513</v>
@@ -6525,12 +7986,12 @@
         <v>45517</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="14" spans="7:10">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="14" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G14" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H14" s="32">
         <v>45518</v>
@@ -6539,12 +8000,12 @@
         <v>45520</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="15" spans="7:10">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="15" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G15" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H15" s="32">
         <v>45523</v>
@@ -6553,7 +8014,7 @@
         <v>45525</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -6569,7 +8030,7 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -6622,7 +8083,7 @@
     <col min="59" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>356</v>
       </c>
@@ -6666,7 +8127,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>355</v>
       </c>
@@ -6710,7 +8171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B3" s="20" t="s">
         <v>128</v>
       </c>
@@ -6790,7 +8251,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -6870,7 +8331,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -6950,7 +8411,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>85</v>
       </c>
@@ -7030,7 +8491,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>87</v>
       </c>
@@ -7110,7 +8571,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -7190,7 +8651,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>37</v>
       </c>
@@ -7270,7 +8731,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
@@ -7350,7 +8811,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
@@ -7430,7 +8891,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
@@ -7510,7 +8971,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
@@ -7590,7 +9051,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
         <v>0</v>
       </c>
@@ -7664,7 +9125,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>1</v>
       </c>
@@ -7726,7 +9187,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="s">
         <v>2</v>
       </c>
@@ -7788,7 +9249,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="2:33">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
         <v>3</v>
       </c>
@@ -7844,7 +9305,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="2:33">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
@@ -7894,7 +9355,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="2:33">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
@@ -7932,7 +9393,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="20" spans="2:33">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
@@ -7964,7 +9425,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="2:33">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
@@ -7990,7 +9451,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="22" spans="2:33">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
@@ -8016,7 +9477,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="2:33">
+    <row r="23" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>49</v>
       </c>
@@ -8042,7 +9503,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="24" spans="2:33">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>32</v>
       </c>
@@ -8068,7 +9529,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="25" spans="2:33">
+    <row r="25" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>33</v>
       </c>
@@ -8094,7 +9555,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="2:33">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
@@ -8120,9 +9581,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="2:33">
+    <row r="27" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>179</v>
@@ -8146,7 +9607,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="2:33">
+    <row r="28" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>123</v>
       </c>
@@ -8160,62 +9621,62 @@
         <v>172</v>
       </c>
     </row>
-    <row r="29" spans="2:33">
+    <row r="29" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="2:33">
+    <row r="30" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:33">
+    <row r="31" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:33">
+    <row r="32" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="2:40">
+    <row r="33" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="2:40">
+    <row r="34" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="2:40">
+    <row r="35" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:40">
+    <row r="36" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="2:40">
+    <row r="37" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="2:40">
+    <row r="38" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="2:40">
+    <row r="39" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="2:40">
+    <row r="40" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>146</v>
       </c>
@@ -8223,7 +9684,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="2:40">
+    <row r="42" spans="2:40" x14ac:dyDescent="0.3">
       <c r="C42" s="21"/>
       <c r="D42" s="21"/>
       <c r="J42" s="21"/>
@@ -8252,7 +9713,7 @@
       <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="92.44140625" style="1" customWidth="1"/>
@@ -8271,7 +9732,7 @@
     <col min="15" max="16384" width="11.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.8" customHeight="1" thickBot="1">
+    <row r="1" spans="1:13" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
         <v>186</v>
       </c>
@@ -8309,39 +9770,39 @@
         <v>366</v>
       </c>
       <c r="M1" s="34" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="25.8" customHeight="1" thickBot="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>502</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>503</v>
-      </c>
       <c r="C2" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D2" s="34">
         <v>19</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>481</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>504</v>
-      </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43"/>
+        <v>480</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>503</v>
+      </c>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
       <c r="K2" s="34"/>
       <c r="L2" s="34"/>
-      <c r="M2" s="44" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="22.2" customHeight="1" thickBot="1">
+      <c r="M2" s="52" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="s">
         <v>29</v>
       </c>
@@ -8359,32 +9820,32 @@
         <v>92</v>
       </c>
       <c r="G3" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H3" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="I3" s="34" t="s">
         <v>438</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="J3" s="34" t="s">
         <v>439</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>440</v>
       </c>
       <c r="K3" s="34"/>
       <c r="L3" s="34" t="s">
-        <v>476</v>
-      </c>
-      <c r="M3" s="45"/>
-    </row>
-    <row r="4" spans="1:13" ht="29.4" thickBot="1">
+        <v>475</v>
+      </c>
+      <c r="M3" s="53"/>
+    </row>
+    <row r="4" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D4" s="34">
         <v>20</v>
@@ -8394,32 +9855,32 @@
         <v>92</v>
       </c>
       <c r="G4" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H4" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="I4" s="34" t="s">
         <v>438</v>
       </c>
-      <c r="I4" s="34" t="s">
-        <v>439</v>
-      </c>
       <c r="J4" s="34" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K4" s="34"/>
       <c r="L4" s="36" t="s">
-        <v>442</v>
-      </c>
-      <c r="M4" s="45"/>
-    </row>
-    <row r="5" spans="1:13" ht="21" customHeight="1" thickBot="1">
+        <v>441</v>
+      </c>
+      <c r="M4" s="53"/>
+    </row>
+    <row r="5" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D5" s="34">
         <v>20</v>
@@ -8429,32 +9890,32 @@
         <v>92</v>
       </c>
       <c r="G5" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H5" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="I5" s="34" t="s">
         <v>438</v>
       </c>
-      <c r="I5" s="34" t="s">
-        <v>439</v>
-      </c>
       <c r="J5" s="34" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K5" s="34"/>
       <c r="L5" s="36" t="s">
-        <v>443</v>
-      </c>
-      <c r="M5" s="45"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1">
+        <v>442</v>
+      </c>
+      <c r="M5" s="53"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D6" s="34">
         <v>64</v>
@@ -8464,30 +9925,30 @@
         <v>92</v>
       </c>
       <c r="G6" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H6" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="I6" s="34" t="s">
         <v>438</v>
       </c>
-      <c r="I6" s="34" t="s">
-        <v>439</v>
-      </c>
       <c r="J6" s="34" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
-      <c r="M6" s="45"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1">
+      <c r="M6" s="53"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="B7" s="34" t="s">
         <v>425</v>
       </c>
-      <c r="B7" s="34" t="s">
-        <v>426</v>
-      </c>
       <c r="C7" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D7" s="34">
         <v>250</v>
@@ -8497,30 +9958,30 @@
         <v>92</v>
       </c>
       <c r="G7" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H7" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H7" s="34" t="s">
-        <v>438</v>
-      </c>
       <c r="I7" s="34" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J7" s="34" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
-      <c r="M7" s="45"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1">
+      <c r="M7" s="53"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
         <v>215</v>
       </c>
       <c r="B8" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="C8" s="34" t="s">
         <v>472</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>473</v>
       </c>
       <c r="D8" s="34">
         <v>19</v>
@@ -8530,30 +9991,30 @@
         <v>92</v>
       </c>
       <c r="G8" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H8" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="I8" s="34" t="s">
         <v>438</v>
       </c>
-      <c r="I8" s="34" t="s">
-        <v>439</v>
-      </c>
       <c r="J8" s="34" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K8" s="34"/>
       <c r="L8" s="34"/>
-      <c r="M8" s="45"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1">
+      <c r="M8" s="53"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="B9" s="34" t="s">
         <v>428</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>429</v>
-      </c>
       <c r="C9" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D9" s="34">
         <v>19</v>
@@ -8563,30 +10024,30 @@
         <v>92</v>
       </c>
       <c r="G9" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H9" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="I9" s="34" t="s">
         <v>438</v>
       </c>
-      <c r="I9" s="34" t="s">
-        <v>439</v>
-      </c>
       <c r="J9" s="34" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
-      <c r="M9" s="45"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1">
+      <c r="M9" s="53"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="34" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D10" s="34">
         <v>1200</v>
@@ -8596,30 +10057,30 @@
         <v>92</v>
       </c>
       <c r="G10" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H10" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H10" s="34" t="s">
-        <v>438</v>
-      </c>
       <c r="I10" s="34" t="s">
+        <v>447</v>
+      </c>
+      <c r="J10" s="34" t="s">
         <v>448</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>449</v>
       </c>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
-      <c r="M10" s="45"/>
-    </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1">
+      <c r="M10" s="53"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="B11" s="34" t="s">
         <v>432</v>
       </c>
-      <c r="B11" s="34" t="s">
-        <v>433</v>
-      </c>
       <c r="C11" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D11" s="34">
         <v>19</v>
@@ -8629,30 +10090,30 @@
         <v>92</v>
       </c>
       <c r="G11" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H11" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="I11" s="34" t="s">
         <v>438</v>
       </c>
-      <c r="I11" s="34" t="s">
-        <v>439</v>
-      </c>
       <c r="J11" s="34" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
-      <c r="M11" s="45"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1">
+      <c r="M11" s="53"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="34" t="s">
+        <v>434</v>
+      </c>
+      <c r="B12" s="34" t="s">
         <v>435</v>
       </c>
-      <c r="B12" s="34" t="s">
-        <v>436</v>
-      </c>
       <c r="C12" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D12" s="34">
         <v>400</v>
@@ -8662,22 +10123,22 @@
         <v>92</v>
       </c>
       <c r="G12" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H12" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H12" s="34" t="s">
-        <v>438</v>
-      </c>
       <c r="I12" s="34" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
-      <c r="M12" s="45"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1">
+      <c r="M12" s="53"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="34" t="s">
         <v>43</v>
       </c>
@@ -8685,7 +10146,7 @@
         <v>217</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D13" s="34">
         <v>500</v>
@@ -8695,22 +10156,22 @@
         <v>92</v>
       </c>
       <c r="G13" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H13" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H13" s="34" t="s">
+      <c r="I13" s="34" t="s">
         <v>438</v>
       </c>
-      <c r="I13" s="34" t="s">
-        <v>439</v>
-      </c>
       <c r="J13" s="34" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
-      <c r="M13" s="45"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1">
+      <c r="M13" s="53"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="34" t="s">
         <v>44</v>
       </c>
@@ -8718,7 +10179,7 @@
         <v>218</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D14" s="34">
         <v>260</v>
@@ -8728,22 +10189,22 @@
         <v>92</v>
       </c>
       <c r="G14" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H14" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H14" s="34" t="s">
+      <c r="I14" s="34" t="s">
         <v>438</v>
       </c>
-      <c r="I14" s="34" t="s">
-        <v>439</v>
-      </c>
       <c r="J14" s="34" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K14" s="34"/>
       <c r="L14" s="34"/>
-      <c r="M14" s="45"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1">
+      <c r="M14" s="53"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="34" t="s">
         <v>47</v>
       </c>
@@ -8751,7 +10212,7 @@
         <v>219</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D15" s="34">
         <v>19</v>
@@ -8761,22 +10222,22 @@
         <v>92</v>
       </c>
       <c r="G15" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H15" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H15" s="34" t="s">
+      <c r="I15" s="34" t="s">
         <v>438</v>
       </c>
-      <c r="I15" s="34" t="s">
+      <c r="J15" s="34" t="s">
         <v>439</v>
-      </c>
-      <c r="J15" s="34" t="s">
-        <v>440</v>
       </c>
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
-      <c r="M15" s="45"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1">
+      <c r="M15" s="53"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="34" t="s">
         <v>48</v>
       </c>
@@ -8784,7 +10245,7 @@
         <v>220</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D16" s="34">
         <v>19</v>
@@ -8794,22 +10255,22 @@
         <v>92</v>
       </c>
       <c r="G16" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H16" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H16" s="34" t="s">
+      <c r="I16" s="34" t="s">
         <v>438</v>
       </c>
-      <c r="I16" s="34" t="s">
-        <v>439</v>
-      </c>
       <c r="J16" s="34" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K16" s="34"/>
       <c r="L16" s="34"/>
-      <c r="M16" s="45"/>
-    </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1">
+      <c r="M16" s="53"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="34" t="s">
         <v>55</v>
       </c>
@@ -8817,7 +10278,7 @@
         <v>229</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D17" s="34">
         <v>19</v>
@@ -8827,22 +10288,22 @@
         <v>92</v>
       </c>
       <c r="G17" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H17" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H17" s="34" t="s">
+      <c r="I17" s="34" t="s">
         <v>438</v>
       </c>
-      <c r="I17" s="34" t="s">
+      <c r="J17" s="34" t="s">
         <v>439</v>
-      </c>
-      <c r="J17" s="34" t="s">
-        <v>440</v>
       </c>
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
-      <c r="M17" s="45"/>
-    </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1">
+      <c r="M17" s="53"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="34" t="s">
         <v>56</v>
       </c>
@@ -8850,7 +10311,7 @@
         <v>230</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D18" s="34">
         <v>19</v>
@@ -8860,22 +10321,22 @@
         <v>92</v>
       </c>
       <c r="G18" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H18" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H18" s="34" t="s">
+      <c r="I18" s="34" t="s">
         <v>438</v>
       </c>
-      <c r="I18" s="34" t="s">
-        <v>439</v>
-      </c>
       <c r="J18" s="34" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
-      <c r="M18" s="45"/>
-    </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1">
+      <c r="M18" s="53"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="34" t="s">
         <v>12</v>
       </c>
@@ -8883,7 +10344,7 @@
         <v>221</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D19" s="34">
         <v>25</v>
@@ -8893,117 +10354,117 @@
         <v>92</v>
       </c>
       <c r="G19" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H19" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H19" s="34" t="s">
+      <c r="I19" s="34" t="s">
         <v>438</v>
       </c>
-      <c r="I19" s="34" t="s">
-        <v>439</v>
-      </c>
       <c r="J19" s="34" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
-      <c r="M19" s="45"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1">
+      <c r="M19" s="53"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="34" t="s">
         <v>361</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D20" s="34">
         <v>20</v>
       </c>
       <c r="E20" s="34"/>
-      <c r="F20" s="41" t="s">
-        <v>437</v>
-      </c>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="43"/>
+      <c r="F20" s="49" t="s">
+        <v>436</v>
+      </c>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="51"/>
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
-      <c r="M20" s="45"/>
-    </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1">
+      <c r="M20" s="53"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="34" t="s">
+        <v>505</v>
+      </c>
+      <c r="B21" s="34" t="s">
         <v>506</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="C21" s="34" t="s">
         <v>507</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>508</v>
       </c>
       <c r="D21" s="34">
         <v>20</v>
       </c>
       <c r="E21" s="34"/>
-      <c r="F21" s="41" t="s">
-        <v>438</v>
-      </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="43"/>
+      <c r="F21" s="49" t="s">
+        <v>437</v>
+      </c>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="51"/>
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
-      <c r="M21" s="45"/>
-    </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1">
+      <c r="M21" s="53"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="34" t="s">
         <v>109</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D22" s="34">
         <v>30</v>
       </c>
       <c r="E22" s="34"/>
-      <c r="F22" s="41" t="s">
+      <c r="F22" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="43"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
-      <c r="M22" s="45"/>
-    </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1">
+      <c r="M22" s="53"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="B23" s="34" t="s">
         <v>478</v>
       </c>
-      <c r="B23" s="34" t="s">
-        <v>479</v>
-      </c>
       <c r="C23" s="34" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D23" s="34">
         <v>19</v>
       </c>
       <c r="E23" s="34"/>
-      <c r="F23" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="43"/>
+      <c r="F23" s="49" t="s">
+        <v>479</v>
+      </c>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="51"/>
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
     </row>
@@ -9025,10 +10486,10 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M24"/>
+      <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="109" style="1" bestFit="1" customWidth="1"/>
@@ -9046,7 +10507,7 @@
     <col min="14" max="16384" width="11.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.8" customHeight="1" thickBot="1">
+    <row r="1" spans="1:13" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
         <v>186</v>
       </c>
@@ -9084,39 +10545,39 @@
         <v>366</v>
       </c>
       <c r="M1" s="34" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="25.8" customHeight="1" thickBot="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>502</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>503</v>
-      </c>
       <c r="C2" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D2" s="34">
         <v>19</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>481</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>504</v>
-      </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43"/>
+        <v>480</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>503</v>
+      </c>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
       <c r="K2" s="34"/>
       <c r="L2" s="34"/>
-      <c r="M2" s="44" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="22.2" customHeight="1" thickBot="1">
+      <c r="M2" s="52" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="s">
         <v>29</v>
       </c>
@@ -9134,24 +10595,24 @@
         <v>92</v>
       </c>
       <c r="G3" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H3" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H3" s="34" t="s">
-        <v>438</v>
-      </c>
       <c r="I3" s="34" t="s">
+        <v>455</v>
+      </c>
+      <c r="J3" s="34" t="s">
         <v>456</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>457</v>
       </c>
       <c r="K3" s="34"/>
       <c r="L3" s="34" t="s">
-        <v>476</v>
-      </c>
-      <c r="M3" s="45"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1">
+        <v>475</v>
+      </c>
+      <c r="M3" s="53"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
         <v>46</v>
       </c>
@@ -9159,7 +10620,7 @@
         <v>216</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D4" s="34">
         <v>20</v>
@@ -9169,30 +10630,30 @@
         <v>92</v>
       </c>
       <c r="G4" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H4" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H4" s="34" t="s">
-        <v>438</v>
-      </c>
       <c r="I4" s="34" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J4" s="34" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K4" s="34"/>
       <c r="L4" s="36"/>
-      <c r="M4" s="45"/>
-    </row>
-    <row r="5" spans="1:13" ht="21" customHeight="1" thickBot="1">
+      <c r="M4" s="53"/>
+    </row>
+    <row r="5" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D5" s="34">
         <v>20</v>
@@ -9202,30 +10663,30 @@
         <v>92</v>
       </c>
       <c r="G5" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H5" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H5" s="34" t="s">
-        <v>438</v>
-      </c>
       <c r="I5" s="34" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J5" s="34" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K5" s="34"/>
       <c r="L5" s="36"/>
-      <c r="M5" s="45"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1">
+      <c r="M5" s="53"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>423</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>424</v>
-      </c>
       <c r="C6" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D6" s="34">
         <v>60</v>
@@ -9235,30 +10696,30 @@
         <v>92</v>
       </c>
       <c r="G6" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H6" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H6" s="34" t="s">
-        <v>438</v>
-      </c>
       <c r="I6" s="34" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J6" s="34" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
-      <c r="M6" s="45"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1">
+      <c r="M6" s="53"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="B7" s="35" t="s">
         <v>425</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>426</v>
-      </c>
       <c r="C7" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D7" s="34">
         <v>250</v>
@@ -9268,30 +10729,30 @@
         <v>92</v>
       </c>
       <c r="G7" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H7" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H7" s="34" t="s">
-        <v>438</v>
-      </c>
       <c r="I7" s="34" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J7" s="34" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
-      <c r="M7" s="45"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1">
+      <c r="M7" s="53"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
         <v>215</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D8" s="34">
         <v>19</v>
@@ -9301,30 +10762,30 @@
         <v>92</v>
       </c>
       <c r="G8" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H8" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H8" s="34" t="s">
-        <v>438</v>
-      </c>
       <c r="I8" s="34" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J8" s="34" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K8" s="34"/>
       <c r="L8" s="34"/>
-      <c r="M8" s="45"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1">
+      <c r="M8" s="53"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="B9" s="35" t="s">
         <v>428</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>429</v>
-      </c>
       <c r="C9" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D9" s="34">
         <v>19</v>
@@ -9334,30 +10795,30 @@
         <v>92</v>
       </c>
       <c r="G9" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H9" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H9" s="34" t="s">
-        <v>438</v>
-      </c>
       <c r="I9" s="34" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
-      <c r="M9" s="45"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1">
+      <c r="M9" s="53"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="B10" s="35" t="s">
         <v>430</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>431</v>
-      </c>
       <c r="C10" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D10" s="34">
         <v>200</v>
@@ -9367,30 +10828,30 @@
         <v>92</v>
       </c>
       <c r="G10" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H10" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H10" s="34" t="s">
-        <v>438</v>
-      </c>
       <c r="I10" s="34" t="s">
+        <v>447</v>
+      </c>
+      <c r="J10" s="34" t="s">
         <v>448</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>449</v>
       </c>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
-      <c r="M10" s="45"/>
-    </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1">
+      <c r="M10" s="53"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="B11" s="35" t="s">
         <v>432</v>
       </c>
-      <c r="B11" s="35" t="s">
-        <v>433</v>
-      </c>
       <c r="C11" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D11" s="34">
         <v>19</v>
@@ -9400,30 +10861,30 @@
         <v>92</v>
       </c>
       <c r="G11" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H11" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H11" s="34" t="s">
-        <v>438</v>
-      </c>
       <c r="I11" s="34" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
-      <c r="M11" s="45"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1">
+      <c r="M11" s="53"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="34" t="s">
+        <v>434</v>
+      </c>
+      <c r="B12" s="35" t="s">
         <v>435</v>
       </c>
-      <c r="B12" s="35" t="s">
-        <v>436</v>
-      </c>
       <c r="C12" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D12" s="34">
         <v>400</v>
@@ -9433,22 +10894,22 @@
         <v>92</v>
       </c>
       <c r="G12" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H12" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H12" s="34" t="s">
-        <v>438</v>
-      </c>
       <c r="I12" s="34" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
-      <c r="M12" s="45"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1">
+      <c r="M12" s="53"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="34" t="s">
         <v>43</v>
       </c>
@@ -9456,7 +10917,7 @@
         <v>217</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D13" s="34">
         <v>500</v>
@@ -9469,9 +10930,9 @@
       <c r="J13" s="34"/>
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
-      <c r="M13" s="45"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1">
+      <c r="M13" s="53"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="34" t="s">
         <v>44</v>
       </c>
@@ -9479,7 +10940,7 @@
         <v>218</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D14" s="34">
         <v>260</v>
@@ -9489,22 +10950,22 @@
         <v>92</v>
       </c>
       <c r="G14" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H14" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H14" s="34" t="s">
-        <v>438</v>
-      </c>
       <c r="I14" s="34" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J14" s="34" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K14" s="34"/>
       <c r="L14" s="34"/>
-      <c r="M14" s="45"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1">
+      <c r="M14" s="53"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="34" t="s">
         <v>47</v>
       </c>
@@ -9512,7 +10973,7 @@
         <v>219</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D15" s="34">
         <v>19</v>
@@ -9522,22 +10983,22 @@
         <v>92</v>
       </c>
       <c r="G15" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H15" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H15" s="34" t="s">
-        <v>438</v>
-      </c>
       <c r="I15" s="34" t="s">
+        <v>455</v>
+      </c>
+      <c r="J15" s="34" t="s">
         <v>456</v>
-      </c>
-      <c r="J15" s="34" t="s">
-        <v>457</v>
       </c>
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
-      <c r="M15" s="45"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1">
+      <c r="M15" s="53"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="34" t="s">
         <v>48</v>
       </c>
@@ -9545,7 +11006,7 @@
         <v>220</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D16" s="34">
         <v>19</v>
@@ -9555,22 +11016,22 @@
         <v>92</v>
       </c>
       <c r="G16" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H16" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H16" s="34" t="s">
-        <v>438</v>
-      </c>
       <c r="I16" s="34" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J16" s="34" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K16" s="34"/>
       <c r="L16" s="34"/>
-      <c r="M16" s="45"/>
-    </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1">
+      <c r="M16" s="53"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="34" t="s">
         <v>55</v>
       </c>
@@ -9578,7 +11039,7 @@
         <v>229</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D17" s="34">
         <v>19</v>
@@ -9588,22 +11049,22 @@
         <v>92</v>
       </c>
       <c r="G17" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H17" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H17" s="34" t="s">
-        <v>438</v>
-      </c>
       <c r="I17" s="34" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J17" s="34" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
-      <c r="M17" s="45"/>
-    </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1">
+      <c r="M17" s="53"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="34" t="s">
         <v>56</v>
       </c>
@@ -9611,7 +11072,7 @@
         <v>230</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D18" s="34">
         <v>19</v>
@@ -9621,30 +11082,30 @@
         <v>92</v>
       </c>
       <c r="G18" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H18" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H18" s="34" t="s">
-        <v>438</v>
-      </c>
       <c r="I18" s="34" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J18" s="34" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
-      <c r="M18" s="45"/>
-    </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1">
+      <c r="M18" s="53"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="34" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D19" s="34">
         <v>19</v>
@@ -9654,30 +11115,30 @@
         <v>92</v>
       </c>
       <c r="G19" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H19" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H19" s="34" t="s">
-        <v>438</v>
-      </c>
       <c r="I19" s="34" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J19" s="34" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
-      <c r="M19" s="45"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1">
+      <c r="M19" s="53"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="34" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D20" s="34">
         <v>19</v>
@@ -9687,22 +11148,22 @@
         <v>92</v>
       </c>
       <c r="G20" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H20" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H20" s="34" t="s">
-        <v>438</v>
-      </c>
       <c r="I20" s="34" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J20" s="34" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
-      <c r="M20" s="45"/>
-    </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1">
+      <c r="M20" s="53"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="34" t="s">
         <v>12</v>
       </c>
@@ -9710,7 +11171,7 @@
         <v>221</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D21" s="34">
         <v>25</v>
@@ -9720,117 +11181,117 @@
         <v>92</v>
       </c>
       <c r="G21" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H21" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H21" s="34" t="s">
-        <v>438</v>
-      </c>
       <c r="I21" s="34" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J21" s="34" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
-      <c r="M21" s="45"/>
-    </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1">
+      <c r="M21" s="53"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="34" t="s">
         <v>361</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D22" s="34">
         <v>20</v>
       </c>
       <c r="E22" s="34"/>
-      <c r="F22" s="41" t="s">
-        <v>437</v>
-      </c>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="43"/>
+      <c r="F22" s="49" t="s">
+        <v>436</v>
+      </c>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
-      <c r="M22" s="45"/>
-    </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1">
+      <c r="M22" s="53"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="34" t="s">
+        <v>505</v>
+      </c>
+      <c r="B23" s="34" t="s">
         <v>506</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="C23" s="34" t="s">
         <v>507</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>508</v>
       </c>
       <c r="D23" s="34">
         <v>20</v>
       </c>
       <c r="E23" s="34"/>
-      <c r="F23" s="41" t="s">
-        <v>438</v>
-      </c>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="43"/>
+      <c r="F23" s="49" t="s">
+        <v>437</v>
+      </c>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="51"/>
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
-      <c r="M23" s="45"/>
-    </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1">
+      <c r="M23" s="53"/>
+    </row>
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="34" t="s">
         <v>109</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D24" s="34">
         <v>30</v>
       </c>
       <c r="E24" s="34"/>
-      <c r="F24" s="41" t="s">
+      <c r="F24" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="43"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="51"/>
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
-      <c r="M24" s="45"/>
-    </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1">
+      <c r="M24" s="53"/>
+    </row>
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="B25" s="34" t="s">
         <v>478</v>
       </c>
-      <c r="B25" s="34" t="s">
-        <v>479</v>
-      </c>
       <c r="C25" s="34" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D25" s="34">
         <v>19</v>
       </c>
       <c r="E25" s="34"/>
-      <c r="F25" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="43"/>
+      <c r="F25" s="49" t="s">
+        <v>479</v>
+      </c>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -9853,7 +11314,7 @@
       <selection activeCell="A17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="106.88671875" style="5" bestFit="1" customWidth="1"/>
@@ -9875,7 +11336,7 @@
     <col min="18" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -9925,7 +11386,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44593</v>
       </c>
@@ -9975,20 +11436,20 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="I4" s="46" t="s">
-        <v>402</v>
-      </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-    </row>
-    <row r="5" spans="1:17" ht="27.6">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I4" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+    </row>
+    <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>186</v>
       </c>
@@ -10041,7 +11502,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -10078,7 +11539,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -10115,7 +11576,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -10129,7 +11590,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>85</v>
       </c>
@@ -10143,7 +11604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>87</v>
       </c>
@@ -10157,7 +11618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -10171,7 +11632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>139</v>
       </c>
@@ -10185,7 +11646,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>140</v>
       </c>
@@ -10199,7 +11660,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
@@ -10213,7 +11674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
@@ -10227,7 +11688,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
@@ -10241,7 +11702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
@@ -10255,7 +11716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
@@ -10269,7 +11730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -10283,7 +11744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -10297,7 +11758,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>146</v>
       </c>
@@ -10327,7 +11788,7 @@
       <selection activeCell="A5" sqref="A5:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="106.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -10349,7 +11810,7 @@
     <col min="18" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
@@ -10384,7 +11845,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -10419,20 +11880,20 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="I3" s="46" t="s">
-        <v>402</v>
-      </c>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-    </row>
-    <row r="4" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I3" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>186</v>
       </c>
@@ -10485,7 +11946,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>118</v>
       </c>
@@ -10499,19 +11960,19 @@
         <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>369</v>
@@ -10520,7 +11981,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -10534,22 +11995,22 @@
         <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="L6" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>369</v>
@@ -10558,7 +12019,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -10572,7 +12033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -10586,7 +12047,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -10600,7 +12061,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>85</v>
       </c>
@@ -10614,7 +12075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>87</v>
       </c>
@@ -10628,7 +12089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>119</v>
       </c>
@@ -10642,7 +12103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>120</v>
       </c>
@@ -10656,7 +12117,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>121</v>
       </c>
@@ -10670,7 +12131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>146</v>
       </c>
@@ -10700,7 +12161,7 @@
       <selection activeCell="A5" sqref="A5:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="106.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -10722,7 +12183,7 @@
     <col min="18" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
@@ -10757,7 +12218,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -10792,20 +12253,20 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="I3" s="46" t="s">
-        <v>402</v>
-      </c>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-    </row>
-    <row r="4" spans="1:17" ht="27.6">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I3" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+    </row>
+    <row r="4" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>186</v>
       </c>
@@ -10858,7 +12319,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>123</v>
       </c>
@@ -10872,19 +12333,19 @@
         <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="L5" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>369</v>
@@ -10893,7 +12354,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -10907,22 +12368,22 @@
         <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="L6" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>369</v>
@@ -10931,7 +12392,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>101</v>
       </c>
@@ -10945,7 +12406,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -10959,7 +12420,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -10973,7 +12434,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>85</v>
       </c>
@@ -10987,7 +12448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>87</v>
       </c>
@@ -11001,7 +12462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>125</v>
       </c>
@@ -11015,7 +12476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>127</v>
       </c>
@@ -11029,7 +12490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>121</v>
       </c>
@@ -11043,7 +12504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>146</v>
       </c>
@@ -11057,10 +12518,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="5:5">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="25"/>
     </row>
-    <row r="18" spans="5:5">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E18" s="24"/>
     </row>
   </sheetData>
@@ -11082,7 +12543,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="106.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -11101,7 +12562,7 @@
     <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>186</v>
       </c>
@@ -11145,10 +12606,10 @@
         <v>368</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -11159,19 +12620,19 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>369</v>
@@ -11180,7 +12641,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -11191,19 +12652,19 @@
         <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>369</v>
@@ -11212,7 +12673,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -11223,7 +12684,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>85</v>
       </c>
@@ -11234,7 +12695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>87</v>
       </c>
@@ -11245,7 +12706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -11256,7 +12717,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>114</v>
       </c>
@@ -11267,7 +12728,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
@@ -11278,7 +12739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -11289,7 +12750,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1">
+    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
@@ -11300,7 +12761,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="49.35" customHeight="1">
+    <row r="12" spans="1:15" ht="49.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>115</v>
       </c>
@@ -11315,7 +12776,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="49.65" customHeight="1">
+    <row r="13" spans="1:15" ht="49.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>116</v>
       </c>
@@ -11329,7 +12790,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>45</v>
       </c>
@@ -11340,7 +12801,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>117</v>
       </c>
@@ -11351,7 +12812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>146</v>
       </c>
@@ -11375,7 +12836,7 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -11404,7 +12865,7 @@
     <col min="25" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
@@ -11478,7 +12939,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -11552,7 +13013,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="I3" s="26"/>
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
@@ -11562,20 +13023,20 @@
       <c r="O3" s="27"/>
       <c r="P3" s="16"/>
     </row>
-    <row r="4" spans="1:24">
-      <c r="I4" s="46" t="s">
-        <v>402</v>
-      </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-    </row>
-    <row r="5" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="I4" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>186</v>
       </c>
@@ -11628,7 +13089,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>85</v>
       </c>
@@ -11642,19 +13103,19 @@
         <v>8</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>369</v>
@@ -11663,7 +13124,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>87</v>
       </c>
@@ -11677,19 +13138,19 @@
         <v>8</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>369</v>
@@ -11698,7 +13159,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>86</v>
       </c>
@@ -11712,7 +13173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -11726,7 +13187,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="23.4" customHeight="1">
+    <row r="10" spans="1:24" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -11740,7 +13201,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>89</v>
       </c>
@@ -11754,7 +13215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>91</v>
       </c>
@@ -11768,7 +13229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>280</v>
       </c>
@@ -11782,7 +13243,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>281</v>
       </c>
@@ -11796,7 +13257,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>282</v>
       </c>
@@ -11810,7 +13271,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>283</v>
       </c>
@@ -11824,7 +13285,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>284</v>
       </c>
@@ -11838,7 +13299,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>285</v>
       </c>
@@ -11852,7 +13313,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>295</v>
       </c>
@@ -11866,7 +13327,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>286</v>
       </c>
@@ -11880,7 +13341,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>287</v>
       </c>
@@ -11894,7 +13355,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>288</v>
       </c>
@@ -11908,7 +13369,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>289</v>
       </c>
@@ -11922,7 +13383,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>290</v>
       </c>
@@ -11936,7 +13397,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>291</v>
       </c>
@@ -11950,7 +13411,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>292</v>
       </c>
@@ -11964,7 +13425,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>294</v>
       </c>
@@ -11978,7 +13439,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>293</v>
       </c>
@@ -11992,7 +13453,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>146</v>
       </c>
